--- a/recount/example/example_expenses_en.xlsx
+++ b/recount/example/example_expenses_en.xlsx
@@ -15,17 +15,17 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1644570071" val="980" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1644570071" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1644570071" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1644570071"/>
+      <pm:revision xmlns:pm="smNativeData" day="1666541772" val="980" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1666541772" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1666541772" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1666541772"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="394">
   <si>
     <t>ID</t>
   </si>
@@ -36,6 +36,9 @@
     <t>Currency</t>
   </si>
   <si>
+    <t>Receiver</t>
+  </si>
+  <si>
     <t>Description</t>
   </si>
   <si>
@@ -48,10 +51,10 @@
     <t>Category</t>
   </si>
   <si>
+    <t>Place</t>
+  </si>
+  <si>
     <t>Payment Method</t>
-  </si>
-  <si>
-    <t>Travel</t>
   </si>
   <si>
     <t>EUR</t>
@@ -1229,7 +1232,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644570071" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1666541772" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1244,7 +1247,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644570071" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1666541772" ulstyle="none" kern="1">
             <pm:latin face="Basic Sans" sz="200" lang="default"/>
             <pm:cs face="Basic Roman" sz="200" lang="default"/>
             <pm:ea face="Basic Roman" sz="200" lang="default"/>
@@ -1260,7 +1263,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644570071" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1666541772" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Basic Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="Basic Roman" sz="220" lang="default" weight="bold"/>
@@ -1275,7 +1278,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1644570071" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1666541772" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="240" lang="default"/>
             <pm:ea face="Basic Roman" sz="240" lang="default"/>
@@ -1318,7 +1321,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1644570071" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1666541772" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1340,7 +1343,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1644570071"/>
+          <pm:border xmlns:pm="smNativeData" id="1666541772"/>
         </ext>
       </extLst>
     </border>
@@ -1359,7 +1362,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1644570071">
+          <pm:border xmlns:pm="smNativeData" id="1666541772">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -1380,7 +1383,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1644570071">
+          <pm:border xmlns:pm="smNativeData" id="1666541772">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -1402,7 +1405,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1644570071">
+          <pm:border xmlns:pm="smNativeData" id="1666541772">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -1423,7 +1426,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1644570071">
+          <pm:border xmlns:pm="smNativeData" id="1666541772">
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -1444,7 +1447,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1644570071">
+          <pm:border xmlns:pm="smNativeData" id="1666541772">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -1466,7 +1469,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1644570071">
+          <pm:border xmlns:pm="smNativeData" id="1666541772">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -1488,7 +1491,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1644570071">
+          <pm:border xmlns:pm="smNativeData" id="1666541772">
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -1509,7 +1512,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1644570071"/>
+          <pm:border xmlns:pm="smNativeData" id="1666541772"/>
         </ext>
       </extLst>
     </border>
@@ -1572,10 +1575,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1644570071" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1666541772" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1644570071" count="1">
+      <pm:colors xmlns:pm="smNativeData" id="1666541772" count="1">
         <pm:color name="Gris 20%" rgb="000000"/>
       </pm:colors>
     </ext>
@@ -1842,24 +1845,24 @@
   <dimension ref="A1:L589"/>
   <sheetViews>
     <sheetView tabSelected="1" view="normal" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="A1" sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.553571" defaultRowHeight="15.40"/>
   <cols>
     <col min="2" max="2" width="17.553571" customWidth="1"/>
-    <col min="3" max="3" width="16.107143" customWidth="1"/>
-    <col min="4" max="4" width="51.330357" customWidth="1" style="7"/>
-    <col min="5" max="5" width="12.000000" customWidth="1" style="17"/>
-    <col min="6" max="6" width="21.258929" customWidth="1"/>
-    <col min="7" max="7" width="36.330357" customWidth="1" style="13"/>
-    <col min="8" max="8" width="16.910714" customWidth="1"/>
+    <col min="3" max="4" width="16.107143" customWidth="1"/>
+    <col min="5" max="5" width="51.330357" customWidth="1" style="7"/>
+    <col min="6" max="6" width="12.000000" customWidth="1" style="17"/>
+    <col min="7" max="7" width="21.258929" customWidth="1"/>
+    <col min="8" max="8" width="36.330357" customWidth="1" style="13"/>
     <col min="9" max="9" width="18.437500" customWidth="1"/>
-    <col min="10" max="10" width="13.107143" customWidth="1"/>
-    <col min="11" max="11" width="14.000000" customWidth="1"/>
+    <col min="10" max="10" width="16.910714" customWidth="1"/>
+    <col min="11" max="11" width="18.437500" customWidth="1"/>
+    <col min="12" max="12" width="14.000000" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1869,24 +1872,28 @@
       <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="16" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="11" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="n">
@@ -1896,16 +1903,16 @@
         <v>246.550000000000011</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="17" t="n">
+      <c r="E2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="17" t="n">
         <v>43678</v>
       </c>
-      <c r="G2" s="13" t="s">
-        <v>11</v>
+      <c r="H2" s="13" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1915,11 +1922,11 @@
       <c r="B3" s="4" t="n">
         <v>545.230000000000018</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="13" t="s">
+      <c r="E3" s="7" t="s">
         <v>13</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1929,17 +1936,19 @@
       <c r="B4" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="17" t="n">
+      <c r="E4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="17" t="n">
         <v>43681</v>
       </c>
-      <c r="G4" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
+      <c r="H4" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4" s="11"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="n">
@@ -1949,14 +1958,14 @@
         <f>75+60</f>
         <v>135</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="17" t="n">
+      <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="17" t="n">
         <v>43683</v>
       </c>
-      <c r="G5" s="13" t="s">
-        <v>17</v>
+      <c r="H5" s="13" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1966,14 +1975,14 @@
       <c r="B6" s="4" t="n">
         <v>16</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="17" t="n">
+      <c r="E6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="17" t="n">
         <v>43687</v>
       </c>
-      <c r="G6" s="13" t="s">
-        <v>19</v>
+      <c r="H6" s="13" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1983,11 +1992,11 @@
       <c r="B7" s="4" t="n">
         <v>50</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="E7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="13" t="s">
         <v>20</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1997,14 +2006,14 @@
       <c r="B8" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="17" t="n">
+      <c r="E8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="17" t="n">
         <v>43692</v>
       </c>
-      <c r="G8" s="13" t="s">
-        <v>19</v>
+      <c r="H8" s="13" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2015,14 +2024,15 @@
         <v>10</v>
       </c>
       <c r="C9" s="1"/>
-      <c r="D9" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="17" t="n">
+      <c r="D9" s="1"/>
+      <c r="E9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="17" t="n">
         <v>43694</v>
       </c>
-      <c r="G9" s="13" t="s">
-        <v>19</v>
+      <c r="H9" s="13" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2033,16 +2043,16 @@
         <v>6.5</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="17" t="n">
+      <c r="E10" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="17" t="n">
         <v>43699</v>
       </c>
-      <c r="G10" s="13" t="s">
-        <v>25</v>
+      <c r="H10" s="13" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2052,11 +2062,11 @@
       <c r="B11" t="n">
         <v>117.5</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="13" t="s">
+      <c r="E11" s="7" t="s">
         <v>27</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2064,13 +2074,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>10.3400000000000016</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>19</v>
+        <v>10.3399999999999999</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2080,11 +2090,11 @@
       <c r="B13" t="n">
         <v>6.61000000000000032</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G13" s="13" t="s">
+      <c r="E13" s="7" t="s">
         <v>30</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2094,11 +2104,11 @@
       <c r="B14" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="D14" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" s="13" t="s">
+      <c r="E14" s="9" t="s">
         <v>19</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2108,14 +2118,14 @@
       <c r="B15" s="3" t="n">
         <v>23</v>
       </c>
-      <c r="D15" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="17" t="n">
+      <c r="E15" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="17" t="n">
         <v>43700</v>
       </c>
-      <c r="G15" s="13" t="s">
-        <v>19</v>
+      <c r="H15" s="13" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2125,11 +2135,11 @@
       <c r="B16" t="n">
         <v>183.789999999999992</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>30</v>
+      <c r="E16" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2139,11 +2149,11 @@
       <c r="B17" t="n">
         <v>102.590000000000003</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>15</v>
+      <c r="E17" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2153,11 +2163,11 @@
       <c r="B18" t="n">
         <v>17.1900000000000013</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>17</v>
+      <c r="E18" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2167,11 +2177,11 @@
       <c r="B19" t="n">
         <v>39.3599999999999994</v>
       </c>
-      <c r="D19" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>30</v>
+      <c r="E19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2181,11 +2191,11 @@
       <c r="B20" t="n">
         <v>68.9599999999999937</v>
       </c>
-      <c r="D20" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>30</v>
+      <c r="E20" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2195,11 +2205,11 @@
       <c r="B21" t="n">
         <v>8.75</v>
       </c>
-      <c r="D21" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>25</v>
+      <c r="E21" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2209,11 +2219,11 @@
       <c r="B22" t="n">
         <v>6.71999999999999975</v>
       </c>
-      <c r="D22" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G22" s="13" t="s">
-        <v>19</v>
+      <c r="E22" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2223,11 +2233,11 @@
       <c r="B23" t="n">
         <v>18</v>
       </c>
-      <c r="D23" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G23" s="13" t="s">
-        <v>19</v>
+      <c r="E23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2237,11 +2247,11 @@
       <c r="B24" s="1" t="n">
         <v>8.25</v>
       </c>
-      <c r="D24" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="G24" s="13" t="s">
-        <v>19</v>
+      <c r="E24" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2251,14 +2261,14 @@
       <c r="B25" s="3" t="n">
         <v>20.6600000000000001</v>
       </c>
-      <c r="D25" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E25" s="17" t="n">
+      <c r="E25" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F25" s="17" t="n">
         <v>43701</v>
       </c>
-      <c r="G25" s="13" t="s">
-        <v>30</v>
+      <c r="H25" s="13" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2268,11 +2278,11 @@
       <c r="B26" t="n">
         <v>30.1700000000000017</v>
       </c>
-      <c r="D26" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G26" s="13" t="s">
-        <v>30</v>
+      <c r="E26" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2282,11 +2292,11 @@
       <c r="B27" t="n">
         <v>18.370000000000001</v>
       </c>
-      <c r="D27" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G27" s="13" t="s">
-        <v>30</v>
+      <c r="E27" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H27" s="13" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2296,11 +2306,11 @@
       <c r="B28" t="n">
         <v>6.20000000000000018</v>
       </c>
-      <c r="D28" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G28" s="13" t="s">
-        <v>25</v>
+      <c r="E28" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" s="13" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2310,11 +2320,11 @@
       <c r="B29" t="n">
         <v>11.0999999999999996</v>
       </c>
-      <c r="D29" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G29" s="13" t="s">
-        <v>19</v>
+      <c r="E29" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2324,11 +2334,11 @@
       <c r="B30" t="n">
         <v>60.2199999999999989</v>
       </c>
-      <c r="D30" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G30" s="13" t="s">
-        <v>30</v>
+      <c r="E30" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H30" s="13" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2338,11 +2348,11 @@
       <c r="B31" s="1" t="n">
         <v>8.25</v>
       </c>
-      <c r="D31" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="G31" s="13" t="s">
-        <v>19</v>
+      <c r="E31" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H31" s="13" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2352,14 +2362,14 @@
       <c r="B32" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="D32" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E32" s="17" t="n">
+      <c r="E32" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F32" s="17" t="n">
         <v>43702</v>
       </c>
-      <c r="G32" s="13" t="s">
-        <v>49</v>
+      <c r="H32" s="13" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2369,11 +2379,11 @@
       <c r="B33" s="1" t="n">
         <v>49.1799999999999997</v>
       </c>
-      <c r="D33" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="G33" s="13" t="s">
-        <v>19</v>
+      <c r="E33" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H33" s="13" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2383,14 +2393,14 @@
       <c r="B34" s="3" t="n">
         <v>6.20000000000000018</v>
       </c>
-      <c r="D34" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E34" s="17" t="n">
+      <c r="E34" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F34" s="17" t="n">
         <v>43703</v>
       </c>
-      <c r="G34" s="13" t="s">
-        <v>25</v>
+      <c r="H34" s="13" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2400,11 +2410,11 @@
       <c r="B35" t="n">
         <v>14.25</v>
       </c>
-      <c r="D35" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G35" s="13" t="s">
-        <v>19</v>
+      <c r="E35" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H35" s="13" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2414,11 +2424,11 @@
       <c r="B36" t="n">
         <v>22.4200000000000017</v>
       </c>
-      <c r="D36" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G36" s="13" t="s">
-        <v>19</v>
+      <c r="E36" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H36" s="13" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2428,11 +2438,11 @@
       <c r="B37" t="n">
         <v>10.5800000000000001</v>
       </c>
-      <c r="D37" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G37" s="13" t="s">
-        <v>19</v>
+      <c r="E37" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H37" s="13" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2442,11 +2452,11 @@
       <c r="B38" s="1" t="n">
         <v>197.740000000000009</v>
       </c>
-      <c r="D38" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="G38" s="13" t="s">
-        <v>30</v>
+      <c r="E38" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H38" s="13" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2456,14 +2466,14 @@
       <c r="B39" s="3" t="n">
         <v>25.25</v>
       </c>
-      <c r="D39" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E39" s="17" t="n">
+      <c r="E39" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F39" s="17" t="n">
         <v>43704</v>
       </c>
-      <c r="G39" s="13" t="s">
-        <v>19</v>
+      <c r="H39" s="13" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2473,11 +2483,11 @@
       <c r="B40" t="n">
         <v>6.33000000000000007</v>
       </c>
-      <c r="D40" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G40" s="13" t="s">
+      <c r="E40" s="7" t="s">
         <v>58</v>
+      </c>
+      <c r="H40" s="13" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2487,11 +2497,11 @@
       <c r="B41" t="n">
         <v>6.20000000000000018</v>
       </c>
-      <c r="D41" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="G41" s="13" t="s">
-        <v>25</v>
+      <c r="E41" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H41" s="13" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2501,11 +2511,11 @@
       <c r="B42" t="n">
         <v>45.9799999999999969</v>
       </c>
-      <c r="D42" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G42" s="13" t="s">
-        <v>19</v>
+      <c r="E42" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H42" s="13" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2515,14 +2525,14 @@
       <c r="B43" s="3" t="n">
         <v>47.5300000000000011</v>
       </c>
-      <c r="D43" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E43" s="17" t="n">
+      <c r="E43" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F43" s="17" t="n">
         <v>43705</v>
       </c>
-      <c r="G43" s="13" t="s">
-        <v>19</v>
+      <c r="H43" s="13" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2532,11 +2542,11 @@
       <c r="B44" t="n">
         <v>357.860000000000014</v>
       </c>
-      <c r="D44" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G44" s="13" t="s">
-        <v>30</v>
+      <c r="E44" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H44" s="13" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2546,11 +2556,11 @@
       <c r="B45" t="n">
         <v>41.8100000000000023</v>
       </c>
-      <c r="D45" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G45" s="13" t="s">
-        <v>30</v>
+      <c r="E45" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H45" s="13" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2560,11 +2570,11 @@
       <c r="B46" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="D46" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="G46" s="13" t="s">
-        <v>30</v>
+      <c r="E46" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H46" s="13" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2574,14 +2584,14 @@
       <c r="B47" s="3" t="n">
         <v>6.20000000000000018</v>
       </c>
-      <c r="D47" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="E47" s="17" t="n">
+      <c r="E47" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F47" s="17" t="n">
         <v>43706</v>
       </c>
-      <c r="G47" s="13" t="s">
-        <v>25</v>
+      <c r="H47" s="13" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -2591,8 +2601,8 @@
       <c r="B48" t="n">
         <v>18.2399999999999984</v>
       </c>
-      <c r="D48" s="7" t="s">
-        <v>65</v>
+      <c r="E48" s="7" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -2602,8 +2612,8 @@
       <c r="B49" t="n">
         <v>16.1999999999999993</v>
       </c>
-      <c r="D49" s="7" t="s">
-        <v>66</v>
+      <c r="E49" s="7" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -2613,8 +2623,8 @@
       <c r="B50" t="n">
         <v>3.43999999999999995</v>
       </c>
-      <c r="D50" s="7" t="s">
-        <v>67</v>
+      <c r="E50" s="7" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -2624,8 +2634,8 @@
       <c r="B51" t="n">
         <v>120.599999999999994</v>
       </c>
-      <c r="D51" s="7" t="s">
-        <v>68</v>
+      <c r="E51" s="7" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -2635,8 +2645,8 @@
       <c r="B52" t="n">
         <v>51.4399999999999977</v>
       </c>
-      <c r="D52" s="7" t="s">
-        <v>69</v>
+      <c r="E52" s="7" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -2646,8 +2656,8 @@
       <c r="B53" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="D53" s="9" t="s">
-        <v>70</v>
+      <c r="E53" s="9" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2657,10 +2667,10 @@
       <c r="B54" s="3" t="n">
         <v>11.0500000000000007</v>
       </c>
-      <c r="D54" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E54" s="17" t="n">
+      <c r="E54" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F54" s="17" t="n">
         <v>43707</v>
       </c>
     </row>
@@ -2671,8 +2681,8 @@
       <c r="B55" t="n">
         <v>4.03000000000000025</v>
       </c>
-      <c r="D55" s="7" t="s">
-        <v>71</v>
+      <c r="E55" s="7" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2682,8 +2692,8 @@
       <c r="B56" t="n">
         <v>6.20000000000000018</v>
       </c>
-      <c r="D56" s="7" t="s">
-        <v>64</v>
+      <c r="E56" s="7" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2693,8 +2703,8 @@
       <c r="B57" s="1" t="n">
         <v>14.8300000000000001</v>
       </c>
-      <c r="D57" s="9" t="s">
-        <v>72</v>
+      <c r="E57" s="9" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2704,10 +2714,10 @@
       <c r="B58" s="3" t="n">
         <v>42.1099999999999994</v>
       </c>
-      <c r="D58" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E58" s="17" t="n">
+      <c r="E58" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F58" s="17" t="n">
         <v>43708</v>
       </c>
     </row>
@@ -2718,8 +2728,8 @@
       <c r="B59" t="n">
         <v>7</v>
       </c>
-      <c r="D59" s="7" t="s">
-        <v>73</v>
+      <c r="E59" s="7" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2727,7 +2737,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="6"/>
-      <c r="D60" s="10"/>
+      <c r="E60" s="10"/>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" t="n">
@@ -2736,14 +2746,14 @@
       <c r="B61" t="n">
         <v>7</v>
       </c>
-      <c r="D61" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="E61" s="17" t="n">
+      <c r="E61" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F61" s="17" t="n">
         <v>43711</v>
       </c>
-      <c r="G61" s="13" t="s">
-        <v>75</v>
+      <c r="H61" s="13" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2753,11 +2763,11 @@
       <c r="B62" t="n">
         <v>57.5700000000000003</v>
       </c>
-      <c r="D62" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G62" s="13" t="s">
-        <v>76</v>
+      <c r="E62" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H62" s="13" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2765,7 +2775,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="1"/>
-      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" t="n">
@@ -2774,14 +2784,14 @@
       <c r="B64" s="3" t="n">
         <v>59.8999999999999986</v>
       </c>
-      <c r="D64" s="8" t="s">
+      <c r="E64" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F64" s="17" t="n">
+        <v>43713</v>
+      </c>
+      <c r="H64" s="13" t="s">
         <v>77</v>
-      </c>
-      <c r="E64" s="17" t="n">
-        <v>43713</v>
-      </c>
-      <c r="G64" s="13" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2789,7 +2799,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="1"/>
-      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" t="n">
@@ -2798,14 +2808,14 @@
       <c r="B66" s="3" t="n">
         <v>147.060000000000002</v>
       </c>
-      <c r="D66" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="E66" s="17" t="n">
+      <c r="E66" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F66" s="17" t="n">
         <v>43714</v>
       </c>
-      <c r="G66" s="13" t="s">
-        <v>79</v>
+      <c r="H66" s="13" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2815,11 +2825,11 @@
       <c r="B67" t="n">
         <v>10.4499999999999993</v>
       </c>
-      <c r="D67" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G67" s="13" t="s">
-        <v>76</v>
+      <c r="E67" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H67" s="13" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2829,11 +2839,11 @@
       <c r="B68" t="n">
         <v>10.0099999999999998</v>
       </c>
-      <c r="D68" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G68" s="13" t="s">
+      <c r="E68" s="7" t="s">
         <v>82</v>
+      </c>
+      <c r="H68" s="13" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2843,8 +2853,8 @@
       <c r="B69" t="n">
         <v>168</v>
       </c>
-      <c r="D69" s="7" t="s">
-        <v>83</v>
+      <c r="E69" s="7" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2852,7 +2862,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="1"/>
-      <c r="D70" s="9"/>
+      <c r="E70" s="9"/>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" t="n">
@@ -2861,14 +2871,14 @@
       <c r="B71" s="3" t="n">
         <v>20.4699999999999989</v>
       </c>
-      <c r="D71" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="E71" s="17" t="n">
+      <c r="E71" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="F71" s="17" t="n">
         <v>43715</v>
       </c>
-      <c r="G71" s="13" t="s">
-        <v>76</v>
+      <c r="H71" s="13" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2876,7 +2886,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="1"/>
-      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" t="n">
@@ -2885,14 +2895,14 @@
       <c r="B73" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="D73" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E73" s="17" t="n">
+      <c r="E73" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="F73" s="17" t="n">
         <v>43716</v>
       </c>
-      <c r="G73" s="13" t="s">
-        <v>86</v>
+      <c r="H73" s="13" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2902,11 +2912,11 @@
       <c r="B74" t="n">
         <v>9</v>
       </c>
-      <c r="D74" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="G74" s="13" t="s">
+      <c r="E74" s="7" t="s">
         <v>88</v>
+      </c>
+      <c r="H74" s="13" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2914,7 +2924,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="1"/>
-      <c r="D75" s="9"/>
+      <c r="E75" s="9"/>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" t="n">
@@ -2923,14 +2933,14 @@
       <c r="B76" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="D76" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E76" s="17" t="n">
+      <c r="E76" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F76" s="17" t="n">
         <v>43717</v>
       </c>
-      <c r="G76" s="13" t="s">
-        <v>89</v>
+      <c r="H76" s="13" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2938,7 +2948,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="1"/>
-      <c r="D77" s="9"/>
+      <c r="E77" s="9"/>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" t="n">
@@ -2947,11 +2957,11 @@
       <c r="B78" s="3" t="n">
         <v>9.25</v>
       </c>
-      <c r="D78" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="G78" s="13" t="s">
-        <v>76</v>
+      <c r="E78" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="H78" s="13" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2959,7 +2969,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="1"/>
-      <c r="D79" s="9"/>
+      <c r="E79" s="9"/>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" t="n">
@@ -2968,10 +2978,10 @@
       <c r="B80" s="3" t="n">
         <v>55.8999999999999986</v>
       </c>
-      <c r="D80" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="E80" s="17" t="n">
+      <c r="E80" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F80" s="17" t="n">
         <v>43719</v>
       </c>
     </row>
@@ -2982,8 +2992,8 @@
       <c r="B81" t="n">
         <v>30</v>
       </c>
-      <c r="D81" s="7" t="s">
-        <v>92</v>
+      <c r="E81" s="7" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2993,8 +3003,8 @@
       <c r="B82" t="n">
         <v>16.5</v>
       </c>
-      <c r="D82" s="7" t="s">
-        <v>93</v>
+      <c r="E82" s="7" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -3004,8 +3014,8 @@
       <c r="B83" t="n">
         <v>60</v>
       </c>
-      <c r="D83" s="7" t="s">
-        <v>94</v>
+      <c r="E83" s="7" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -3013,7 +3023,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="1"/>
-      <c r="D84" s="9"/>
+      <c r="E84" s="9"/>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" t="n">
@@ -3022,10 +3032,10 @@
       <c r="B85" s="3" t="n">
         <v>60.8299999999999983</v>
       </c>
-      <c r="D85" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="E85" s="17" t="n">
+      <c r="E85" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F85" s="17" t="n">
         <v>43720</v>
       </c>
     </row>
@@ -3034,7 +3044,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="1"/>
-      <c r="D86" s="9"/>
+      <c r="E86" s="9"/>
     </row>
     <row r="87" spans="1:8">
       <c r="A87" t="n">
@@ -3043,14 +3053,14 @@
       <c r="B87" s="3" t="n">
         <v>31.0399999999999991</v>
       </c>
-      <c r="D87" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E87" s="17" t="n">
+      <c r="E87" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F87" s="17" t="n">
         <v>43721</v>
       </c>
-      <c r="G87" s="13" t="s">
-        <v>79</v>
+      <c r="H87" s="13" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3060,11 +3070,11 @@
       <c r="B88" t="n">
         <v>60.3400000000000034</v>
       </c>
-      <c r="D88" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="G88" s="13" t="s">
+      <c r="E88" s="7" t="s">
         <v>98</v>
+      </c>
+      <c r="H88" s="13" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3074,11 +3084,11 @@
       <c r="B89" t="n">
         <v>26.4200000000000017</v>
       </c>
-      <c r="D89" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G89" s="13" t="s">
-        <v>76</v>
+      <c r="E89" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H89" s="13" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3088,11 +3098,11 @@
       <c r="B90" t="n">
         <v>14.9199999999999999</v>
       </c>
-      <c r="D90" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="G90" s="13" t="s">
+      <c r="E90" s="7" t="s">
         <v>101</v>
+      </c>
+      <c r="H90" s="13" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3102,11 +3112,11 @@
       <c r="B91" t="n">
         <v>42.9699999999999989</v>
       </c>
-      <c r="D91" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G91" s="13" t="s">
+      <c r="E91" s="7" t="s">
         <v>103</v>
+      </c>
+      <c r="H91" s="13" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3116,11 +3126,11 @@
       <c r="B92" t="n">
         <v>14.9199999999999999</v>
       </c>
-      <c r="D92" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="G92" s="13" t="s">
+      <c r="E92" s="7" t="s">
         <v>105</v>
+      </c>
+      <c r="H92" s="13" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3128,13 +3138,13 @@
         <v>92</v>
       </c>
       <c r="B93" t="n">
-        <v>13.9200000000000017</v>
-      </c>
-      <c r="D93" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G93" s="13" t="s">
+        <v>13.9199999999999999</v>
+      </c>
+      <c r="E93" s="7" t="s">
         <v>107</v>
+      </c>
+      <c r="H93" s="13" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -3142,7 +3152,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="1"/>
-      <c r="D94" s="9"/>
+      <c r="E94" s="9"/>
     </row>
     <row r="95" spans="1:8">
       <c r="A95" t="n">
@@ -3151,14 +3161,14 @@
       <c r="B95" s="3" t="n">
         <v>26</v>
       </c>
-      <c r="D95" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="E95" s="17" t="n">
+      <c r="E95" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="F95" s="17" t="n">
         <v>43723</v>
       </c>
-      <c r="G95" s="13" t="s">
-        <v>89</v>
+      <c r="H95" s="13" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3168,11 +3178,11 @@
       <c r="B96" t="n">
         <v>23</v>
       </c>
-      <c r="D96" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G96" s="13" t="s">
-        <v>89</v>
+      <c r="E96" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H96" s="13" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -3180,7 +3190,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="1"/>
-      <c r="D97" s="9"/>
+      <c r="E97" s="9"/>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" t="n">
@@ -3189,14 +3199,14 @@
       <c r="B98" s="3" t="n">
         <v>1080</v>
       </c>
-      <c r="D98" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="E98" s="17" t="n">
+      <c r="E98" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="F98" s="17" t="n">
         <v>43725</v>
       </c>
-      <c r="G98" s="13" t="s">
-        <v>11</v>
+      <c r="H98" s="13" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3206,11 +3216,11 @@
       <c r="B99" t="n">
         <v>32</v>
       </c>
-      <c r="D99" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="G99" s="13" t="s">
+      <c r="E99" s="7" t="s">
         <v>112</v>
+      </c>
+      <c r="H99" s="13" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -3218,7 +3228,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="1"/>
-      <c r="D100" s="9"/>
+      <c r="E100" s="9"/>
     </row>
     <row r="101" spans="1:8">
       <c r="A101" t="n">
@@ -3227,14 +3237,14 @@
       <c r="B101" s="3" t="n">
         <v>8.96000000000000085</v>
       </c>
-      <c r="D101" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="E101" s="17" t="n">
+      <c r="E101" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="F101" s="17" t="n">
         <v>43726</v>
       </c>
-      <c r="G101" s="13" t="s">
-        <v>89</v>
+      <c r="H101" s="13" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -3242,7 +3252,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="1"/>
-      <c r="D102" s="9"/>
+      <c r="E102" s="9"/>
     </row>
     <row r="103" spans="1:8">
       <c r="A103" t="n">
@@ -3251,14 +3261,14 @@
       <c r="B103" s="3" t="n">
         <v>24.7399999999999984</v>
       </c>
-      <c r="D103" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="E103" s="17" t="n">
+      <c r="E103" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="F103" s="17" t="n">
         <v>43727</v>
       </c>
-      <c r="G103" s="13" t="s">
-        <v>76</v>
+      <c r="H103" s="13" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -3266,7 +3276,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="1"/>
-      <c r="D104" s="9"/>
+      <c r="E104" s="9"/>
     </row>
     <row r="105" spans="1:8">
       <c r="A105" t="n">
@@ -3275,14 +3285,14 @@
       <c r="B105" s="3" t="n">
         <v>35.25</v>
       </c>
-      <c r="D105" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="E105" s="17" t="n">
+      <c r="E105" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="F105" s="17" t="n">
         <v>43728</v>
       </c>
-      <c r="G105" s="13" t="s">
-        <v>101</v>
+      <c r="H105" s="13" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3292,11 +3302,11 @@
       <c r="B106" t="n">
         <v>5.58999999999999986</v>
       </c>
-      <c r="D106" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G106" s="13" t="s">
-        <v>103</v>
+      <c r="E106" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="H106" s="13" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3306,11 +3316,11 @@
       <c r="B107" t="n">
         <v>11.5399999999999991</v>
       </c>
-      <c r="D107" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G107" s="13" t="s">
-        <v>103</v>
+      <c r="E107" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H107" s="13" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3320,11 +3330,11 @@
       <c r="B108" t="n">
         <v>13.8000000000000007</v>
       </c>
-      <c r="D108" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G108" s="13" t="s">
+      <c r="E108" s="7" t="s">
         <v>119</v>
+      </c>
+      <c r="H108" s="13" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3334,11 +3344,11 @@
       <c r="B109" t="n">
         <v>25</v>
       </c>
-      <c r="D109" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G109" s="13" t="s">
-        <v>89</v>
+      <c r="E109" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="H109" s="13" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -3346,7 +3356,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="1"/>
-      <c r="D110" s="9"/>
+      <c r="E110" s="9"/>
     </row>
     <row r="111" spans="1:8">
       <c r="A111" t="n">
@@ -3355,14 +3365,14 @@
       <c r="B111" s="3" t="n">
         <v>6.90000000000000036</v>
       </c>
-      <c r="D111" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="E111" s="17" t="n">
+      <c r="E111" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="F111" s="17" t="n">
         <v>43729</v>
       </c>
-      <c r="G111" s="13" t="s">
-        <v>103</v>
+      <c r="H111" s="13" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3372,11 +3382,11 @@
       <c r="B112" t="n">
         <v>12.1500000000000004</v>
       </c>
-      <c r="D112" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="G112" s="13" t="s">
-        <v>103</v>
+      <c r="E112" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="H112" s="13" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -3384,23 +3394,23 @@
         <v>112</v>
       </c>
       <c r="B113" s="1"/>
-      <c r="D113" s="9"/>
+      <c r="E113" s="9"/>
     </row>
     <row r="114" spans="1:8">
       <c r="A114" t="n">
         <v>113</v>
       </c>
       <c r="B114" s="3" t="n">
-        <v>10.3400000000000016</v>
-      </c>
-      <c r="D114" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="E114" s="17" t="n">
+        <v>10.3399999999999999</v>
+      </c>
+      <c r="E114" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="F114" s="17" t="n">
         <v>43731</v>
       </c>
-      <c r="G114" s="13" t="s">
-        <v>76</v>
+      <c r="H114" s="13" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3410,11 +3420,11 @@
       <c r="B115" t="n">
         <v>28.629999999999999</v>
       </c>
-      <c r="D115" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="G115" s="13" t="s">
+      <c r="E115" s="7" t="s">
         <v>125</v>
+      </c>
+      <c r="H115" s="13" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3424,11 +3434,11 @@
       <c r="B116" t="n">
         <v>28.7399999999999984</v>
       </c>
-      <c r="D116" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G116" s="13" t="s">
+      <c r="E116" s="7" t="s">
         <v>127</v>
+      </c>
+      <c r="H116" s="13" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3438,11 +3448,11 @@
       <c r="B117" t="n">
         <v>59.7100000000000009</v>
       </c>
-      <c r="D117" s="7" t="s">
+      <c r="E117" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="H117" s="13" t="s">
         <v>128</v>
-      </c>
-      <c r="G117" s="13" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3452,11 +3462,11 @@
       <c r="B118" t="n">
         <v>27.879999999999999</v>
       </c>
-      <c r="D118" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G118" s="13" t="s">
-        <v>15</v>
+      <c r="E118" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="H118" s="13" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -3473,16 +3483,16 @@
         <v>600</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
-      </c>
-      <c r="D120" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="E120" s="17" t="n">
+        <v>10</v>
+      </c>
+      <c r="E120" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="F120" s="17" t="n">
         <v>43733</v>
       </c>
-      <c r="G120" s="13" t="s">
-        <v>131</v>
+      <c r="H120" s="13" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3492,11 +3502,11 @@
       <c r="B121" t="n">
         <v>91</v>
       </c>
-      <c r="D121" s="7" t="s">
+      <c r="E121" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="H121" s="13" t="s">
         <v>132</v>
-      </c>
-      <c r="G121" s="13" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -3506,10 +3516,10 @@
       <c r="B122" t="n">
         <v>600</v>
       </c>
-      <c r="D122" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="F122" t="n">
+      <c r="E122" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G122" t="n">
         <v>119</v>
       </c>
     </row>
@@ -3520,10 +3530,10 @@
       <c r="B123" t="n">
         <v>91</v>
       </c>
-      <c r="D123" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="F123" t="n">
+      <c r="E123" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G123" t="n">
         <v>120</v>
       </c>
     </row>
@@ -3533,6 +3543,7 @@
       </c>
       <c r="B124" s="5"/>
       <c r="C124" s="1"/>
+      <c r="D124" s="1"/>
     </row>
     <row r="125" spans="1:8">
       <c r="A125" t="n">
@@ -3542,16 +3553,16 @@
         <v>35.0200000000000031</v>
       </c>
       <c r="C125" t="s">
-        <v>23</v>
-      </c>
-      <c r="D125" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E125" s="17" t="n">
+        <v>24</v>
+      </c>
+      <c r="E125" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="F125" s="17" t="n">
         <v>43734</v>
       </c>
-      <c r="G125" s="13" t="s">
-        <v>76</v>
+      <c r="H125" s="13" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3561,11 +3572,11 @@
       <c r="B126" t="n">
         <v>12.9499999999999993</v>
       </c>
-      <c r="D126" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G126" s="13" t="s">
-        <v>76</v>
+      <c r="E126" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="H126" s="13" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3575,11 +3586,11 @@
       <c r="B127" t="n">
         <v>23.6799999999999997</v>
       </c>
-      <c r="D127" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G127" s="13" t="s">
+      <c r="E127" s="7" t="s">
         <v>137</v>
+      </c>
+      <c r="H127" s="13" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3589,11 +3600,11 @@
       <c r="B128" t="n">
         <v>3.04000000000000004</v>
       </c>
-      <c r="D128" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="G128" s="13" t="s">
+      <c r="E128" s="7" t="s">
         <v>139</v>
+      </c>
+      <c r="H128" s="13" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3603,11 +3614,11 @@
       <c r="B129" t="n">
         <v>70.0900000000000034</v>
       </c>
-      <c r="D129" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="G129" s="13" t="s">
-        <v>82</v>
+      <c r="E129" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="H129" s="13" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -3615,7 +3626,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="1"/>
-      <c r="D130" s="9"/>
+      <c r="E130" s="9"/>
     </row>
     <row r="131" spans="1:8">
       <c r="A131" t="n">
@@ -3624,14 +3635,14 @@
       <c r="B131" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="D131" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="E131" s="17" t="n">
+      <c r="E131" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="F131" s="17" t="n">
         <v>43735</v>
       </c>
-      <c r="G131" s="13" t="s">
-        <v>142</v>
+      <c r="H131" s="13" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -3639,7 +3650,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="1"/>
-      <c r="D132" s="9"/>
+      <c r="E132" s="9"/>
     </row>
     <row r="133" spans="1:8">
       <c r="A133" t="n">
@@ -3648,14 +3659,14 @@
       <c r="B133" s="3" t="n">
         <v>13.4700000000000006</v>
       </c>
-      <c r="D133" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="E133" s="17" t="n">
+      <c r="E133" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="F133" s="17" t="n">
         <v>43737</v>
       </c>
-      <c r="G133" s="13" t="s">
-        <v>76</v>
+      <c r="H133" s="13" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -3663,7 +3674,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="1"/>
-      <c r="D134" s="9"/>
+      <c r="E134" s="9"/>
     </row>
     <row r="135" spans="1:8">
       <c r="A135" t="n">
@@ -3672,32 +3683,34 @@
       <c r="B135" s="3" t="n">
         <v>41.3599999999999994</v>
       </c>
-      <c r="D135" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="E135" s="17" t="n">
+      <c r="E135" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="F135" s="17" t="n">
         <v>43738</v>
       </c>
-      <c r="G135" s="13" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10">
+      <c r="H135" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11">
       <c r="A136" t="n">
         <v>135</v>
       </c>
       <c r="B136" t="n">
         <v>14</v>
       </c>
-      <c r="D136" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="G136" s="13" t="s">
+      <c r="E136" s="7" t="s">
         <v>146</v>
       </c>
+      <c r="H136" s="13" t="s">
+        <v>147</v>
+      </c>
       <c r="I136" t="s">
-        <v>147</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="J136"/>
+      <c r="K136"/>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" t="n">
@@ -3709,7 +3722,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="6"/>
-      <c r="D138" s="10"/>
+      <c r="E138" s="10"/>
     </row>
     <row r="139" spans="1:8">
       <c r="A139" t="n">
@@ -3718,14 +3731,14 @@
       <c r="B139" t="n">
         <v>6.38999999999999968</v>
       </c>
-      <c r="D139" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="E139" s="17" t="n">
+      <c r="E139" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F139" s="17" t="n">
         <v>43741</v>
       </c>
-      <c r="G139" s="13" t="s">
-        <v>103</v>
+      <c r="H139" s="13" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -3735,11 +3748,11 @@
       <c r="B140" t="n">
         <v>160.689999999999998</v>
       </c>
-      <c r="D140" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="G140" s="13" t="s">
+      <c r="E140" s="7" t="s">
         <v>150</v>
+      </c>
+      <c r="H140" s="13" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -3747,7 +3760,7 @@
         <v>140</v>
       </c>
       <c r="B141" s="1"/>
-      <c r="D141" s="9"/>
+      <c r="E141" s="9"/>
     </row>
     <row r="142" spans="1:8">
       <c r="A142" t="n">
@@ -3756,14 +3769,14 @@
       <c r="B142" s="3" t="n">
         <v>53.240000000000002</v>
       </c>
-      <c r="D142" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="E142" s="17" t="n">
+      <c r="E142" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F142" s="17" t="n">
         <v>43742</v>
       </c>
-      <c r="G142" s="13" t="s">
-        <v>76</v>
+      <c r="H142" s="13" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -3773,11 +3786,11 @@
       <c r="B143" t="n">
         <v>9</v>
       </c>
-      <c r="D143" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="G143" s="13" t="s">
-        <v>88</v>
+      <c r="E143" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="H143" s="13" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -3785,7 +3798,7 @@
         <v>143</v>
       </c>
       <c r="B144" s="1"/>
-      <c r="D144" s="9"/>
+      <c r="E144" s="9"/>
     </row>
     <row r="145" spans="1:8">
       <c r="A145" t="n">
@@ -3794,14 +3807,14 @@
       <c r="B145" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="D145" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="E145" s="17" t="n">
+      <c r="E145" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="F145" s="17" t="n">
         <v>43743</v>
       </c>
-      <c r="G145" s="13" t="s">
-        <v>154</v>
+      <c r="H145" s="13" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -3811,11 +3824,11 @@
       <c r="B146" t="n">
         <v>42.2100000000000009</v>
       </c>
-      <c r="D146" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="G146" s="13" t="s">
-        <v>76</v>
+      <c r="E146" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="H146" s="13" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -3823,7 +3836,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="1"/>
-      <c r="D147" s="9"/>
+      <c r="E147" s="9"/>
     </row>
     <row r="148" spans="1:8">
       <c r="A148" t="n">
@@ -3832,14 +3845,14 @@
       <c r="B148" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="D148" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="E148" s="17" t="n">
+      <c r="E148" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F148" s="17" t="n">
         <v>43747</v>
       </c>
-      <c r="G148" s="13" t="s">
-        <v>89</v>
+      <c r="H148" s="13" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -3848,7 +3861,8 @@
       </c>
       <c r="B149" s="5"/>
       <c r="C149" s="1"/>
-      <c r="D149" s="9"/>
+      <c r="D149" s="1"/>
+      <c r="E149" s="9"/>
     </row>
     <row r="150" spans="1:8">
       <c r="A150" t="n">
@@ -3857,17 +3871,17 @@
       <c r="B150" s="3" t="n">
         <v>22</v>
       </c>
-      <c r="D150" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="E150" s="17" t="n">
+      <c r="E150" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="F150" s="17" t="n">
         <v>43748</v>
       </c>
-      <c r="G150" s="13" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="151" spans="1:10">
+      <c r="H150" s="13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11">
       <c r="A151" t="n">
         <v>150</v>
       </c>
@@ -3875,34 +3889,38 @@
         <v>222.300000000000011</v>
       </c>
       <c r="C151" t="s">
-        <v>9</v>
-      </c>
-      <c r="D151" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="G151" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E151" s="7" t="s">
         <v>158</v>
       </c>
+      <c r="H151" s="13" t="s">
+        <v>159</v>
+      </c>
       <c r="I151" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="152" spans="1:10">
+        <v>148</v>
+      </c>
+      <c r="J151"/>
+      <c r="K151"/>
+    </row>
+    <row r="152" spans="1:11">
       <c r="A152" t="n">
         <v>151</v>
       </c>
       <c r="B152" s="4" t="n">
         <v>189.360000000000014</v>
       </c>
-      <c r="D152" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="G152" s="13" t="s">
+      <c r="E152" s="7" t="s">
         <v>160</v>
       </c>
+      <c r="H152" s="13" t="s">
+        <v>161</v>
+      </c>
       <c r="I152" t="s">
-        <v>147</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="J152"/>
+      <c r="K152"/>
     </row>
     <row r="153" spans="1:8">
       <c r="A153" t="n">
@@ -3911,11 +3929,11 @@
       <c r="B153" s="4" t="n">
         <v>4.71999999999999975</v>
       </c>
-      <c r="D153" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="G153" s="13" t="s">
-        <v>103</v>
+      <c r="E153" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="H153" s="13" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -3932,16 +3950,16 @@
         <v>57.4799999999999969</v>
       </c>
       <c r="C155" t="s">
-        <v>23</v>
-      </c>
-      <c r="D155" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="E155" s="17" t="n">
+        <v>24</v>
+      </c>
+      <c r="E155" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="F155" s="17" t="n">
         <v>43749</v>
       </c>
-      <c r="G155" s="13" t="s">
-        <v>119</v>
+      <c r="H155" s="13" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -3951,11 +3969,11 @@
       <c r="B156" t="n">
         <v>40.3100000000000023</v>
       </c>
-      <c r="D156" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="G156" s="13" t="s">
-        <v>76</v>
+      <c r="E156" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="H156" s="13" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -3966,13 +3984,13 @@
         <v>10.8000000000000007</v>
       </c>
       <c r="C157" t="s">
-        <v>9</v>
-      </c>
-      <c r="D157" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G157" s="13" t="s">
-        <v>89</v>
+        <v>10</v>
+      </c>
+      <c r="E157" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H157" s="13" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -3982,11 +4000,11 @@
       <c r="B158" s="4" t="n">
         <v>7.11000000000000032</v>
       </c>
-      <c r="D158" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="G158" s="13" t="s">
+      <c r="E158" s="7" t="s">
         <v>163</v>
+      </c>
+      <c r="H158" s="13" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -3995,7 +4013,8 @@
       </c>
       <c r="B159" s="5"/>
       <c r="C159" s="1"/>
-      <c r="D159" s="9"/>
+      <c r="D159" s="1"/>
+      <c r="E159" s="9"/>
     </row>
     <row r="160" spans="1:8">
       <c r="A160" t="n">
@@ -4005,16 +4024,16 @@
         <v>14</v>
       </c>
       <c r="C160" t="s">
-        <v>23</v>
-      </c>
-      <c r="D160" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="E160" s="17" t="n">
+        <v>24</v>
+      </c>
+      <c r="E160" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F160" s="17" t="n">
         <v>43750</v>
       </c>
-      <c r="G160" s="13" t="s">
-        <v>119</v>
+      <c r="H160" s="13" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -4023,7 +4042,8 @@
       </c>
       <c r="B161" s="5"/>
       <c r="C161" s="1"/>
-      <c r="D161" s="9"/>
+      <c r="D161" s="1"/>
+      <c r="E161" s="9"/>
     </row>
     <row r="162" spans="1:8">
       <c r="A162" t="n">
@@ -4033,14 +4053,15 @@
         <v>32.1099999999999994</v>
       </c>
       <c r="C162" s="3"/>
-      <c r="D162" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="E162" s="17" t="n">
+      <c r="D162" s="3"/>
+      <c r="E162" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F162" s="17" t="n">
         <v>43751</v>
       </c>
-      <c r="G162" s="13" t="s">
-        <v>89</v>
+      <c r="H162" s="13" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -4049,7 +4070,8 @@
       </c>
       <c r="B163" s="5"/>
       <c r="C163" s="1"/>
-      <c r="D163" s="9"/>
+      <c r="D163" s="1"/>
+      <c r="E163" s="9"/>
     </row>
     <row r="164" spans="1:8">
       <c r="A164" t="n">
@@ -4058,17 +4080,17 @@
       <c r="B164" s="3" t="n">
         <v>29.9899999999999984</v>
       </c>
-      <c r="D164" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="E164" s="17" t="n">
+      <c r="E164" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="F164" s="17" t="n">
         <v>43752</v>
       </c>
-      <c r="G164" s="13" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="165" spans="1:10">
+      <c r="H164" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11">
       <c r="A165" t="n">
         <v>164</v>
       </c>
@@ -4076,17 +4098,19 @@
         <v>530.75</v>
       </c>
       <c r="C165" t="s">
-        <v>9</v>
-      </c>
-      <c r="D165" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="G165" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="E165" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="H165" s="13" t="s">
+        <v>14</v>
       </c>
       <c r="I165" t="s">
-        <v>167</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="J165"/>
+      <c r="K165"/>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" t="n">
@@ -4101,14 +4125,14 @@
       <c r="B167" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="D167" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="E167" s="17" t="n">
+      <c r="E167" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="F167" s="17" t="n">
         <v>43754</v>
       </c>
-      <c r="G167" s="13" t="s">
-        <v>75</v>
+      <c r="H167" s="13" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4118,11 +4142,11 @@
       <c r="B168" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="D168" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="G168" s="13" t="s">
-        <v>107</v>
+      <c r="E168" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="H168" s="13" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -4131,7 +4155,7 @@
       </c>
       <c r="B169" s="4"/>
     </row>
-    <row r="170" spans="1:10">
+    <row r="170" spans="1:11">
       <c r="A170" t="n">
         <v>169</v>
       </c>
@@ -4139,71 +4163,79 @@
         <v>21.1900000000000013</v>
       </c>
       <c r="C170" t="s">
-        <v>9</v>
-      </c>
-      <c r="D170" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="E170" s="17" t="n">
+        <v>10</v>
+      </c>
+      <c r="E170" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="F170" s="17" t="n">
         <v>43756</v>
       </c>
-      <c r="G170" s="13" t="s">
-        <v>107</v>
+      <c r="H170" s="13" t="s">
+        <v>108</v>
       </c>
       <c r="I170" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="171" spans="1:10">
+        <v>148</v>
+      </c>
+      <c r="J170"/>
+      <c r="K170"/>
+    </row>
+    <row r="171" spans="1:11">
       <c r="A171" t="n">
         <v>170</v>
       </c>
       <c r="B171" s="4" t="n">
         <v>11.1600000000000001</v>
       </c>
-      <c r="D171" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="G171" s="13" t="s">
-        <v>89</v>
+      <c r="E171" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="H171" s="13" t="s">
+        <v>90</v>
       </c>
       <c r="I171" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="172" spans="1:10">
+        <v>148</v>
+      </c>
+      <c r="J171"/>
+      <c r="K171"/>
+    </row>
+    <row r="172" spans="1:11">
       <c r="A172" t="n">
         <v>171</v>
       </c>
       <c r="B172" s="4" t="n">
         <v>9.25999999999999979</v>
       </c>
-      <c r="D172" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="G172" s="13" t="s">
-        <v>89</v>
+      <c r="E172" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="H172" s="13" t="s">
+        <v>90</v>
       </c>
       <c r="I172" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="173" spans="1:10">
+        <v>148</v>
+      </c>
+      <c r="J172"/>
+      <c r="K172"/>
+    </row>
+    <row r="173" spans="1:11">
       <c r="A173" t="n">
         <v>172</v>
       </c>
       <c r="B173" s="4" t="n">
         <v>5.41999999999999993</v>
       </c>
-      <c r="D173" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G173" s="13" t="s">
-        <v>146</v>
+      <c r="E173" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="H173" s="13" t="s">
+        <v>147</v>
       </c>
       <c r="I173" t="s">
-        <v>147</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="J173"/>
+      <c r="K173"/>
     </row>
     <row r="174" spans="1:5">
       <c r="A174" t="n">
@@ -4211,95 +4243,106 @@
       </c>
       <c r="B174" s="5"/>
       <c r="C174" s="1"/>
-      <c r="D174" s="9"/>
-    </row>
-    <row r="175" spans="1:10">
+      <c r="D174" s="1"/>
+      <c r="E174" s="9"/>
+    </row>
+    <row r="175" spans="1:11">
       <c r="A175" t="n">
         <v>174</v>
       </c>
       <c r="B175" s="4" t="n">
         <v>38.2000000000000028</v>
       </c>
-      <c r="D175" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="E175" s="17" t="n">
+      <c r="E175" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F175" s="17" t="n">
         <v>43757</v>
       </c>
-      <c r="G175" s="13" t="s">
-        <v>174</v>
+      <c r="H175" s="13" t="s">
+        <v>175</v>
       </c>
       <c r="I175" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="176" spans="1:10">
+        <v>148</v>
+      </c>
+      <c r="J175"/>
+      <c r="K175"/>
+    </row>
+    <row r="176" spans="1:11">
       <c r="A176" t="n">
         <v>175</v>
       </c>
       <c r="B176" s="4" t="n">
         <v>67.5400000000000063</v>
       </c>
-      <c r="D176" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="G176" s="13" t="s">
-        <v>105</v>
+      <c r="E176" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="H176" s="13" t="s">
+        <v>106</v>
       </c>
       <c r="I176" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="177" spans="1:10">
+        <v>148</v>
+      </c>
+      <c r="J176"/>
+      <c r="K176"/>
+    </row>
+    <row r="177" spans="1:11">
       <c r="A177" t="n">
         <v>176</v>
       </c>
       <c r="B177" s="4" t="n">
         <v>9.48000000000000043</v>
       </c>
-      <c r="D177" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="G177" s="13" t="s">
-        <v>89</v>
+      <c r="E177" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="H177" s="13" t="s">
+        <v>90</v>
       </c>
       <c r="I177" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="178" spans="1:10">
+        <v>148</v>
+      </c>
+      <c r="J177"/>
+      <c r="K177"/>
+    </row>
+    <row r="178" spans="1:11">
       <c r="A178" t="n">
         <v>177</v>
       </c>
       <c r="B178" s="4" t="n">
         <v>5.40000000000000036</v>
       </c>
-      <c r="D178" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="G178" s="13" t="s">
+      <c r="E178" s="7" t="s">
         <v>177</v>
       </c>
+      <c r="H178" s="13" t="s">
+        <v>178</v>
+      </c>
       <c r="I178" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="179" spans="1:10">
+        <v>148</v>
+      </c>
+      <c r="J178"/>
+      <c r="K178"/>
+    </row>
+    <row r="179" spans="1:11">
       <c r="A179" t="n">
         <v>178</v>
       </c>
       <c r="B179" s="4" t="n">
         <v>18.25</v>
       </c>
-      <c r="D179" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="G179" s="13" t="s">
-        <v>89</v>
+      <c r="E179" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="H179" s="13" t="s">
+        <v>90</v>
       </c>
       <c r="I179" t="s">
-        <v>147</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="J179"/>
+      <c r="K179"/>
     </row>
     <row r="180" spans="1:5">
       <c r="A180" t="n">
@@ -4307,9 +4350,10 @@
       </c>
       <c r="B180" s="5"/>
       <c r="C180" s="1"/>
-      <c r="D180" s="9"/>
-    </row>
-    <row r="181" spans="1:10">
+      <c r="D180" s="1"/>
+      <c r="E180" s="9"/>
+    </row>
+    <row r="181" spans="1:11">
       <c r="A181" t="n">
         <v>180</v>
       </c>
@@ -4317,52 +4361,59 @@
         <v>2.70000000000000018</v>
       </c>
       <c r="C181" s="3"/>
-      <c r="D181" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="E181" s="17" t="n">
+      <c r="D181" s="3"/>
+      <c r="E181" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="F181" s="17" t="n">
         <v>43758</v>
       </c>
-      <c r="G181" s="13" t="s">
-        <v>177</v>
+      <c r="H181" s="13" t="s">
+        <v>178</v>
       </c>
       <c r="I181" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="182" spans="1:10">
+        <v>148</v>
+      </c>
+      <c r="J181"/>
+      <c r="K181"/>
+    </row>
+    <row r="182" spans="1:11">
       <c r="A182" t="n">
         <v>181</v>
       </c>
       <c r="B182" s="4" t="n">
         <v>11.5399999999999991</v>
       </c>
-      <c r="D182" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="G182" s="13" t="s">
-        <v>89</v>
+      <c r="E182" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="H182" s="13" t="s">
+        <v>90</v>
       </c>
       <c r="I182" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="183" spans="1:10">
+        <v>148</v>
+      </c>
+      <c r="J182"/>
+      <c r="K182"/>
+    </row>
+    <row r="183" spans="1:11">
       <c r="A183" t="n">
         <v>182</v>
       </c>
       <c r="B183" s="4" t="n">
         <v>12.8000000000000007</v>
       </c>
-      <c r="D183" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="G183" s="13" t="s">
-        <v>89</v>
+      <c r="E183" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="H183" s="13" t="s">
+        <v>90</v>
       </c>
       <c r="I183" t="s">
-        <v>147</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="J183"/>
+      <c r="K183"/>
     </row>
     <row r="184" spans="1:5">
       <c r="A184" t="n">
@@ -4370,9 +4421,10 @@
       </c>
       <c r="B184" s="5"/>
       <c r="C184" s="1"/>
-      <c r="D184" s="9"/>
-    </row>
-    <row r="185" spans="1:10">
+      <c r="D184" s="1"/>
+      <c r="E184" s="9"/>
+    </row>
+    <row r="185" spans="1:11">
       <c r="A185" t="n">
         <v>184</v>
       </c>
@@ -4380,35 +4432,40 @@
         <v>16.6999999999999993</v>
       </c>
       <c r="C185" s="3"/>
-      <c r="D185" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="E185" s="17" t="n">
+      <c r="D185" s="3"/>
+      <c r="E185" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="F185" s="17" t="n">
         <v>43759</v>
       </c>
-      <c r="G185" s="13" t="s">
-        <v>89</v>
+      <c r="H185" s="13" t="s">
+        <v>90</v>
       </c>
       <c r="I185" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="186" spans="1:10">
+        <v>148</v>
+      </c>
+      <c r="J185"/>
+      <c r="K185"/>
+    </row>
+    <row r="186" spans="1:11">
       <c r="A186" t="n">
         <v>185</v>
       </c>
       <c r="B186" s="4" t="n">
         <v>15</v>
       </c>
-      <c r="D186" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="G186" s="13" t="s">
-        <v>89</v>
+      <c r="E186" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="H186" s="13" t="s">
+        <v>90</v>
       </c>
       <c r="I186" t="s">
-        <v>147</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="J186"/>
+      <c r="K186"/>
     </row>
     <row r="187" spans="1:5">
       <c r="A187" t="n">
@@ -4416,13 +4473,14 @@
       </c>
       <c r="B187" s="5"/>
       <c r="C187" s="1"/>
-      <c r="D187" s="9"/>
+      <c r="D187" s="1"/>
+      <c r="E187" s="9"/>
     </row>
     <row r="188" spans="1:6">
       <c r="A188" t="n">
         <v>187</v>
       </c>
-      <c r="E188" s="17" t="n">
+      <c r="F188" s="17" t="n">
         <v>43760</v>
       </c>
     </row>
@@ -4434,13 +4492,13 @@
         <v>43.4399999999999977</v>
       </c>
       <c r="C189" t="s">
-        <v>23</v>
-      </c>
-      <c r="D189" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="G189" s="13" t="s">
-        <v>154</v>
+        <v>24</v>
+      </c>
+      <c r="E189" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="H189" s="13" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -4448,7 +4506,7 @@
         <v>189</v>
       </c>
       <c r="B190" s="1"/>
-      <c r="D190" s="9"/>
+      <c r="E190" s="9"/>
     </row>
     <row r="191" spans="1:8">
       <c r="A191" t="n">
@@ -4457,14 +4515,14 @@
       <c r="B191" s="3" t="n">
         <v>27.5100000000000016</v>
       </c>
-      <c r="D191" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="E191" s="17" t="n">
+      <c r="E191" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="F191" s="17" t="n">
         <v>43761</v>
       </c>
-      <c r="G191" s="13" t="s">
-        <v>139</v>
+      <c r="H191" s="13" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -4474,11 +4532,11 @@
       <c r="B192" t="n">
         <v>43.5200000000000031</v>
       </c>
-      <c r="D192" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G192" s="13" t="s">
-        <v>76</v>
+      <c r="E192" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="H192" s="13" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -4486,7 +4544,7 @@
         <v>192</v>
       </c>
       <c r="B193" s="1"/>
-      <c r="D193" s="9"/>
+      <c r="E193" s="9"/>
     </row>
     <row r="194" spans="1:8">
       <c r="A194" t="n">
@@ -4495,14 +4553,14 @@
       <c r="B194" s="3" t="n">
         <v>4.79999999999999982</v>
       </c>
-      <c r="D194" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="E194" s="17" t="n">
+      <c r="E194" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="F194" s="17" t="n">
         <v>43763</v>
       </c>
-      <c r="G194" s="13" t="s">
-        <v>15</v>
+      <c r="H194" s="13" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -4512,11 +4570,11 @@
       <c r="B195" t="n">
         <v>48.2700000000000031</v>
       </c>
-      <c r="D195" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="G195" s="13" t="s">
-        <v>112</v>
+      <c r="E195" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="H195" s="13" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -4525,7 +4583,8 @@
       </c>
       <c r="B196" s="5"/>
       <c r="C196" s="1"/>
-      <c r="D196" s="9"/>
+      <c r="D196" s="1"/>
+      <c r="E196" s="9"/>
     </row>
     <row r="197" spans="1:1">
       <c r="A197" t="n">
@@ -4540,16 +4599,16 @@
         <v>8.67999999999999794</v>
       </c>
       <c r="C198" t="s">
-        <v>9</v>
-      </c>
-      <c r="D198" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="E198" s="17" t="n">
+        <v>10</v>
+      </c>
+      <c r="E198" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F198" s="17" t="n">
         <v>43765</v>
       </c>
-      <c r="G198" s="13" t="s">
-        <v>103</v>
+      <c r="H198" s="13" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="199" spans="1:1">
@@ -4557,25 +4616,27 @@
         <v>198</v>
       </c>
     </row>
-    <row r="200" spans="1:10">
+    <row r="200" spans="1:11">
       <c r="A200" t="n">
         <v>199</v>
       </c>
       <c r="B200" t="n">
         <v>22</v>
       </c>
-      <c r="D200" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="E200" s="17" t="n">
+      <c r="E200" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F200" s="17" t="n">
         <v>43766</v>
       </c>
-      <c r="G200" s="13" t="s">
-        <v>154</v>
+      <c r="H200" s="13" t="s">
+        <v>155</v>
       </c>
       <c r="I200" t="s">
-        <v>167</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="J200"/>
+      <c r="K200"/>
     </row>
     <row r="201" spans="1:1">
       <c r="A201" t="n">
@@ -4591,7 +4652,7 @@
       <c r="A203" t="n">
         <v>202</v>
       </c>
-      <c r="E203" s="17" t="n">
+      <c r="F203" s="17" t="n">
         <v>43767</v>
       </c>
     </row>
@@ -4600,7 +4661,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="205" spans="1:10">
+    <row r="205" spans="1:11">
       <c r="A205" t="n">
         <v>204</v>
       </c>
@@ -4608,18 +4669,21 @@
         <v>20</v>
       </c>
       <c r="C205" s="3"/>
-      <c r="D205" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="E205" s="17" t="n">
+      <c r="D205" s="3"/>
+      <c r="E205" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="F205" s="17" t="n">
         <v>43768</v>
       </c>
-      <c r="G205" s="13" t="s">
-        <v>150</v>
+      <c r="H205" s="13" t="s">
+        <v>151</v>
       </c>
       <c r="I205" t="s">
-        <v>167</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="J205"/>
+      <c r="K205"/>
     </row>
     <row r="206" spans="1:5">
       <c r="A206" t="n">
@@ -4627,9 +4691,10 @@
       </c>
       <c r="B206" s="5"/>
       <c r="C206" s="1"/>
-      <c r="D206" s="9"/>
-    </row>
-    <row r="207" spans="1:10">
+      <c r="D206" s="1"/>
+      <c r="E206" s="9"/>
+    </row>
+    <row r="207" spans="1:11">
       <c r="A207" t="n">
         <v>206</v>
       </c>
@@ -4637,18 +4702,21 @@
         <v>85</v>
       </c>
       <c r="C207" s="3"/>
-      <c r="D207" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="E207" s="17" t="n">
+      <c r="D207" s="3"/>
+      <c r="E207" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="F207" s="17" t="n">
         <v>43769</v>
       </c>
-      <c r="G207" s="13" t="s">
-        <v>150</v>
+      <c r="H207" s="13" t="s">
+        <v>151</v>
       </c>
       <c r="I207" t="s">
-        <v>167</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="J207"/>
+      <c r="K207"/>
     </row>
     <row r="208" spans="1:5">
       <c r="A208" t="n">
@@ -4656,9 +4724,10 @@
       </c>
       <c r="B208" s="5"/>
       <c r="C208" s="1"/>
-      <c r="D208" s="9"/>
-    </row>
-    <row r="209" spans="1:10">
+      <c r="D208" s="1"/>
+      <c r="E208" s="9"/>
+    </row>
+    <row r="209" spans="1:11">
       <c r="A209" t="n">
         <v>208</v>
       </c>
@@ -4666,18 +4735,21 @@
         <v>41</v>
       </c>
       <c r="C209" s="3"/>
-      <c r="D209" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="E209" s="17" t="n">
+      <c r="D209" s="3"/>
+      <c r="E209" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="F209" s="17" t="n">
         <v>43770</v>
       </c>
-      <c r="G209" s="13" t="s">
-        <v>174</v>
+      <c r="H209" s="13" t="s">
+        <v>175</v>
       </c>
       <c r="I209" t="s">
-        <v>167</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="J209"/>
+      <c r="K209"/>
     </row>
     <row r="210" spans="1:5">
       <c r="A210" t="n">
@@ -4685,9 +4757,10 @@
       </c>
       <c r="B210" s="5"/>
       <c r="C210" s="1"/>
-      <c r="D210" s="9"/>
-    </row>
-    <row r="211" spans="1:10">
+      <c r="D210" s="1"/>
+      <c r="E210" s="9"/>
+    </row>
+    <row r="211" spans="1:11">
       <c r="A211" t="n">
         <v>210</v>
       </c>
@@ -4695,18 +4768,21 @@
         <v>21.2199999999999989</v>
       </c>
       <c r="C211" s="3"/>
-      <c r="D211" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="E211" s="17" t="n">
+      <c r="D211" s="3"/>
+      <c r="E211" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="F211" s="17" t="n">
         <v>43773</v>
       </c>
-      <c r="G211" s="13" t="s">
-        <v>101</v>
+      <c r="H211" s="13" t="s">
+        <v>102</v>
       </c>
       <c r="I211" t="s">
-        <v>167</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="J211"/>
+      <c r="K211"/>
     </row>
     <row r="212" spans="1:5">
       <c r="A212" t="n">
@@ -4714,7 +4790,8 @@
       </c>
       <c r="B212" s="5"/>
       <c r="C212" s="1"/>
-      <c r="D212" s="9"/>
+      <c r="D212" s="1"/>
+      <c r="E212" s="9"/>
     </row>
     <row r="213" spans="1:8">
       <c r="A213" t="n">
@@ -4724,16 +4801,16 @@
         <v>30.2300000000000004</v>
       </c>
       <c r="C213" t="s">
-        <v>23</v>
-      </c>
-      <c r="D213" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="E213" s="17" t="n">
+        <v>24</v>
+      </c>
+      <c r="E213" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="F213" s="17" t="n">
         <v>43774</v>
       </c>
-      <c r="G213" s="13" t="s">
-        <v>76</v>
+      <c r="H213" s="13" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -4744,13 +4821,13 @@
         <v>8.96000000000000085</v>
       </c>
       <c r="C214" t="s">
-        <v>9</v>
-      </c>
-      <c r="D214" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="G214" s="13" t="s">
-        <v>89</v>
+        <v>10</v>
+      </c>
+      <c r="E214" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="H214" s="13" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -4759,7 +4836,8 @@
       </c>
       <c r="B215" s="5"/>
       <c r="C215" s="1"/>
-      <c r="D215" s="9"/>
+      <c r="D215" s="1"/>
+      <c r="E215" s="9"/>
     </row>
     <row r="216" spans="1:8">
       <c r="A216" t="n">
@@ -4769,16 +4847,16 @@
         <v>126.400000000000006</v>
       </c>
       <c r="C216" t="s">
-        <v>23</v>
-      </c>
-      <c r="D216" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="E216" s="17" t="n">
+        <v>24</v>
+      </c>
+      <c r="E216" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="F216" s="17" t="n">
         <v>43775</v>
       </c>
-      <c r="G216" s="13" t="s">
-        <v>195</v>
+      <c r="H216" s="13" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -4788,11 +4866,11 @@
       <c r="B217" t="n">
         <v>13.2699999999999996</v>
       </c>
-      <c r="D217" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="G217" s="13" t="s">
-        <v>89</v>
+      <c r="E217" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="H217" s="13" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -4800,7 +4878,7 @@
         <v>217</v>
       </c>
       <c r="B218" s="1"/>
-      <c r="D218" s="9"/>
+      <c r="E218" s="9"/>
     </row>
     <row r="219" spans="1:8">
       <c r="A219" t="n">
@@ -4809,14 +4887,14 @@
       <c r="B219" s="3" t="n">
         <v>79.1700000000000017</v>
       </c>
-      <c r="D219" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="E219" s="17" t="n">
+      <c r="E219" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="F219" s="17" t="n">
         <v>43777</v>
       </c>
-      <c r="G219" s="13" t="s">
-        <v>76</v>
+      <c r="H219" s="13" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -4824,7 +4902,7 @@
         <v>219</v>
       </c>
       <c r="B220" s="1"/>
-      <c r="D220" s="9"/>
+      <c r="E220" s="9"/>
     </row>
     <row r="221" spans="1:8">
       <c r="A221" t="n">
@@ -4833,14 +4911,14 @@
       <c r="B221" s="3" t="n">
         <v>44.0499999999999972</v>
       </c>
-      <c r="D221" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="E221" s="17" t="n">
+      <c r="E221" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="F221" s="17" t="n">
         <v>43778</v>
       </c>
-      <c r="G221" s="13" t="s">
-        <v>76</v>
+      <c r="H221" s="13" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -4848,7 +4926,7 @@
         <v>221</v>
       </c>
       <c r="B222" s="1"/>
-      <c r="D222" s="9"/>
+      <c r="E222" s="9"/>
     </row>
     <row r="223" spans="1:8">
       <c r="A223" t="n">
@@ -4857,14 +4935,14 @@
       <c r="B223" s="3" t="n">
         <v>93.1299999999999955</v>
       </c>
-      <c r="D223" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="E223" s="17" t="n">
+      <c r="E223" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="F223" s="17" t="n">
         <v>43784</v>
       </c>
-      <c r="G223" s="13" t="s">
-        <v>119</v>
+      <c r="H223" s="13" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -4874,11 +4952,11 @@
       <c r="B224" t="n">
         <v>53.9799999999999969</v>
       </c>
-      <c r="D224" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="G224" s="13" t="s">
-        <v>195</v>
+      <c r="E224" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="H224" s="13" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -4888,11 +4966,11 @@
       <c r="B225" t="n">
         <v>4.03000000000000025</v>
       </c>
-      <c r="D225" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="G225" s="13" t="s">
-        <v>103</v>
+      <c r="E225" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="H225" s="13" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -4902,11 +4980,11 @@
       <c r="B226" t="n">
         <v>2.29999999999999982</v>
       </c>
-      <c r="D226" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="G226" s="13" t="s">
-        <v>103</v>
+      <c r="E226" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="H226" s="13" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -4914,7 +4992,7 @@
         <v>226</v>
       </c>
       <c r="B227" s="1"/>
-      <c r="D227" s="9"/>
+      <c r="E227" s="9"/>
     </row>
     <row r="228" spans="1:8">
       <c r="A228" t="n">
@@ -4923,14 +5001,14 @@
       <c r="B228" s="3" t="n">
         <v>29.129999999999999</v>
       </c>
-      <c r="D228" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="E228" s="17" t="n">
+      <c r="E228" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="F228" s="17" t="n">
         <v>43785</v>
       </c>
-      <c r="G228" s="13" t="s">
-        <v>137</v>
+      <c r="H228" s="13" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -4940,11 +5018,11 @@
       <c r="B229" t="n">
         <v>61.1000000000000014</v>
       </c>
-      <c r="D229" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="G229" s="13" t="s">
-        <v>76</v>
+      <c r="E229" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="H229" s="13" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -4952,7 +5030,7 @@
         <v>229</v>
       </c>
       <c r="B230" s="1"/>
-      <c r="D230" s="9"/>
+      <c r="E230" s="9"/>
     </row>
     <row r="231" spans="1:8">
       <c r="A231" t="n">
@@ -4961,14 +5039,14 @@
       <c r="B231" s="3" t="n">
         <v>80</v>
       </c>
-      <c r="D231" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="E231" s="17" t="n">
+      <c r="E231" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="F231" s="17" t="n">
         <v>43786</v>
       </c>
-      <c r="G231" s="13" t="s">
-        <v>49</v>
+      <c r="H231" s="13" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -4978,11 +5056,11 @@
       <c r="B232" t="n">
         <v>140</v>
       </c>
-      <c r="D232" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="G232" s="13" t="s">
+      <c r="E232" s="7" t="s">
         <v>204</v>
+      </c>
+      <c r="H232" s="13" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -4992,11 +5070,11 @@
       <c r="B233" t="n">
         <v>33.3500000000000014</v>
       </c>
-      <c r="D233" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="G233" s="13" t="s">
-        <v>89</v>
+      <c r="E233" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="H233" s="13" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -5004,85 +5082,93 @@
         <v>233</v>
       </c>
       <c r="B234" s="1"/>
-      <c r="D234" s="9"/>
-    </row>
-    <row r="235" spans="1:10">
+      <c r="E234" s="9"/>
+    </row>
+    <row r="235" spans="1:11">
       <c r="A235" t="n">
         <v>234</v>
       </c>
       <c r="B235" s="3" t="n">
         <v>37</v>
       </c>
-      <c r="D235" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="E235" s="17" t="n">
+      <c r="E235" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="F235" s="17" t="n">
         <v>43791</v>
       </c>
-      <c r="G235" s="13" t="s">
-        <v>89</v>
+      <c r="H235" s="13" t="s">
+        <v>90</v>
       </c>
       <c r="I235" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="236" spans="1:10">
+        <v>208</v>
+      </c>
+      <c r="J235"/>
+      <c r="K235"/>
+    </row>
+    <row r="236" spans="1:11">
       <c r="A236" t="n">
         <v>235</v>
       </c>
       <c r="B236" t="n">
         <v>25.0100000000000016</v>
       </c>
-      <c r="D236" s="7" t="s">
+      <c r="E236" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="H236" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="I236" t="s">
         <v>208</v>
       </c>
-      <c r="G236" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="I236" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="237" spans="1:10">
+      <c r="J236"/>
+      <c r="K236"/>
+    </row>
+    <row r="237" spans="1:11">
       <c r="A237" t="n">
         <v>236</v>
       </c>
       <c r="B237" t="n">
         <v>37</v>
       </c>
-      <c r="D237" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="F237" t="n">
+      <c r="E237" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="G237" t="n">
         <v>234</v>
       </c>
       <c r="I237" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="238" spans="1:10">
+        <v>208</v>
+      </c>
+      <c r="J237"/>
+      <c r="K237"/>
+    </row>
+    <row r="238" spans="1:11">
       <c r="A238" t="n">
         <v>237</v>
       </c>
       <c r="B238" t="n">
         <v>105</v>
       </c>
-      <c r="D238" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="G238" s="13" t="s">
-        <v>158</v>
+      <c r="E238" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="H238" s="13" t="s">
+        <v>159</v>
       </c>
       <c r="I238" t="s">
-        <v>207</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="J238"/>
+      <c r="K238"/>
     </row>
     <row r="239" spans="1:5">
       <c r="A239" t="n">
         <v>238</v>
       </c>
       <c r="B239" s="1"/>
-      <c r="D239" s="9"/>
+      <c r="E239" s="9"/>
     </row>
     <row r="240" spans="1:8">
       <c r="A240" t="n">
@@ -5091,14 +5177,14 @@
       <c r="B240" s="3" t="n">
         <v>80.6400000000000006</v>
       </c>
-      <c r="D240" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="E240" s="17" t="n">
+      <c r="E240" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="F240" s="17" t="n">
         <v>43797</v>
       </c>
-      <c r="G240" s="13" t="s">
-        <v>76</v>
+      <c r="H240" s="13" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -5108,11 +5194,11 @@
       <c r="B241" t="n">
         <v>16</v>
       </c>
-      <c r="D241" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="G241" s="13" t="s">
-        <v>119</v>
+      <c r="E241" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="H241" s="13" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -5123,13 +5209,13 @@
         <v>30</v>
       </c>
       <c r="C242" t="s">
-        <v>9</v>
-      </c>
-      <c r="D242" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="G242" s="13" t="s">
-        <v>105</v>
+        <v>10</v>
+      </c>
+      <c r="E242" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="H242" s="13" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -5140,13 +5226,13 @@
         <v>24</v>
       </c>
       <c r="C243" t="s">
-        <v>23</v>
-      </c>
-      <c r="D243" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="G243" s="13" t="s">
-        <v>139</v>
+        <v>24</v>
+      </c>
+      <c r="E243" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="H243" s="13" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -5156,11 +5242,11 @@
       <c r="B244" t="n">
         <v>35</v>
       </c>
-      <c r="D244" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="G244" s="13" t="s">
+      <c r="E244" s="7" t="s">
         <v>216</v>
+      </c>
+      <c r="H244" s="13" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -5169,7 +5255,8 @@
       </c>
       <c r="B245" s="5"/>
       <c r="C245" s="1"/>
-      <c r="D245" s="9"/>
+      <c r="D245" s="1"/>
+      <c r="E245" s="9"/>
     </row>
     <row r="246" spans="1:8">
       <c r="A246" t="n">
@@ -5179,16 +5266,16 @@
         <v>17.25</v>
       </c>
       <c r="C246" t="s">
-        <v>23</v>
-      </c>
-      <c r="D246" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="E246" s="17" t="n">
+        <v>24</v>
+      </c>
+      <c r="E246" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="F246" s="17" t="n">
         <v>43798</v>
       </c>
-      <c r="G246" s="13" t="s">
-        <v>154</v>
+      <c r="H246" s="13" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -5198,11 +5285,11 @@
       <c r="B247" t="n">
         <v>29.1600000000000001</v>
       </c>
-      <c r="D247" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="G247" s="13" t="s">
-        <v>103</v>
+      <c r="E247" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="H247" s="13" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="248" spans="1:1">
@@ -5215,7 +5302,7 @@
         <v>248</v>
       </c>
       <c r="B249" s="6"/>
-      <c r="D249" s="10"/>
+      <c r="E249" s="10"/>
     </row>
     <row r="250" spans="1:8">
       <c r="A250" t="n">
@@ -5224,14 +5311,14 @@
       <c r="B250" t="n">
         <v>190.849999999999994</v>
       </c>
-      <c r="D250" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="E250" s="17" t="n">
+      <c r="E250" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F250" s="17" t="n">
         <v>43800</v>
       </c>
-      <c r="G250" s="13" t="s">
-        <v>119</v>
+      <c r="H250" s="13" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -5239,7 +5326,7 @@
         <v>250</v>
       </c>
       <c r="B251" s="1"/>
-      <c r="D251" s="9"/>
+      <c r="E251" s="9"/>
     </row>
     <row r="252" spans="1:8">
       <c r="A252" t="n">
@@ -5248,14 +5335,14 @@
       <c r="B252" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="D252" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="E252" s="17" t="n">
+      <c r="E252" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="F252" s="17" t="n">
         <v>43802</v>
       </c>
-      <c r="G252" s="13" t="s">
-        <v>142</v>
+      <c r="H252" s="13" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -5265,11 +5352,11 @@
       <c r="B253" t="n">
         <v>15</v>
       </c>
-      <c r="D253" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="G253" s="13" t="s">
+      <c r="E253" s="7" t="s">
         <v>222</v>
+      </c>
+      <c r="H253" s="13" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -5277,7 +5364,7 @@
         <v>253</v>
       </c>
       <c r="B254" s="1"/>
-      <c r="D254" s="9"/>
+      <c r="E254" s="9"/>
     </row>
     <row r="255" spans="1:8">
       <c r="A255" t="n">
@@ -5286,14 +5373,14 @@
       <c r="B255" s="3" t="n">
         <v>109.060000000000002</v>
       </c>
-      <c r="D255" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="E255" s="17" t="n">
+      <c r="E255" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="F255" s="17" t="n">
         <v>43804</v>
       </c>
-      <c r="G255" s="13" t="s">
-        <v>76</v>
+      <c r="H255" s="13" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="256" spans="1:7">
@@ -5303,10 +5390,10 @@
       <c r="B256" t="n">
         <v>30</v>
       </c>
-      <c r="D256" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="F256" t="n">
+      <c r="E256" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="G256" t="n">
         <v>254</v>
       </c>
     </row>
@@ -5317,11 +5404,11 @@
       <c r="B257" t="n">
         <v>124.489999999999995</v>
       </c>
-      <c r="D257" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="G257" s="13" t="s">
-        <v>119</v>
+      <c r="E257" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="H257" s="13" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -5329,7 +5416,7 @@
         <v>257</v>
       </c>
       <c r="B258" s="1"/>
-      <c r="D258" s="9"/>
+      <c r="E258" s="9"/>
     </row>
     <row r="259" spans="1:8">
       <c r="A259" t="n">
@@ -5338,14 +5425,14 @@
       <c r="B259" s="3" t="n">
         <v>95.0100000000000051</v>
       </c>
-      <c r="D259" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="E259" s="17" t="n">
+      <c r="E259" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="F259" s="17" t="n">
         <v>43808</v>
       </c>
-      <c r="G259" s="13" t="s">
-        <v>76</v>
+      <c r="H259" s="13" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -5353,7 +5440,7 @@
         <v>259</v>
       </c>
       <c r="B260" s="1"/>
-      <c r="D260" s="9"/>
+      <c r="E260" s="9"/>
     </row>
     <row r="261" spans="1:8">
       <c r="A261" t="n">
@@ -5362,14 +5449,14 @@
       <c r="B261" s="3" t="n">
         <v>13.25</v>
       </c>
-      <c r="D261" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="E261" s="17" t="n">
+      <c r="E261" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="F261" s="17" t="n">
         <v>43809</v>
       </c>
-      <c r="G261" s="13" t="s">
-        <v>139</v>
+      <c r="H261" s="13" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -5386,16 +5473,16 @@
         <v>8</v>
       </c>
       <c r="C263" t="s">
-        <v>9</v>
-      </c>
-      <c r="D263" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="E263" s="17" t="n">
+        <v>10</v>
+      </c>
+      <c r="E263" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="F263" s="17" t="n">
         <v>43811</v>
       </c>
-      <c r="G263" s="13" t="s">
-        <v>228</v>
+      <c r="H263" s="13" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -5406,13 +5493,13 @@
         <v>5</v>
       </c>
       <c r="C264" t="s">
-        <v>23</v>
-      </c>
-      <c r="D264" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="G264" s="13" t="s">
-        <v>103</v>
+        <v>24</v>
+      </c>
+      <c r="E264" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="H264" s="13" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -5422,11 +5509,11 @@
       <c r="B265" t="n">
         <v>20</v>
       </c>
-      <c r="D265" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="G265" s="13" t="s">
-        <v>75</v>
+      <c r="E265" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H265" s="13" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="266" spans="1:1">
@@ -5439,16 +5526,16 @@
         <v>266</v>
       </c>
       <c r="B267" s="3" t="n">
-        <v>11.4200000000000017</v>
-      </c>
-      <c r="D267" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="E267" s="17" t="n">
+        <v>11.4199999999999999</v>
+      </c>
+      <c r="E267" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="F267" s="17" t="n">
         <v>43814</v>
       </c>
-      <c r="G267" s="13" t="s">
-        <v>105</v>
+      <c r="H267" s="13" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -5458,11 +5545,11 @@
       <c r="B268" t="n">
         <v>11.5</v>
       </c>
-      <c r="D268" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="G268" s="13" t="s">
-        <v>75</v>
+      <c r="E268" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="H268" s="13" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="269" spans="1:1">
@@ -5477,14 +5564,14 @@
       <c r="B270" s="3" t="n">
         <v>5.45999999999999996</v>
       </c>
-      <c r="D270" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="E270" s="17" t="n">
+      <c r="E270" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="F270" s="17" t="n">
         <v>43815</v>
       </c>
-      <c r="G270" s="13" t="s">
-        <v>15</v>
+      <c r="H270" s="13" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -5494,11 +5581,11 @@
       <c r="B271" t="n">
         <v>60.1700000000000017</v>
       </c>
-      <c r="D271" t="s">
-        <v>234</v>
-      </c>
-      <c r="G271" s="13" t="s">
-        <v>216</v>
+      <c r="E271" t="s">
+        <v>235</v>
+      </c>
+      <c r="H271" s="13" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -5508,11 +5595,11 @@
       <c r="B272" t="n">
         <v>21.620000000000001</v>
       </c>
-      <c r="D272" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="G272" s="13" t="s">
-        <v>76</v>
+      <c r="E272" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="H272" s="13" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="273" spans="1:7">
@@ -5522,10 +5609,10 @@
       <c r="B273" t="n">
         <v>10</v>
       </c>
-      <c r="D273" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="F273" t="n">
+      <c r="E273" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="G273" t="n">
         <v>271</v>
       </c>
     </row>
@@ -5541,14 +5628,14 @@
       <c r="B275" s="3" t="n">
         <v>40</v>
       </c>
-      <c r="D275" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="E275" s="17" t="n">
+      <c r="E275" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="F275" s="17" t="n">
         <v>43816</v>
       </c>
-      <c r="G275" s="13" t="s">
-        <v>238</v>
+      <c r="H275" s="13" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="276" spans="1:1">
@@ -5563,14 +5650,14 @@
       <c r="B277" s="3" t="n">
         <v>73.5900000000000034</v>
       </c>
-      <c r="D277" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="E277" s="17" t="n">
+      <c r="E277" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="F277" s="17" t="n">
         <v>43817</v>
       </c>
-      <c r="G277" s="13" t="s">
-        <v>76</v>
+      <c r="H277" s="13" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="278" spans="1:1">
@@ -5585,14 +5672,14 @@
       <c r="B279" s="3" t="n">
         <v>25.75</v>
       </c>
-      <c r="D279" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="E279" s="17" t="n">
+      <c r="E279" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="F279" s="17" t="n">
         <v>43818</v>
       </c>
-      <c r="G279" s="13" t="s">
-        <v>98</v>
+      <c r="H279" s="13" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="280" spans="1:7">
@@ -5602,10 +5689,10 @@
       <c r="B280" t="n">
         <v>12</v>
       </c>
-      <c r="D280" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="F280" t="n">
+      <c r="E280" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="G280" t="n">
         <v>278</v>
       </c>
     </row>
@@ -5616,11 +5703,11 @@
       <c r="B281" t="n">
         <v>227.629999999999995</v>
       </c>
-      <c r="D281" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="G281" s="13" t="s">
-        <v>119</v>
+      <c r="E281" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="H281" s="13" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="282" spans="1:1">
@@ -5635,14 +5722,14 @@
       <c r="B283" s="3" t="n">
         <v>39.0700000000000003</v>
       </c>
-      <c r="D283" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="E283" s="17" t="n">
+      <c r="E283" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="F283" s="17" t="n">
         <v>43821</v>
       </c>
-      <c r="G283" s="13" t="s">
-        <v>103</v>
+      <c r="H283" s="13" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -5652,11 +5739,11 @@
       <c r="B284" t="n">
         <v>39.6700000000000017</v>
       </c>
-      <c r="D284" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="G284" s="13" t="s">
-        <v>103</v>
+      <c r="E284" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="H284" s="13" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -5666,28 +5753,29 @@
       <c r="B285" t="n">
         <v>114.680000000000007</v>
       </c>
-      <c r="D285" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="G285" s="13" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="286" spans="1:9">
+      <c r="E285" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="H285" s="13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="286" spans="1:10">
       <c r="A286" t="n">
         <v>285</v>
       </c>
       <c r="B286" t="n">
         <v>114</v>
       </c>
-      <c r="D286" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="F286" t="n">
+      <c r="E286" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="G286" t="n">
         <v>284</v>
       </c>
-      <c r="H286" t="s">
-        <v>247</v>
+      <c r="I286"/>
+      <c r="J286" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="287" spans="1:7">
@@ -5697,10 +5785,10 @@
       <c r="B287" t="n">
         <v>39</v>
       </c>
-      <c r="D287" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="F287" t="n">
+      <c r="E287" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="G287" t="n">
         <v>283</v>
       </c>
     </row>
@@ -5716,14 +5804,14 @@
       <c r="B289" s="3" t="n">
         <v>1080</v>
       </c>
-      <c r="D289" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="E289" s="17" t="n">
+      <c r="E289" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="F289" s="17" t="n">
         <v>43824</v>
       </c>
-      <c r="G289" s="13" t="s">
-        <v>11</v>
+      <c r="H289" s="13" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="290" spans="1:7">
@@ -5733,10 +5821,10 @@
       <c r="B290" t="n">
         <v>185.849999999999994</v>
       </c>
-      <c r="D290" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="F290" t="n">
+      <c r="E290" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="G290" t="n">
         <v>249</v>
       </c>
     </row>
@@ -5747,11 +5835,11 @@
       <c r="B291" t="n">
         <v>65.5400000000000063</v>
       </c>
-      <c r="D291" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="G291" s="13" t="s">
-        <v>119</v>
+      <c r="E291" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="H291" s="13" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -5759,7 +5847,7 @@
         <v>291</v>
       </c>
       <c r="B292" s="1"/>
-      <c r="D292" s="9"/>
+      <c r="E292" s="9"/>
     </row>
     <row r="293" spans="1:8">
       <c r="A293" t="n">
@@ -5768,14 +5856,14 @@
       <c r="B293" t="n">
         <v>12.75</v>
       </c>
-      <c r="D293" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="E293" s="17" t="n">
+      <c r="E293" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F293" s="17" t="n">
         <v>43825</v>
       </c>
-      <c r="G293" s="13" t="s">
-        <v>79</v>
+      <c r="H293" s="13" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -5785,11 +5873,11 @@
       <c r="B294" t="n">
         <v>57.9200000000000017</v>
       </c>
-      <c r="D294" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="G294" s="13" t="s">
-        <v>76</v>
+      <c r="E294" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="H294" s="13" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -5799,11 +5887,11 @@
       <c r="B295" t="n">
         <v>9</v>
       </c>
-      <c r="D295" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="G295" s="13" t="s">
-        <v>88</v>
+      <c r="E295" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="H295" s="13" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -5813,11 +5901,11 @@
       <c r="B296" t="n">
         <v>33.4699999999999989</v>
       </c>
-      <c r="D296" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="G296" s="13" t="s">
-        <v>125</v>
+      <c r="E296" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="H296" s="13" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="297" spans="1:1">
@@ -5832,14 +5920,14 @@
       <c r="B298" s="3" t="n">
         <v>45.3800000000000026</v>
       </c>
-      <c r="D298" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="E298" s="17" t="n">
+      <c r="E298" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="F298" s="17" t="n">
         <v>43830</v>
       </c>
-      <c r="G298" s="13" t="s">
-        <v>76</v>
+      <c r="H298" s="13" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="299" spans="1:7">
@@ -5850,12 +5938,12 @@
         <v>24</v>
       </c>
       <c r="C299" t="s">
-        <v>9</v>
-      </c>
-      <c r="D299" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="F299" t="n">
+        <v>10</v>
+      </c>
+      <c r="E299" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="G299" t="n">
         <v>297</v>
       </c>
     </row>
@@ -5865,7 +5953,8 @@
       </c>
       <c r="B300" s="5"/>
       <c r="C300" s="1"/>
-      <c r="D300" s="9"/>
+      <c r="D300" s="1"/>
+      <c r="E300" s="9"/>
     </row>
     <row r="301" spans="1:8">
       <c r="A301" t="n">
@@ -5875,16 +5964,16 @@
         <v>20</v>
       </c>
       <c r="C301" t="s">
-        <v>23</v>
-      </c>
-      <c r="D301" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="E301" s="17" t="n">
+        <v>24</v>
+      </c>
+      <c r="E301" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F301" s="17" t="n">
         <v>43831</v>
       </c>
-      <c r="G301" s="13" t="s">
-        <v>142</v>
+      <c r="H301" s="13" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -5892,8 +5981,8 @@
         <v>301</v>
       </c>
       <c r="B302" s="1"/>
-      <c r="D302" s="9"/>
-      <c r="G302" s="7"/>
+      <c r="E302" s="9"/>
+      <c r="H302" s="7"/>
     </row>
     <row r="303" spans="1:8">
       <c r="A303" t="n">
@@ -5902,14 +5991,14 @@
       <c r="B303" t="n">
         <v>51.2899999999999991</v>
       </c>
-      <c r="D303" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="E303" s="17" t="n">
+      <c r="E303" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F303" s="17" t="n">
         <v>43835</v>
       </c>
-      <c r="G303" s="7" t="s">
-        <v>76</v>
+      <c r="H303" s="7" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="304" spans="1:1">
@@ -5924,21 +6013,21 @@
       <c r="B305" s="3" t="n">
         <v>22.2800000000000011</v>
       </c>
-      <c r="D305" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="E305" s="17" t="n">
+      <c r="E305" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="F305" s="17" t="n">
         <v>43838</v>
       </c>
-      <c r="G305" s="7" t="s">
-        <v>89</v>
+      <c r="H305" s="7" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="306" spans="1:8">
       <c r="A306" t="n">
         <v>305</v>
       </c>
-      <c r="G306" s="7"/>
+      <c r="H306" s="7"/>
     </row>
     <row r="307" spans="1:8">
       <c r="A307" t="n">
@@ -5947,14 +6036,14 @@
       <c r="B307" s="3" t="n">
         <v>120.599999999999994</v>
       </c>
-      <c r="D307" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="E307" s="17" t="n">
+      <c r="E307" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="F307" s="17" t="n">
         <v>43839</v>
       </c>
-      <c r="G307" s="13" t="s">
-        <v>160</v>
+      <c r="H307" s="13" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -5964,19 +6053,19 @@
       <c r="B308" t="n">
         <v>6.70000000000000018</v>
       </c>
-      <c r="D308" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="E308" s="19"/>
-      <c r="G308" s="13" t="s">
-        <v>160</v>
+      <c r="E308" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="F308" s="19"/>
+      <c r="H308" s="13" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="309" spans="1:5">
       <c r="A309" t="n">
         <v>308</v>
       </c>
-      <c r="D309"/>
+      <c r="E309"/>
     </row>
     <row r="310" spans="1:8">
       <c r="A310" t="n">
@@ -5985,14 +6074,14 @@
       <c r="B310" s="3" t="n">
         <v>58.1300000000000026</v>
       </c>
-      <c r="D310" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="E310" s="17" t="n">
+      <c r="E310" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F310" s="17" t="n">
         <v>43840</v>
       </c>
-      <c r="G310" s="13" t="s">
-        <v>76</v>
+      <c r="H310" s="13" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="311" spans="1:1">
@@ -6000,24 +6089,25 @@
         <v>310</v>
       </c>
     </row>
-    <row r="312" spans="1:9">
+    <row r="312" spans="1:10">
       <c r="A312" t="n">
         <v>311</v>
       </c>
       <c r="B312" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="D312" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="E312" s="17" t="n">
+      <c r="E312" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="F312" s="17" t="n">
         <v>43841</v>
       </c>
-      <c r="G312" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="H312" t="s">
-        <v>247</v>
+      <c r="H312" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="I312"/>
+      <c r="J312" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="313" spans="1:1">
@@ -6032,14 +6122,14 @@
       <c r="B314" s="3" t="n">
         <v>63.1400000000000006</v>
       </c>
-      <c r="D314" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="E314" s="17" t="n">
+      <c r="E314" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F314" s="17" t="n">
         <v>43844</v>
       </c>
-      <c r="G314" s="13" t="s">
-        <v>76</v>
+      <c r="H314" s="13" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="315" spans="1:1">
@@ -6047,24 +6137,25 @@
         <v>314</v>
       </c>
     </row>
-    <row r="316" spans="1:9">
+    <row r="316" spans="1:10">
       <c r="A316" t="n">
         <v>315</v>
       </c>
       <c r="B316" s="3" t="n">
         <v>7.20000000000000018</v>
       </c>
-      <c r="D316" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="E316" s="17" t="n">
+      <c r="E316" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="F316" s="17" t="n">
         <v>43845</v>
       </c>
-      <c r="G316" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="H316" t="s">
-        <v>247</v>
+      <c r="H316" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="I316"/>
+      <c r="J316" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -6074,11 +6165,11 @@
       <c r="B317" t="n">
         <v>54.8299999999999983</v>
       </c>
-      <c r="D317" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G317" s="13" t="s">
-        <v>76</v>
+      <c r="E317" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="H317" s="13" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="318" spans="1:1">
@@ -6086,25 +6177,27 @@
         <v>317</v>
       </c>
     </row>
-    <row r="319" spans="1:10">
+    <row r="319" spans="1:11">
       <c r="A319" t="n">
         <v>318</v>
       </c>
       <c r="B319" s="3" t="n">
         <v>547</v>
       </c>
-      <c r="D319" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="E319" s="17" t="n">
+      <c r="E319" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="F319" s="17" t="n">
         <v>43846</v>
       </c>
-      <c r="G319" s="13" t="s">
-        <v>13</v>
+      <c r="H319" s="13" t="s">
+        <v>14</v>
       </c>
       <c r="I319" t="s">
-        <v>263</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="J319"/>
+      <c r="K319"/>
     </row>
     <row r="320" spans="1:8">
       <c r="A320" t="n">
@@ -6113,11 +6206,11 @@
       <c r="B320" t="n">
         <v>6.09999999999999964</v>
       </c>
-      <c r="D320" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="G320" s="13" t="s">
-        <v>98</v>
+      <c r="E320" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="H320" s="13" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="321" spans="1:1">
@@ -6132,14 +6225,14 @@
       <c r="B322" s="3" t="n">
         <v>16.9400000000000013</v>
       </c>
-      <c r="D322" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="E322" s="17" t="n">
+      <c r="E322" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="F322" s="17" t="n">
         <v>43848</v>
       </c>
-      <c r="G322" s="13" t="s">
-        <v>89</v>
+      <c r="H322" s="13" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -6156,16 +6249,16 @@
         <v>60</v>
       </c>
       <c r="C324" t="s">
-        <v>9</v>
-      </c>
-      <c r="D324" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="E324" s="17" t="n">
+        <v>10</v>
+      </c>
+      <c r="E324" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="F324" s="17" t="n">
         <v>43850</v>
       </c>
-      <c r="G324" s="13" t="s">
-        <v>137</v>
+      <c r="H324" s="13" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -6176,13 +6269,13 @@
         <v>147</v>
       </c>
       <c r="C325" t="s">
-        <v>23</v>
-      </c>
-      <c r="D325" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="G325" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E325" s="7" t="s">
         <v>268</v>
+      </c>
+      <c r="H325" s="13" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="326" spans="1:1">
@@ -6197,14 +6290,14 @@
       <c r="B327" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="D327" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="E327" s="17" t="n">
+      <c r="E327" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="F327" s="17" t="n">
         <v>43855</v>
       </c>
-      <c r="G327" s="13" t="s">
-        <v>88</v>
+      <c r="H327" s="13" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -6214,11 +6307,11 @@
       <c r="B328" t="n">
         <v>20</v>
       </c>
-      <c r="D328" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G328" s="13" t="s">
-        <v>89</v>
+      <c r="E328" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H328" s="13" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -6235,16 +6328,16 @@
         <v>20.9699999999999989</v>
       </c>
       <c r="C330" t="s">
-        <v>9</v>
-      </c>
-      <c r="D330" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="E330" s="17" t="n">
+        <v>10</v>
+      </c>
+      <c r="E330" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="F330" s="17" t="n">
         <v>43856</v>
       </c>
-      <c r="G330" s="13" t="s">
-        <v>222</v>
+      <c r="H330" s="13" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -6255,13 +6348,13 @@
         <v>88.9599999999999937</v>
       </c>
       <c r="C331" t="s">
-        <v>23</v>
-      </c>
-      <c r="D331" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G331" s="13" t="s">
-        <v>76</v>
+        <v>24</v>
+      </c>
+      <c r="E331" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="H331" s="13" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -6271,11 +6364,11 @@
       <c r="B332" t="n">
         <v>174.69999999999996</v>
       </c>
-      <c r="D332" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="G332" s="13" t="s">
-        <v>119</v>
+      <c r="E332" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="H332" s="13" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="333" spans="1:1">
@@ -6290,14 +6383,14 @@
       <c r="B334" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="D334" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="E334" s="17" t="n">
+      <c r="E334" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="F334" s="17" t="n">
         <v>43859</v>
       </c>
-      <c r="G334" s="13" t="s">
-        <v>76</v>
+      <c r="H334" s="13" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="335" spans="1:1">
@@ -6312,14 +6405,14 @@
       <c r="B336" s="3" t="n">
         <v>9.25</v>
       </c>
-      <c r="D336" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="E336" s="17" t="n">
+      <c r="E336" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="F336" s="17" t="n">
         <v>43860</v>
       </c>
-      <c r="G336" s="13" t="s">
-        <v>30</v>
+      <c r="H336" s="13" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -6329,11 +6422,11 @@
       <c r="B337" t="n">
         <v>3.79000000000000004</v>
       </c>
-      <c r="D337" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="G337" s="13" t="s">
-        <v>76</v>
+      <c r="E337" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="H337" s="13" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="338" spans="1:1">
@@ -6348,10 +6441,10 @@
       <c r="B339" s="3" t="n">
         <v>9.47000000000000064</v>
       </c>
-      <c r="D339" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="E339" s="17" t="n">
+      <c r="E339" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="F339" s="17" t="n">
         <v>43863</v>
       </c>
     </row>
@@ -6362,8 +6455,8 @@
       <c r="B340" t="n">
         <v>13.7899999999999991</v>
       </c>
-      <c r="D340" s="7" t="s">
-        <v>276</v>
+      <c r="E340" s="7" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="341" spans="1:1">
@@ -6378,10 +6471,10 @@
       <c r="B342" s="3" t="n">
         <v>11.75</v>
       </c>
-      <c r="D342" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="E342" s="17" t="n">
+      <c r="E342" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="F342" s="17" t="n">
         <v>43864</v>
       </c>
     </row>
@@ -6397,10 +6490,10 @@
       <c r="B344" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="D344" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="E344" s="17" t="n">
+      <c r="E344" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="F344" s="17" t="n">
         <v>43865</v>
       </c>
     </row>
@@ -6418,16 +6511,16 @@
         <v>50</v>
       </c>
       <c r="C346" t="s">
-        <v>9</v>
-      </c>
-      <c r="D346" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="E346" s="17" t="n">
+        <v>10</v>
+      </c>
+      <c r="E346" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="F346" s="17" t="n">
         <v>43866</v>
       </c>
-      <c r="G346" s="13" t="s">
-        <v>30</v>
+      <c r="H346" s="13" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -6436,7 +6529,7 @@
       </c>
       <c r="B347" s="4"/>
     </row>
-    <row r="348" spans="1:10">
+    <row r="348" spans="1:11">
       <c r="A348" t="n">
         <v>347</v>
       </c>
@@ -6444,22 +6537,24 @@
         <v>16</v>
       </c>
       <c r="C348" t="s">
-        <v>23</v>
-      </c>
-      <c r="D348" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="E348" s="17" t="n">
+        <v>24</v>
+      </c>
+      <c r="E348" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="F348" s="17" t="n">
         <v>43867</v>
       </c>
-      <c r="G348" s="13" t="s">
-        <v>89</v>
+      <c r="H348" s="13" t="s">
+        <v>90</v>
       </c>
       <c r="I348" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="349" spans="1:10">
+        <v>264</v>
+      </c>
+      <c r="J348"/>
+      <c r="K348"/>
+    </row>
+    <row r="349" spans="1:11">
       <c r="A349" t="n">
         <v>348</v>
       </c>
@@ -6467,34 +6562,38 @@
         <v>20</v>
       </c>
       <c r="C349" t="s">
-        <v>9</v>
-      </c>
-      <c r="D349" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="G349" s="13" t="s">
-        <v>160</v>
+        <v>10</v>
+      </c>
+      <c r="E349" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="H349" s="13" t="s">
+        <v>161</v>
       </c>
       <c r="I349" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="350" spans="1:10">
+        <v>264</v>
+      </c>
+      <c r="J349"/>
+      <c r="K349"/>
+    </row>
+    <row r="350" spans="1:11">
       <c r="A350" t="n">
         <v>349</v>
       </c>
       <c r="B350" s="4" t="n">
         <v>9.58999999999999986</v>
       </c>
-      <c r="D350" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="G350" s="13" t="s">
-        <v>89</v>
+      <c r="E350" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="H350" s="13" t="s">
+        <v>90</v>
       </c>
       <c r="I350" t="s">
-        <v>263</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="J350"/>
+      <c r="K350"/>
     </row>
     <row r="351" spans="1:2">
       <c r="A351" t="n">
@@ -6502,7 +6601,7 @@
       </c>
       <c r="B351" s="4"/>
     </row>
-    <row r="352" spans="1:10">
+    <row r="352" spans="1:11">
       <c r="A352" t="n">
         <v>351</v>
       </c>
@@ -6510,35 +6609,40 @@
         <v>17.2100000000000009</v>
       </c>
       <c r="C352" s="3"/>
-      <c r="D352" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="E352" s="17" t="n">
+      <c r="D352" s="3"/>
+      <c r="E352" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="F352" s="17" t="n">
         <v>43868</v>
       </c>
-      <c r="G352" s="13" t="s">
-        <v>89</v>
+      <c r="H352" s="13" t="s">
+        <v>90</v>
       </c>
       <c r="I352" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="353" spans="1:10">
+        <v>264</v>
+      </c>
+      <c r="J352"/>
+      <c r="K352"/>
+    </row>
+    <row r="353" spans="1:11">
       <c r="A353" t="n">
         <v>352</v>
       </c>
       <c r="B353" s="4" t="n">
         <v>9.69999999999999929</v>
       </c>
-      <c r="D353" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G353" s="13" t="s">
-        <v>89</v>
+      <c r="E353" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H353" s="13" t="s">
+        <v>90</v>
       </c>
       <c r="I353" t="s">
-        <v>263</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="J353"/>
+      <c r="K353"/>
     </row>
     <row r="354" spans="1:2">
       <c r="A354" t="n">
@@ -6546,7 +6650,7 @@
       </c>
       <c r="B354" s="4"/>
     </row>
-    <row r="355" spans="1:10">
+    <row r="355" spans="1:11">
       <c r="A355" t="n">
         <v>354</v>
       </c>
@@ -6554,18 +6658,21 @@
         <v>17.370000000000001</v>
       </c>
       <c r="C355" s="3"/>
-      <c r="D355" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="E355" s="17" t="n">
+      <c r="D355" s="3"/>
+      <c r="E355" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="F355" s="17" t="n">
         <v>43869</v>
       </c>
-      <c r="G355" s="13" t="s">
-        <v>89</v>
+      <c r="H355" s="13" t="s">
+        <v>90</v>
       </c>
       <c r="I355" t="s">
-        <v>263</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="J355"/>
+      <c r="K355"/>
     </row>
     <row r="356" spans="1:2">
       <c r="A356" t="n">
@@ -6573,7 +6680,7 @@
       </c>
       <c r="B356" s="4"/>
     </row>
-    <row r="357" spans="1:10">
+    <row r="357" spans="1:11">
       <c r="A357" t="n">
         <v>356</v>
       </c>
@@ -6581,35 +6688,40 @@
         <v>5</v>
       </c>
       <c r="C357" s="3"/>
-      <c r="D357" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="E357" s="17" t="n">
+      <c r="D357" s="3"/>
+      <c r="E357" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="F357" s="17" t="n">
         <v>43870</v>
       </c>
-      <c r="G357" s="13" t="s">
-        <v>89</v>
+      <c r="H357" s="13" t="s">
+        <v>90</v>
       </c>
       <c r="I357" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="358" spans="1:10">
+        <v>264</v>
+      </c>
+      <c r="J357"/>
+      <c r="K357"/>
+    </row>
+    <row r="358" spans="1:11">
       <c r="A358" t="n">
         <v>357</v>
       </c>
       <c r="B358" s="4" t="n">
         <v>3.5</v>
       </c>
-      <c r="D358" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="G358" s="13" t="s">
-        <v>103</v>
+      <c r="E358" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="H358" s="13" t="s">
+        <v>104</v>
       </c>
       <c r="I358" t="s">
-        <v>263</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="J358"/>
+      <c r="K358"/>
     </row>
     <row r="359" spans="1:2">
       <c r="A359" t="n">
@@ -6617,7 +6729,7 @@
       </c>
       <c r="B359" s="4"/>
     </row>
-    <row r="360" spans="1:10">
+    <row r="360" spans="1:11">
       <c r="A360" t="n">
         <v>359</v>
       </c>
@@ -6625,18 +6737,21 @@
         <v>10</v>
       </c>
       <c r="C360" s="3"/>
-      <c r="D360" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="E360" s="17" t="n">
+      <c r="D360" s="3"/>
+      <c r="E360" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="F360" s="17" t="n">
         <v>43871</v>
       </c>
-      <c r="G360" s="13" t="s">
-        <v>89</v>
+      <c r="H360" s="13" t="s">
+        <v>90</v>
       </c>
       <c r="I360" t="s">
-        <v>263</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="J360"/>
+      <c r="K360"/>
     </row>
     <row r="361" spans="1:2">
       <c r="A361" t="n">
@@ -6652,16 +6767,16 @@
         <v>10</v>
       </c>
       <c r="C362" t="s">
-        <v>23</v>
-      </c>
-      <c r="D362" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="E362" s="17" t="n">
+        <v>24</v>
+      </c>
+      <c r="E362" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="F362" s="17" t="n">
         <v>43873</v>
       </c>
-      <c r="G362" s="13" t="s">
-        <v>76</v>
+      <c r="H362" s="13" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="363" spans="1:1">
@@ -6676,14 +6791,14 @@
       <c r="B364" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="D364" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="E364" s="17" t="n">
+      <c r="E364" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="F364" s="17" t="n">
         <v>43874</v>
       </c>
-      <c r="G364" s="13" t="s">
-        <v>137</v>
+      <c r="H364" s="13" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="365" spans="1:1">
@@ -6698,14 +6813,14 @@
       <c r="B366" s="3" t="n">
         <v>102.959999999999994</v>
       </c>
-      <c r="D366" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="E366" s="17" t="n">
+      <c r="E366" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F366" s="17" t="n">
         <v>43875</v>
       </c>
-      <c r="G366" s="13" t="s">
-        <v>76</v>
+      <c r="H366" s="13" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -6722,16 +6837,16 @@
         <v>30</v>
       </c>
       <c r="C368" t="s">
-        <v>9</v>
-      </c>
-      <c r="D368" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="E368" s="17" t="n">
+        <v>10</v>
+      </c>
+      <c r="E368" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="F368" s="17" t="n">
         <v>43876</v>
       </c>
-      <c r="G368" s="13" t="s">
-        <v>158</v>
+      <c r="H368" s="13" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -6742,13 +6857,13 @@
         <v>116</v>
       </c>
       <c r="C369" t="s">
-        <v>23</v>
-      </c>
-      <c r="D369" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="G369" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E369" s="7" t="s">
         <v>288</v>
+      </c>
+      <c r="H369" s="13" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="370" spans="1:1">
@@ -6763,14 +6878,14 @@
       <c r="B371" s="3" t="n">
         <v>32.8400000000000034</v>
       </c>
-      <c r="D371" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="E371" s="17" t="n">
+      <c r="E371" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F371" s="17" t="n">
         <v>43878</v>
       </c>
-      <c r="G371" s="13" t="s">
-        <v>76</v>
+      <c r="H371" s="13" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="372" spans="1:1">
@@ -6785,14 +6900,14 @@
       <c r="B373" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="D373" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="E373" s="17" t="n">
+      <c r="E373" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="F373" s="17" t="n">
         <v>43880</v>
       </c>
-      <c r="G373" s="13" t="s">
-        <v>76</v>
+      <c r="H373" s="13" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="374" spans="1:1">
@@ -6807,14 +6922,14 @@
       <c r="B375" s="3" t="n">
         <v>14.2200000000000006</v>
       </c>
-      <c r="D375" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="E375" s="17" t="n">
+      <c r="E375" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="F375" s="17" t="n">
         <v>43887</v>
       </c>
-      <c r="G375" s="13" t="s">
-        <v>76</v>
+      <c r="H375" s="13" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -6824,11 +6939,11 @@
       <c r="B376" t="n">
         <v>59.5499999999999972</v>
       </c>
-      <c r="D376" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="G376" s="13" t="s">
-        <v>137</v>
+      <c r="E376" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="H376" s="13" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="377" spans="1:1">
@@ -6843,14 +6958,14 @@
       <c r="B378" s="3" t="n">
         <v>56.1799999999999997</v>
       </c>
-      <c r="D378" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="E378" s="17" t="n">
+      <c r="E378" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="F378" s="17" t="n">
         <v>43888</v>
       </c>
-      <c r="G378" s="13" t="s">
-        <v>103</v>
+      <c r="H378" s="13" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="379" spans="1:1">
@@ -6865,14 +6980,14 @@
       <c r="B380" s="3" t="n">
         <v>25.129999999999999</v>
       </c>
-      <c r="D380" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="E380" s="17" t="n">
+      <c r="E380" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="F380" s="17" t="n">
         <v>43890</v>
       </c>
-      <c r="G380" s="13" t="s">
-        <v>89</v>
+      <c r="H380" s="13" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="381" spans="1:1">
@@ -6887,14 +7002,14 @@
       <c r="B382" s="3" t="n">
         <v>1080</v>
       </c>
-      <c r="D382" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="E382" s="17" t="n">
+      <c r="E382" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="F382" s="17" t="n">
         <v>43891</v>
       </c>
-      <c r="G382" s="13" t="s">
-        <v>11</v>
+      <c r="H382" s="13" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="383" spans="1:1">
@@ -6909,14 +7024,14 @@
       <c r="B384" s="3" t="n">
         <v>60.259999999999998</v>
       </c>
-      <c r="D384" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="E384" s="17" t="n">
+      <c r="E384" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F384" s="17" t="n">
         <v>43892</v>
       </c>
-      <c r="G384" s="13" t="s">
-        <v>76</v>
+      <c r="H384" s="13" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -6926,11 +7041,11 @@
       <c r="B385" t="n">
         <v>41.8999999999999986</v>
       </c>
-      <c r="D385" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="G385" s="13" t="s">
-        <v>216</v>
+      <c r="E385" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="H385" s="13" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -6940,11 +7055,11 @@
       <c r="B386" t="n">
         <v>40</v>
       </c>
-      <c r="D386" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="G386" s="13" t="s">
-        <v>49</v>
+      <c r="E386" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="H386" s="13" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -6954,11 +7069,11 @@
       <c r="B387" t="n">
         <v>1.5</v>
       </c>
-      <c r="D387" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="G387" s="13" t="s">
-        <v>222</v>
+      <c r="E387" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="H387" s="13" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="388" spans="1:1">
@@ -6966,219 +7081,241 @@
         <v>387</v>
       </c>
     </row>
-    <row r="389" spans="1:10">
+    <row r="389" spans="1:11">
       <c r="A389" t="n">
         <v>388</v>
       </c>
       <c r="B389" s="8" t="n">
         <v>48.2999999999999972</v>
       </c>
-      <c r="D389" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="E389" s="17" t="n">
+      <c r="E389" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="F389" s="17" t="n">
         <v>43894</v>
       </c>
-      <c r="G389" s="13" t="s">
-        <v>154</v>
+      <c r="H389" s="13" t="s">
+        <v>155</v>
       </c>
       <c r="I389" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="390" spans="1:10">
+        <v>298</v>
+      </c>
+      <c r="J389"/>
+      <c r="K389"/>
+    </row>
+    <row r="390" spans="1:11">
       <c r="A390" t="n">
         <v>389</v>
       </c>
       <c r="B390" t="n">
         <v>44</v>
       </c>
-      <c r="D390" s="7" t="s">
+      <c r="E390" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="H390" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="I390" t="s">
         <v>298</v>
       </c>
-      <c r="G390" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="I390" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="391" spans="1:10">
+      <c r="J390"/>
+      <c r="K390"/>
+    </row>
+    <row r="391" spans="1:11">
       <c r="A391" t="n">
         <v>390</v>
       </c>
       <c r="B391" t="n">
         <v>48</v>
       </c>
-      <c r="D391" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="F391" t="n">
+      <c r="E391" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="G391" t="n">
         <v>388</v>
       </c>
       <c r="I391" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="392" spans="1:10">
+        <v>298</v>
+      </c>
+      <c r="J391"/>
+      <c r="K391"/>
+    </row>
+    <row r="392" spans="1:11">
       <c r="A392" t="n">
         <v>391</v>
       </c>
       <c r="B392" t="n">
         <v>44</v>
       </c>
-      <c r="D392" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="F392" t="n">
+      <c r="E392" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="G392" t="n">
         <v>389</v>
       </c>
       <c r="I392" t="s">
-        <v>297</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="J392"/>
+      <c r="K392"/>
     </row>
     <row r="393" spans="1:1">
       <c r="A393" t="n">
         <v>392</v>
       </c>
     </row>
-    <row r="394" spans="1:10">
+    <row r="394" spans="1:11">
       <c r="A394" t="n">
         <v>393</v>
       </c>
       <c r="B394" s="3" t="n">
         <v>19.5</v>
       </c>
-      <c r="D394" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="E394" s="17" t="n">
+      <c r="E394" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="F394" s="17" t="n">
         <v>43895</v>
       </c>
-      <c r="G394" s="13" t="s">
-        <v>160</v>
+      <c r="H394" s="13" t="s">
+        <v>161</v>
       </c>
       <c r="I394" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="395" spans="1:10">
+        <v>298</v>
+      </c>
+      <c r="J394"/>
+      <c r="K394"/>
+    </row>
+    <row r="395" spans="1:11">
       <c r="A395" t="n">
         <v>394</v>
       </c>
       <c r="B395" t="n">
         <v>176.719999999999999</v>
       </c>
-      <c r="D395" s="7" t="s">
-        <v>302</v>
+      <c r="E395" s="7" t="s">
+        <v>303</v>
       </c>
       <c r="I395" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="396" spans="1:10">
+        <v>298</v>
+      </c>
+      <c r="J395"/>
+      <c r="K395"/>
+    </row>
+    <row r="396" spans="1:11">
       <c r="A396" t="n">
         <v>395</v>
       </c>
       <c r="B396" t="n">
         <v>176.719999999999999</v>
       </c>
-      <c r="D396" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="F396" t="n">
+      <c r="E396" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="G396" t="n">
         <v>394</v>
       </c>
       <c r="I396" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="397" spans="1:10">
+        <v>298</v>
+      </c>
+      <c r="J396"/>
+      <c r="K396"/>
+    </row>
+    <row r="397" spans="1:11">
       <c r="A397" t="n">
         <v>396</v>
       </c>
       <c r="B397" s="3" t="n">
         <v>15.2300000000000004</v>
       </c>
-      <c r="D397" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="E397" s="17" t="n">
+      <c r="E397" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="F397" s="17" t="n">
         <v>43896</v>
       </c>
-      <c r="G397" s="13" t="s">
-        <v>89</v>
+      <c r="H397" s="13" t="s">
+        <v>90</v>
       </c>
       <c r="I397" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="398" spans="1:10">
+        <v>298</v>
+      </c>
+      <c r="J397"/>
+      <c r="K397"/>
+    </row>
+    <row r="398" spans="1:11">
       <c r="A398" t="n">
         <v>397</v>
       </c>
       <c r="B398" t="n">
         <v>6.66000000000000014</v>
       </c>
-      <c r="D398" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="G398" s="13" t="s">
-        <v>103</v>
+      <c r="E398" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="H398" s="13" t="s">
+        <v>104</v>
       </c>
       <c r="I398" t="s">
-        <v>297</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="J398"/>
+      <c r="K398"/>
     </row>
     <row r="399" spans="1:1">
       <c r="A399" t="n">
         <v>398</v>
       </c>
     </row>
-    <row r="400" spans="1:10">
+    <row r="400" spans="1:11">
       <c r="A400" t="n">
         <v>399</v>
       </c>
       <c r="B400" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="D400" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="E400" s="17" t="n">
+      <c r="E400" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="F400" s="17" t="n">
         <v>43897</v>
       </c>
-      <c r="G400" s="13" t="s">
-        <v>103</v>
+      <c r="H400" s="13" t="s">
+        <v>104</v>
       </c>
       <c r="I400" t="s">
-        <v>297</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="J400"/>
+      <c r="K400"/>
     </row>
     <row r="401" spans="1:1">
       <c r="A401" t="n">
         <v>400</v>
       </c>
     </row>
-    <row r="402" spans="1:10">
+    <row r="402" spans="1:11">
       <c r="A402" t="n">
         <v>401</v>
       </c>
       <c r="B402" s="3" t="n">
         <v>82.7900000000000063</v>
       </c>
-      <c r="D402" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="E402" s="17" t="n">
+      <c r="E402" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="F402" s="17" t="n">
         <v>43898</v>
       </c>
-      <c r="G402" s="13" t="s">
-        <v>89</v>
+      <c r="H402" s="13" t="s">
+        <v>90</v>
       </c>
       <c r="I402" t="s">
-        <v>297</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="J402"/>
+      <c r="K402"/>
     </row>
     <row r="403" spans="1:1">
       <c r="A403" t="n">
@@ -7192,14 +7329,14 @@
       <c r="B404" s="3" t="n">
         <v>32.8299999999999983</v>
       </c>
-      <c r="D404" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="E404" s="17" t="n">
+      <c r="E404" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="F404" s="17" t="n">
         <v>43900</v>
       </c>
-      <c r="G404" s="13" t="s">
-        <v>15</v>
+      <c r="H404" s="13" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -7209,11 +7346,11 @@
       <c r="B405" t="n">
         <v>41.8400000000000034</v>
       </c>
-      <c r="D405" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="G405" s="13" t="s">
-        <v>125</v>
+      <c r="E405" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="H405" s="13" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="406" spans="1:1">
@@ -7228,14 +7365,14 @@
       <c r="B407" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="D407" s="8" t="s">
-        <v>309</v>
-      </c>
-      <c r="E407" s="17" t="n">
+      <c r="E407" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="F407" s="17" t="n">
         <v>43901</v>
       </c>
-      <c r="G407" s="13" t="s">
-        <v>131</v>
+      <c r="H407" s="13" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -7245,11 +7382,11 @@
       <c r="B408" t="n">
         <v>15.4000000000000004</v>
       </c>
-      <c r="D408" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="G408" s="13" t="s">
-        <v>139</v>
+      <c r="E408" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="H408" s="13" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -7259,11 +7396,11 @@
       <c r="B409" t="n">
         <v>14.8699999999999992</v>
       </c>
-      <c r="D409" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="G409" s="13" t="s">
-        <v>76</v>
+      <c r="E409" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="H409" s="13" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="410" spans="1:2">
@@ -7272,7 +7409,7 @@
       </c>
       <c r="B410" s="4"/>
     </row>
-    <row r="411" spans="1:10">
+    <row r="411" spans="1:11">
       <c r="A411" t="n">
         <v>410</v>
       </c>
@@ -7280,20 +7417,22 @@
         <v>60.1700000000000017</v>
       </c>
       <c r="C411" t="s">
-        <v>9</v>
-      </c>
-      <c r="D411" s="8" t="s">
-        <v>312</v>
-      </c>
-      <c r="E411" s="17" t="n">
+        <v>10</v>
+      </c>
+      <c r="E411" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="F411" s="17" t="n">
         <v>43903</v>
       </c>
-      <c r="G411" s="13" t="s">
-        <v>105</v>
+      <c r="H411" s="13" t="s">
+        <v>106</v>
       </c>
       <c r="I411" t="s">
-        <v>313</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="J411"/>
+      <c r="K411"/>
     </row>
     <row r="412" spans="1:2">
       <c r="A412" t="n">
@@ -7301,7 +7440,7 @@
       </c>
       <c r="B412" s="4"/>
     </row>
-    <row r="413" spans="1:10">
+    <row r="413" spans="1:11">
       <c r="A413" t="n">
         <v>412</v>
       </c>
@@ -7309,52 +7448,59 @@
         <v>3.70999999999999996</v>
       </c>
       <c r="C413" s="3"/>
-      <c r="D413" s="8" t="s">
+      <c r="D413" s="3"/>
+      <c r="E413" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="F413" s="17" t="n">
+        <v>43904</v>
+      </c>
+      <c r="H413" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="I413" t="s">
         <v>314</v>
       </c>
-      <c r="E413" s="17" t="n">
-        <v>43904</v>
-      </c>
-      <c r="G413" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="I413" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="414" spans="1:10">
+      <c r="J413"/>
+      <c r="K413"/>
+    </row>
+    <row r="414" spans="1:11">
       <c r="A414" t="n">
         <v>413</v>
       </c>
       <c r="B414" s="4" t="n">
         <v>10.5099999999999998</v>
       </c>
-      <c r="D414" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="G414" s="13" t="s">
-        <v>89</v>
+      <c r="E414" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="H414" s="13" t="s">
+        <v>90</v>
       </c>
       <c r="I414" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="415" spans="1:10">
+        <v>314</v>
+      </c>
+      <c r="J414"/>
+      <c r="K414"/>
+    </row>
+    <row r="415" spans="1:11">
       <c r="A415" t="n">
         <v>414</v>
       </c>
       <c r="B415" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="D415" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="G415" s="13" t="s">
-        <v>89</v>
+      <c r="E415" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="H415" s="13" t="s">
+        <v>90</v>
       </c>
       <c r="I415" t="s">
-        <v>313</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="J415"/>
+      <c r="K415"/>
     </row>
     <row r="416" spans="1:2">
       <c r="A416" t="n">
@@ -7362,7 +7508,7 @@
       </c>
       <c r="B416" s="4"/>
     </row>
-    <row r="417" spans="1:10">
+    <row r="417" spans="1:11">
       <c r="A417" t="n">
         <v>416</v>
       </c>
@@ -7370,52 +7516,59 @@
         <v>18.25</v>
       </c>
       <c r="C417" s="3"/>
-      <c r="D417" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="E417" s="17" t="n">
+      <c r="D417" s="3"/>
+      <c r="E417" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="F417" s="17" t="n">
         <v>43905</v>
       </c>
-      <c r="G417" s="13" t="s">
-        <v>89</v>
+      <c r="H417" s="13" t="s">
+        <v>90</v>
       </c>
       <c r="I417" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="418" spans="1:10">
+        <v>314</v>
+      </c>
+      <c r="J417"/>
+      <c r="K417"/>
+    </row>
+    <row r="418" spans="1:11">
       <c r="A418" t="n">
         <v>417</v>
       </c>
       <c r="B418" s="4" t="n">
         <v>2.5</v>
       </c>
-      <c r="D418" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="F418" t="n">
+      <c r="E418" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="G418" t="n">
         <v>416</v>
       </c>
       <c r="I418" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="419" spans="1:10">
+        <v>314</v>
+      </c>
+      <c r="J418"/>
+      <c r="K418"/>
+    </row>
+    <row r="419" spans="1:11">
       <c r="A419" t="n">
         <v>418</v>
       </c>
       <c r="B419" s="4" t="n">
         <v>10.8000000000000007</v>
       </c>
-      <c r="D419" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="G419" s="13" t="s">
-        <v>89</v>
+      <c r="E419" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="H419" s="13" t="s">
+        <v>90</v>
       </c>
       <c r="I419" t="s">
-        <v>313</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="J419"/>
+      <c r="K419"/>
     </row>
     <row r="420" spans="1:2">
       <c r="A420" t="n">
@@ -7423,7 +7576,7 @@
       </c>
       <c r="B420" s="4"/>
     </row>
-    <row r="421" spans="1:10">
+    <row r="421" spans="1:11">
       <c r="A421" t="n">
         <v>420</v>
       </c>
@@ -7431,18 +7584,21 @@
         <v>11.6799999999999997</v>
       </c>
       <c r="C421" s="3"/>
-      <c r="D421" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="E421" s="17" t="n">
+      <c r="D421" s="3"/>
+      <c r="E421" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="F421" s="17" t="n">
         <v>43906</v>
       </c>
-      <c r="G421" s="13" t="s">
-        <v>89</v>
+      <c r="H421" s="13" t="s">
+        <v>90</v>
       </c>
       <c r="I421" t="s">
-        <v>313</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="J421"/>
+      <c r="K421"/>
     </row>
     <row r="422" spans="1:5">
       <c r="A422" t="n">
@@ -7450,14 +7606,15 @@
       </c>
       <c r="B422" s="5"/>
       <c r="C422" s="1"/>
-      <c r="D422" s="9"/>
+      <c r="D422" s="1"/>
+      <c r="E422" s="9"/>
     </row>
     <row r="423" spans="1:1">
       <c r="A423" t="n">
         <v>422</v>
       </c>
     </row>
-    <row r="424" spans="1:10">
+    <row r="424" spans="1:11">
       <c r="A424" t="n">
         <v>423</v>
       </c>
@@ -7465,35 +7622,40 @@
         <v>30.3000000000000007</v>
       </c>
       <c r="C424" s="3"/>
-      <c r="D424" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="E424" s="17" t="n">
+      <c r="D424" s="3"/>
+      <c r="E424" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="F424" s="17" t="n">
         <v>43907</v>
       </c>
-      <c r="G424" s="13" t="s">
-        <v>89</v>
+      <c r="H424" s="13" t="s">
+        <v>90</v>
       </c>
       <c r="I424" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="425" spans="1:10">
+        <v>314</v>
+      </c>
+      <c r="J424"/>
+      <c r="K424"/>
+    </row>
+    <row r="425" spans="1:11">
       <c r="A425" t="n">
         <v>424</v>
       </c>
       <c r="B425" s="4" t="n">
         <v>20.1999999999999993</v>
       </c>
-      <c r="D425" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="F425" t="n">
+      <c r="E425" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="G425" t="n">
         <v>423</v>
       </c>
       <c r="I425" t="s">
-        <v>313</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="J425"/>
+      <c r="K425"/>
     </row>
     <row r="426" spans="1:5">
       <c r="A426" t="n">
@@ -7501,14 +7663,15 @@
       </c>
       <c r="B426" s="5"/>
       <c r="C426" s="1"/>
-      <c r="D426" s="9"/>
+      <c r="D426" s="1"/>
+      <c r="E426" s="9"/>
     </row>
     <row r="427" spans="1:1">
       <c r="A427" t="n">
         <v>426</v>
       </c>
     </row>
-    <row r="428" spans="1:10">
+    <row r="428" spans="1:11">
       <c r="A428" t="n">
         <v>427</v>
       </c>
@@ -7516,18 +7679,21 @@
         <v>15.8100000000000005</v>
       </c>
       <c r="C428" s="3"/>
-      <c r="D428" s="8" t="s">
-        <v>322</v>
-      </c>
-      <c r="E428" s="17" t="n">
+      <c r="D428" s="3"/>
+      <c r="E428" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="F428" s="17" t="n">
         <v>43908</v>
       </c>
-      <c r="G428" s="13" t="s">
-        <v>89</v>
+      <c r="H428" s="13" t="s">
+        <v>90</v>
       </c>
       <c r="I428" t="s">
-        <v>313</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="J428"/>
+      <c r="K428"/>
     </row>
     <row r="429" spans="1:2">
       <c r="A429" t="n">
@@ -7543,14 +7709,15 @@
         <v>7</v>
       </c>
       <c r="C430" s="3"/>
-      <c r="D430" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="E430" s="17" t="n">
+      <c r="D430" s="3"/>
+      <c r="E430" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="F430" s="17" t="n">
         <v>43910</v>
       </c>
-      <c r="G430" s="13" t="s">
-        <v>222</v>
+      <c r="H430" s="13" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="431" spans="1:2">
@@ -7564,19 +7731,19 @@
         <v>431</v>
       </c>
       <c r="B432" s="3" t="n">
-        <v>114.110000000000014</v>
+        <v>114.109999999999999</v>
       </c>
       <c r="C432" t="s">
-        <v>23</v>
-      </c>
-      <c r="D432" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="E432" s="17" t="n">
+        <v>24</v>
+      </c>
+      <c r="E432" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F432" s="17" t="n">
         <v>43912</v>
       </c>
-      <c r="G432" s="13" t="s">
-        <v>76</v>
+      <c r="H432" s="13" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="433" spans="1:5">
@@ -7585,7 +7752,8 @@
       </c>
       <c r="B433" s="5"/>
       <c r="C433" s="1"/>
-      <c r="D433" s="9"/>
+      <c r="D433" s="1"/>
+      <c r="E433" s="9"/>
     </row>
     <row r="434" spans="1:8">
       <c r="A434" t="n">
@@ -7595,16 +7763,16 @@
         <v>106.920000000000002</v>
       </c>
       <c r="C434" t="s">
-        <v>9</v>
-      </c>
-      <c r="D434" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="E434" s="17" t="n">
+        <v>10</v>
+      </c>
+      <c r="E434" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="F434" s="17" t="n">
         <v>43913</v>
       </c>
-      <c r="G434" s="13" t="s">
-        <v>158</v>
+      <c r="H434" s="13" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -7614,11 +7782,11 @@
       <c r="B435" s="4" t="n">
         <v>142.710000000000008</v>
       </c>
-      <c r="D435" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="G435" s="13" t="s">
+      <c r="E435" s="7" t="s">
         <v>326</v>
+      </c>
+      <c r="H435" s="13" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="436" spans="1:2">
@@ -7635,16 +7803,16 @@
         <v>35.4200000000000017</v>
       </c>
       <c r="C437" t="s">
-        <v>23</v>
-      </c>
-      <c r="D437" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="E437" s="17" t="n">
+        <v>24</v>
+      </c>
+      <c r="E437" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="F437" s="17" t="n">
         <v>43923</v>
       </c>
-      <c r="G437" s="13" t="s">
-        <v>103</v>
+      <c r="H437" s="13" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="438" spans="1:1">
@@ -7659,14 +7827,14 @@
       <c r="B439" s="3" t="n">
         <v>121.599999999999994</v>
       </c>
-      <c r="D439" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="E439" s="17" t="n">
+      <c r="E439" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F439" s="17" t="n">
         <v>43924</v>
       </c>
-      <c r="G439" s="13" t="s">
-        <v>76</v>
+      <c r="H439" s="13" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="440" spans="1:1">
@@ -7681,14 +7849,14 @@
       <c r="B441" s="3" t="n">
         <v>111.670000000000002</v>
       </c>
-      <c r="D441" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="E441" s="17" t="n">
+      <c r="E441" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F441" s="17" t="n">
         <v>43935</v>
       </c>
-      <c r="G441" s="13" t="s">
-        <v>76</v>
+      <c r="H441" s="13" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="442" spans="1:2">
@@ -7705,16 +7873,16 @@
         <v>10</v>
       </c>
       <c r="C443" t="s">
-        <v>9</v>
-      </c>
-      <c r="D443" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="E443" s="17" t="n">
+        <v>10</v>
+      </c>
+      <c r="E443" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="F443" s="17" t="n">
         <v>43938</v>
       </c>
-      <c r="G443" s="13" t="s">
-        <v>329</v>
+      <c r="H443" s="13" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="444" spans="1:2">
@@ -7731,16 +7899,16 @@
         <v>47.3100000000000023</v>
       </c>
       <c r="C445" t="s">
-        <v>23</v>
-      </c>
-      <c r="D445" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="E445" s="17" t="n">
+        <v>24</v>
+      </c>
+      <c r="E445" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F445" s="17" t="n">
         <v>43939</v>
       </c>
-      <c r="G445" s="13" t="s">
-        <v>76</v>
+      <c r="H445" s="13" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="446" spans="1:1">
@@ -7755,14 +7923,14 @@
       <c r="B447" s="3" t="n">
         <v>65.3499999999999943</v>
       </c>
-      <c r="D447" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="E447" s="17" t="n">
+      <c r="E447" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F447" s="17" t="n">
         <v>43948</v>
       </c>
-      <c r="G447" s="13" t="s">
-        <v>76</v>
+      <c r="H447" s="13" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -7772,11 +7940,11 @@
       <c r="B448" t="n">
         <v>44.0799999999999983</v>
       </c>
-      <c r="D448" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G448" s="13" t="s">
-        <v>76</v>
+      <c r="E448" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="H448" s="13" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="449" spans="1:5">
@@ -7784,7 +7952,7 @@
         <v>448</v>
       </c>
       <c r="B449" s="1"/>
-      <c r="D449" s="9"/>
+      <c r="E449" s="9"/>
     </row>
     <row r="450" spans="1:8">
       <c r="A450" t="n">
@@ -7793,14 +7961,14 @@
       <c r="B450" t="n">
         <v>75.6599999999999824</v>
       </c>
-      <c r="D450" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="E450" s="17" t="n">
+      <c r="E450" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F450" s="17" t="n">
         <v>43958</v>
       </c>
-      <c r="G450" s="13" t="s">
-        <v>76</v>
+      <c r="H450" s="13" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="451" spans="1:1">
@@ -7815,14 +7983,14 @@
       <c r="B452" t="n">
         <v>185</v>
       </c>
-      <c r="D452" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="E452" s="17" t="n">
+      <c r="E452" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="F452" s="17" t="n">
         <v>43960</v>
       </c>
-      <c r="G452" s="13" t="s">
-        <v>119</v>
+      <c r="H452" s="13" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="453" spans="1:1">
@@ -7837,14 +8005,14 @@
       <c r="B454" t="n">
         <v>51.5399999999999991</v>
       </c>
-      <c r="D454" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="E454" s="17" t="n">
+      <c r="E454" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F454" s="17" t="n">
         <v>43964</v>
       </c>
-      <c r="G454" s="13" t="s">
-        <v>76</v>
+      <c r="H454" s="13" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="455" spans="1:1">
@@ -7859,14 +8027,14 @@
       <c r="B456" t="n">
         <v>38.490000000000002</v>
       </c>
-      <c r="D456" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="E456" s="17" t="n">
+      <c r="E456" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="F456" s="17" t="n">
         <v>43966</v>
       </c>
-      <c r="G456" s="13" t="s">
-        <v>76</v>
+      <c r="H456" s="13" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -7876,11 +8044,11 @@
       <c r="B457" t="n">
         <v>10</v>
       </c>
-      <c r="D457" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="G457" s="13" t="s">
+      <c r="E457" s="8" t="s">
         <v>142</v>
+      </c>
+      <c r="H457" s="13" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="458" spans="1:1">
@@ -7896,16 +8064,16 @@
         <v>12.5</v>
       </c>
       <c r="C459" t="s">
-        <v>9</v>
-      </c>
-      <c r="D459" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="E459" s="17" t="n">
+        <v>10</v>
+      </c>
+      <c r="E459" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F459" s="17" t="n">
         <v>43967</v>
       </c>
-      <c r="G459" s="13" t="s">
-        <v>222</v>
+      <c r="H459" s="13" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="460" spans="1:1">
@@ -7921,16 +8089,16 @@
         <v>68.519999999999996</v>
       </c>
       <c r="C461" t="s">
-        <v>23</v>
-      </c>
-      <c r="D461" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="E461" s="17" t="n">
+        <v>24</v>
+      </c>
+      <c r="E461" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="F461" s="17" t="n">
         <v>43971</v>
       </c>
-      <c r="G461" s="13" t="s">
-        <v>103</v>
+      <c r="H461" s="13" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="462" spans="1:1">
@@ -7945,14 +8113,14 @@
       <c r="B463" t="n">
         <v>117.810000000000002</v>
       </c>
-      <c r="D463" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="E463" s="17" t="n">
+      <c r="E463" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F463" s="17" t="n">
         <v>43973</v>
       </c>
-      <c r="G463" s="13" t="s">
-        <v>76</v>
+      <c r="H463" s="13" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="464" spans="1:1">
@@ -7967,14 +8135,14 @@
       <c r="B465" t="n">
         <v>1.25</v>
       </c>
-      <c r="D465" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="E465" s="17" t="n">
+      <c r="E465" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="F465" s="17" t="n">
         <v>43979</v>
       </c>
-      <c r="G465" s="13" t="s">
-        <v>139</v>
+      <c r="H465" s="13" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -7984,11 +8152,11 @@
       <c r="B466" t="n">
         <v>76.5100000000000051</v>
       </c>
-      <c r="D466" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="G466" s="13" t="s">
-        <v>15</v>
+      <c r="E466" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="H466" s="13" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -7998,11 +8166,11 @@
       <c r="B467" t="n">
         <v>30.3000000000000007</v>
       </c>
-      <c r="D467" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="G467" s="13" t="s">
-        <v>76</v>
+      <c r="E467" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="H467" s="13" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="468" spans="1:1">
@@ -8017,14 +8185,14 @@
       <c r="B469" t="n">
         <v>55.0399999999999991</v>
       </c>
-      <c r="D469" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="E469" s="17" t="n">
+      <c r="E469" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="F469" s="17" t="n">
         <v>43984</v>
       </c>
-      <c r="G469" s="13" t="s">
-        <v>76</v>
+      <c r="H469" s="13" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="470" spans="1:1">
@@ -8039,14 +8207,14 @@
       <c r="B471" t="n">
         <v>5</v>
       </c>
-      <c r="D471" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="E471" s="17" t="n">
+      <c r="E471" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F471" s="17" t="n">
         <v>43985</v>
       </c>
-      <c r="G471" s="13" t="s">
-        <v>76</v>
+      <c r="H471" s="13" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -8056,11 +8224,11 @@
       <c r="B472" t="n">
         <v>100.709999999999994</v>
       </c>
-      <c r="D472" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G472" s="13" t="s">
-        <v>76</v>
+      <c r="E472" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="H472" s="13" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -8070,11 +8238,11 @@
       <c r="B473" t="n">
         <v>7.90000000000000036</v>
       </c>
-      <c r="D473" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="G473" s="13" t="s">
-        <v>103</v>
+      <c r="E473" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="H473" s="13" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="474" spans="1:1">
@@ -8089,14 +8257,14 @@
       <c r="B475" t="n">
         <v>90</v>
       </c>
-      <c r="D475" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="E475" s="17" t="n">
+      <c r="E475" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="F475" s="17" t="n">
         <v>43986</v>
       </c>
-      <c r="G475" s="13" t="s">
-        <v>337</v>
+      <c r="H475" s="13" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="476" spans="1:1">
@@ -8111,14 +8279,14 @@
       <c r="B477" t="n">
         <v>360</v>
       </c>
-      <c r="D477" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="E477" s="17" t="n">
+      <c r="E477" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="F477" s="17" t="n">
         <v>43987</v>
       </c>
-      <c r="G477" s="13" t="s">
-        <v>11</v>
+      <c r="H477" s="13" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="478" spans="1:1">
@@ -8133,10 +8301,10 @@
       <c r="B479" t="n">
         <v>83.4699999999999989</v>
       </c>
-      <c r="D479" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="E479" s="17" t="n">
+      <c r="E479" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F479" s="17" t="n">
         <v>43990</v>
       </c>
     </row>
@@ -8152,14 +8320,14 @@
       <c r="B481" t="n">
         <v>220</v>
       </c>
-      <c r="D481" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="E481" s="17" t="n">
+      <c r="E481" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="F481" s="17" t="n">
         <v>43992</v>
       </c>
-      <c r="G481" s="13" t="s">
-        <v>339</v>
+      <c r="H481" s="13" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="482" spans="1:1">
@@ -8174,10 +8342,10 @@
       <c r="B483" t="n">
         <v>20</v>
       </c>
-      <c r="D483" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E483" s="17" t="n">
+      <c r="E483" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F483" s="17" t="n">
         <v>43994</v>
       </c>
     </row>
@@ -8188,11 +8356,11 @@
       <c r="B484" t="n">
         <v>7.59999999999999876</v>
       </c>
-      <c r="D484" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="G484" s="13" t="s">
-        <v>103</v>
+      <c r="E484" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="H484" s="13" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="485" spans="1:1">
@@ -8207,10 +8375,10 @@
       <c r="B486" t="n">
         <v>94.6899999999999977</v>
       </c>
-      <c r="D486" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="E486" s="17" t="n">
+      <c r="E486" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F486" s="17" t="n">
         <v>43995</v>
       </c>
     </row>
@@ -8226,10 +8394,10 @@
       <c r="B488" t="n">
         <v>20</v>
       </c>
-      <c r="D488" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="E488" s="17" t="n">
+      <c r="E488" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="F488" s="17" t="n">
         <v>43996</v>
       </c>
     </row>
@@ -8245,14 +8413,14 @@
       <c r="B490" t="n">
         <v>33.2800000000000011</v>
       </c>
-      <c r="D490" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="E490" s="17" t="n">
+      <c r="E490" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="F490" s="17" t="n">
         <v>43997</v>
       </c>
-      <c r="G490" s="13" t="s">
-        <v>15</v>
+      <c r="H490" s="13" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="491" spans="1:1">
@@ -8267,14 +8435,14 @@
       <c r="B492" t="n">
         <v>24.6000000000000014</v>
       </c>
-      <c r="D492" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="E492" s="17" t="n">
+      <c r="E492" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="F492" s="17" t="n">
         <v>43998</v>
       </c>
-      <c r="G492" s="13" t="s">
-        <v>15</v>
+      <c r="H492" s="13" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -8284,11 +8452,11 @@
       <c r="B493" t="n">
         <v>41.3900000000000006</v>
       </c>
-      <c r="D493" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="G493" s="13" t="s">
-        <v>125</v>
+      <c r="E493" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="H493" s="13" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="494" spans="1:1">
@@ -8303,14 +8471,14 @@
       <c r="B495" t="n">
         <v>25.129999999999999</v>
       </c>
-      <c r="D495" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="E495" s="17" t="n">
+      <c r="E495" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="F495" s="17" t="n">
         <v>43999</v>
       </c>
-      <c r="G495" s="13" t="s">
-        <v>89</v>
+      <c r="H495" s="13" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="496" spans="1:1">
@@ -8325,10 +8493,10 @@
       <c r="B497" t="n">
         <v>74.3599999999999994</v>
       </c>
-      <c r="D497" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="E497" s="17" t="n">
+      <c r="E497" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="F497" s="17" t="n">
         <v>44000</v>
       </c>
     </row>
@@ -8344,14 +8512,14 @@
       <c r="B499" t="n">
         <v>23.4100000000000001</v>
       </c>
-      <c r="D499" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="E499" s="17" t="n">
+      <c r="E499" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="F499" s="17" t="n">
         <v>44004</v>
       </c>
-      <c r="G499" s="13" t="s">
-        <v>15</v>
+      <c r="H499" s="13" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -8361,11 +8529,11 @@
       <c r="B500" t="n">
         <v>10.1999999999999993</v>
       </c>
-      <c r="D500" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="G500" s="13" t="s">
-        <v>103</v>
+      <c r="E500" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="H500" s="13" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="501" spans="1:1">
@@ -8380,10 +8548,10 @@
       <c r="B502" t="n">
         <v>37.0900000000000034</v>
       </c>
-      <c r="D502" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="E502" s="17" t="n">
+      <c r="E502" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="F502" s="17" t="n">
         <v>44008</v>
       </c>
     </row>
@@ -8394,11 +8562,11 @@
       <c r="B503" t="n">
         <v>95.019999999999996</v>
       </c>
-      <c r="D503" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="G503" s="13" t="s">
-        <v>76</v>
+      <c r="E503" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="H503" s="13" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="504" spans="1:1">
@@ -8413,14 +8581,14 @@
       <c r="B505" t="n">
         <v>20.7399999999999984</v>
       </c>
-      <c r="D505" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="E505" s="17" t="n">
+      <c r="E505" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F505" s="17" t="n">
         <v>44013</v>
       </c>
-      <c r="G505" s="13" t="s">
-        <v>76</v>
+      <c r="H505" s="13" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="506" spans="1:1">
@@ -8435,14 +8603,14 @@
       <c r="B507" t="n">
         <v>9</v>
       </c>
-      <c r="D507" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="E507" s="17" t="n">
+      <c r="E507" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="F507" s="17" t="n">
         <v>44015</v>
       </c>
-      <c r="G507" s="13" t="s">
-        <v>103</v>
+      <c r="H507" s="13" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="508" spans="1:1">
@@ -8457,14 +8625,14 @@
       <c r="B509" t="n">
         <v>7.88999999999999879</v>
       </c>
-      <c r="D509" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="E509" s="17" t="n">
+      <c r="E509" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F509" s="17" t="n">
         <v>44016</v>
       </c>
-      <c r="G509" s="13" t="s">
-        <v>103</v>
+      <c r="H509" s="13" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="510" spans="1:5">
@@ -8474,8 +8642,8 @@
       <c r="B510" t="n">
         <v>49.7800000000000011</v>
       </c>
-      <c r="D510" s="7" t="s">
-        <v>95</v>
+      <c r="E510" s="7" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="511" spans="1:1">
@@ -8490,14 +8658,14 @@
       <c r="B512" t="n">
         <v>42.5200000000000031</v>
       </c>
-      <c r="D512" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="E512" s="17" t="n">
+      <c r="E512" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="F512" s="17" t="n">
         <v>44019</v>
       </c>
-      <c r="G512" s="13" t="s">
-        <v>119</v>
+      <c r="H512" s="13" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -8507,11 +8675,11 @@
       <c r="B513" t="n">
         <v>49.0300000000000011</v>
       </c>
-      <c r="D513" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G513" s="13" t="s">
-        <v>76</v>
+      <c r="E513" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="H513" s="13" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="514" spans="1:1">
@@ -8526,14 +8694,14 @@
       <c r="B515" t="n">
         <v>23.2100000000000009</v>
       </c>
-      <c r="D515" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="E515" s="17" t="n">
+      <c r="E515" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="F515" s="17" t="n">
         <v>44020</v>
       </c>
-      <c r="G515" s="13" t="s">
-        <v>350</v>
+      <c r="H515" s="13" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -8543,11 +8711,11 @@
       <c r="B516" t="n">
         <v>67.0300000000000011</v>
       </c>
-      <c r="D516" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G516" s="13" t="s">
-        <v>76</v>
+      <c r="E516" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="H516" s="13" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -8557,11 +8725,11 @@
       <c r="B517" t="n">
         <v>110</v>
       </c>
-      <c r="D517" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="G517" s="13" t="s">
+      <c r="E517" s="7" t="s">
         <v>352</v>
+      </c>
+      <c r="H517" s="13" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="518" spans="1:1">
@@ -8576,10 +8744,10 @@
       <c r="B519" t="n">
         <v>1120</v>
       </c>
-      <c r="D519" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="E519" s="17" t="n">
+      <c r="E519" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="F519" s="17" t="n">
         <v>44022</v>
       </c>
     </row>
@@ -8590,11 +8758,11 @@
       <c r="B520" t="n">
         <v>24.8000000000000007</v>
       </c>
-      <c r="D520" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="G520" s="13" t="s">
-        <v>160</v>
+      <c r="E520" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="H520" s="13" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -8604,11 +8772,11 @@
       <c r="B521" t="n">
         <v>48.6899999999999977</v>
       </c>
-      <c r="D521" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="G521" s="13" t="s">
-        <v>103</v>
+      <c r="E521" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="H521" s="13" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -8618,11 +8786,11 @@
       <c r="B522" t="n">
         <v>8.40000000000000036</v>
       </c>
-      <c r="D522" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="G522" s="13" t="s">
-        <v>76</v>
+      <c r="E522" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="H522" s="13" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -8632,11 +8800,11 @@
       <c r="B523" t="n">
         <v>40.2299999999999969</v>
       </c>
-      <c r="D523" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="G523" s="13" t="s">
-        <v>204</v>
+      <c r="E523" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="H523" s="13" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="524" spans="1:1">
@@ -8651,14 +8819,14 @@
       <c r="B525" t="n">
         <v>14.1199999999999992</v>
       </c>
-      <c r="D525" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="E525" s="17" t="n">
+      <c r="E525" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F525" s="17" t="n">
         <v>44026</v>
       </c>
-      <c r="G525" s="13" t="s">
-        <v>76</v>
+      <c r="H525" s="13" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="526" spans="1:1">
@@ -8673,14 +8841,14 @@
       <c r="B527" t="n">
         <v>28.3599999999999994</v>
       </c>
-      <c r="D527" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="E527" s="17" t="n">
+      <c r="E527" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="F527" s="17" t="n">
         <v>44027</v>
       </c>
-      <c r="G527" s="13" t="s">
-        <v>89</v>
+      <c r="H527" s="13" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="528" spans="1:1">
@@ -8695,14 +8863,14 @@
       <c r="B529" t="n">
         <v>43.6700000000000017</v>
       </c>
-      <c r="D529" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="E529" s="17" t="n">
+      <c r="E529" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="F529" s="17" t="n">
         <v>44028</v>
       </c>
-      <c r="G529" s="13" t="s">
-        <v>82</v>
+      <c r="H529" s="13" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -8712,11 +8880,11 @@
       <c r="B530" t="n">
         <v>48.8500000000000014</v>
       </c>
-      <c r="D530" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="G530" s="13" t="s">
-        <v>82</v>
+      <c r="E530" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="H530" s="13" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -8726,11 +8894,11 @@
       <c r="B531" t="n">
         <v>37.75</v>
       </c>
-      <c r="D531" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G531" s="13" t="s">
-        <v>76</v>
+      <c r="E531" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="H531" s="13" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="532" spans="1:1">
@@ -8745,13 +8913,13 @@
       <c r="B533" t="n">
         <v>28.7300000000000004</v>
       </c>
-      <c r="D533" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="E533" s="17" t="n">
+      <c r="E533" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="F533" s="17" t="n">
         <v>44031</v>
       </c>
-      <c r="F533" t="n">
+      <c r="G533" t="n">
         <v>529</v>
       </c>
     </row>
@@ -8762,11 +8930,11 @@
       <c r="B534" t="n">
         <v>34.4799999999999969</v>
       </c>
-      <c r="D534" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="G534" s="13" t="s">
-        <v>82</v>
+      <c r="E534" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="H534" s="13" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -8776,11 +8944,11 @@
       <c r="B535" t="n">
         <v>17.25</v>
       </c>
-      <c r="D535" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="G535" s="13" t="s">
-        <v>119</v>
+      <c r="E535" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="H535" s="13" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="536" spans="1:1">
@@ -8795,14 +8963,14 @@
       <c r="B537" t="n">
         <v>270.399999999999977</v>
       </c>
-      <c r="D537" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="E537" s="17" t="n">
+      <c r="E537" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="F537" s="17" t="n">
         <v>44032</v>
       </c>
-      <c r="G537" s="13" t="s">
-        <v>163</v>
+      <c r="H537" s="13" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="538" spans="1:5">
@@ -8812,8 +8980,8 @@
       <c r="B538" t="n">
         <v>44.6499999999999986</v>
       </c>
-      <c r="D538" s="7" t="s">
-        <v>95</v>
+      <c r="E538" s="7" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -8823,11 +8991,11 @@
       <c r="B539" t="n">
         <v>11</v>
       </c>
-      <c r="D539" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="G539" s="13" t="s">
-        <v>150</v>
+      <c r="E539" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="H539" s="13" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="540" spans="1:1">
@@ -8842,14 +9010,14 @@
       <c r="B541" t="n">
         <v>56.4200000000000017</v>
       </c>
-      <c r="D541" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="E541" s="17" t="n">
+      <c r="E541" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="F541" s="17" t="n">
         <v>44033</v>
       </c>
-      <c r="G541" s="13" t="s">
-        <v>103</v>
+      <c r="H541" s="13" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="542" spans="1:5">
@@ -8859,8 +9027,8 @@
       <c r="B542" t="n">
         <v>20.5399999999999991</v>
       </c>
-      <c r="D542" s="7" t="s">
-        <v>366</v>
+      <c r="E542" s="7" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="543" spans="1:1">
@@ -8875,14 +9043,14 @@
       <c r="B544" t="n">
         <v>33.7000000000000028</v>
       </c>
-      <c r="D544" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="E544" s="17" t="n">
+      <c r="E544" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="F544" s="17" t="n">
         <v>44034</v>
       </c>
-      <c r="G544" s="13" t="s">
-        <v>103</v>
+      <c r="H544" s="13" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="545" spans="1:1">
@@ -8897,10 +9065,10 @@
       <c r="B546" t="n">
         <v>30.3599999999999994</v>
       </c>
-      <c r="D546" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="E546" s="17" t="n">
+      <c r="E546" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F546" s="17" t="n">
         <v>44036</v>
       </c>
     </row>
@@ -8916,14 +9084,14 @@
       <c r="B548" t="n">
         <v>6.83999999999999986</v>
       </c>
-      <c r="D548" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="E548" s="17" t="n">
+      <c r="E548" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="F548" s="17" t="n">
         <v>44037</v>
       </c>
-      <c r="G548" s="13" t="s">
-        <v>103</v>
+      <c r="H548" s="13" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="549" spans="1:1">
@@ -8938,14 +9106,14 @@
       <c r="B550" t="n">
         <v>1560</v>
       </c>
-      <c r="D550" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="E550" s="17" t="n">
+      <c r="E550" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="F550" s="17" t="n">
         <v>44040</v>
       </c>
-      <c r="G550" s="13" t="s">
-        <v>49</v>
+      <c r="H550" s="13" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="551" spans="1:1">
@@ -8960,14 +9128,14 @@
       <c r="B552" t="n">
         <v>19.0500000000000007</v>
       </c>
-      <c r="D552" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="E552" s="17" t="n">
+      <c r="E552" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="F552" s="17" t="n">
         <v>44041</v>
       </c>
-      <c r="G552" s="13" t="s">
-        <v>89</v>
+      <c r="H552" s="13" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -8977,11 +9145,11 @@
       <c r="B553" t="n">
         <v>17.7699999999999996</v>
       </c>
-      <c r="D553" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="G553" s="13" t="s">
-        <v>326</v>
+      <c r="E553" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="H553" s="13" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -8991,11 +9159,11 @@
       <c r="B554" t="n">
         <v>26.6900000000000013</v>
       </c>
-      <c r="D554" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="G554" s="13" t="s">
-        <v>326</v>
+      <c r="E554" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="H554" s="13" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -9005,11 +9173,11 @@
       <c r="B555" t="n">
         <v>18</v>
       </c>
-      <c r="D555" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="G555" s="13" t="s">
-        <v>326</v>
+      <c r="E555" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="H555" s="13" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -9019,28 +9187,29 @@
       <c r="B556" t="n">
         <v>38.25</v>
       </c>
-      <c r="D556" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="G556" s="13" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="557" spans="1:9">
+      <c r="E556" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="H556" s="13" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="557" spans="1:10">
       <c r="A557" t="n">
         <v>556</v>
       </c>
       <c r="B557" t="n">
         <v>1575</v>
       </c>
-      <c r="D557" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="G557" s="13" t="s">
-        <v>350</v>
-      </c>
-      <c r="H557" t="s">
-        <v>247</v>
+      <c r="E557" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="H557" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="I557"/>
+      <c r="J557" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="558" spans="1:1">
@@ -9055,14 +9224,14 @@
       <c r="B559" t="n">
         <v>45.9799999999999969</v>
       </c>
-      <c r="D559" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="E559" s="17" t="n">
+      <c r="E559" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="F559" s="17" t="n">
         <v>44042</v>
       </c>
-      <c r="G559" s="13" t="s">
-        <v>350</v>
+      <c r="H559" s="13" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -9072,11 +9241,11 @@
       <c r="B560" t="n">
         <v>92.019999999999996</v>
       </c>
-      <c r="D560" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="G560" s="13" t="s">
-        <v>76</v>
+      <c r="E560" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="H560" s="13" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -9086,11 +9255,11 @@
       <c r="B561" t="n">
         <v>100</v>
       </c>
-      <c r="D561" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="G561" s="13" t="s">
+      <c r="E561" s="7" t="s">
         <v>352</v>
+      </c>
+      <c r="H561" s="13" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="562" spans="1:1">
@@ -9103,17 +9272,17 @@
         <v>562</v>
       </c>
       <c r="B563" s="14" t="s">
-        <v>375</v>
-      </c>
-      <c r="D563" s="15" t="s">
         <v>376</v>
       </c>
-      <c r="E563" s="20" t="n">
+      <c r="E563" s="15" t="s">
+        <v>377</v>
+      </c>
+      <c r="F563" s="20" t="n">
         <v>44046</v>
       </c>
-      <c r="F563" s="15"/>
-      <c r="G563" s="15" t="s">
-        <v>76</v>
+      <c r="G563" s="15"/>
+      <c r="H563" s="15" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -9121,15 +9290,15 @@
         <v>563</v>
       </c>
       <c r="B564" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="D564" s="15" t="s">
-        <v>365</v>
-      </c>
-      <c r="E564" s="21"/>
-      <c r="F564" s="15"/>
-      <c r="G564" s="15" t="s">
-        <v>76</v>
+        <v>378</v>
+      </c>
+      <c r="E564" s="15" t="s">
+        <v>366</v>
+      </c>
+      <c r="F564" s="21"/>
+      <c r="G564" s="15"/>
+      <c r="H564" s="15" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -9139,22 +9308,22 @@
       <c r="B565" s="14" t="n">
         <v>10</v>
       </c>
-      <c r="D565" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="E565" s="21"/>
-      <c r="F565" s="15"/>
+      <c r="E565" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="F565" s="21"/>
       <c r="G565" s="15"/>
+      <c r="H565" s="15"/>
     </row>
     <row r="566" spans="1:8">
       <c r="A566" t="n">
         <v>565</v>
       </c>
       <c r="B566" s="15"/>
-      <c r="D566" s="15"/>
-      <c r="E566" s="21"/>
-      <c r="F566" s="15"/>
+      <c r="E566" s="15"/>
+      <c r="F566" s="21"/>
       <c r="G566" s="15"/>
+      <c r="H566" s="15"/>
     </row>
     <row r="567" spans="1:8">
       <c r="A567" t="n">
@@ -9163,15 +9332,15 @@
       <c r="B567" s="14" t="n">
         <v>10</v>
       </c>
-      <c r="D567" s="15" t="s">
-        <v>378</v>
-      </c>
-      <c r="E567" s="22" t="n">
+      <c r="E567" s="15" t="s">
+        <v>379</v>
+      </c>
+      <c r="F567" s="22" t="n">
         <v>44050</v>
       </c>
-      <c r="F567" s="15"/>
-      <c r="G567" s="15" t="s">
-        <v>329</v>
+      <c r="G567" s="15"/>
+      <c r="H567" s="15" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -9179,27 +9348,27 @@
         <v>567</v>
       </c>
       <c r="B568" s="15"/>
-      <c r="D568" s="15"/>
-      <c r="E568" s="21"/>
-      <c r="F568" s="15"/>
+      <c r="E568" s="15"/>
+      <c r="F568" s="21"/>
       <c r="G568" s="15"/>
+      <c r="H568" s="15"/>
     </row>
     <row r="569" spans="1:8">
       <c r="A569" t="n">
         <v>568</v>
       </c>
       <c r="B569" s="14" t="s">
-        <v>379</v>
-      </c>
-      <c r="D569" s="15" t="s">
-        <v>211</v>
-      </c>
-      <c r="E569" s="22" t="n">
+        <v>380</v>
+      </c>
+      <c r="E569" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="F569" s="22" t="n">
         <v>44051</v>
       </c>
-      <c r="F569" s="15"/>
-      <c r="G569" s="15" t="s">
-        <v>76</v>
+      <c r="G569" s="15"/>
+      <c r="H569" s="15" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -9207,10 +9376,10 @@
         <v>569</v>
       </c>
       <c r="B570" s="15"/>
-      <c r="D570" s="15"/>
-      <c r="E570" s="21"/>
-      <c r="F570" s="15"/>
+      <c r="E570" s="15"/>
+      <c r="F570" s="21"/>
       <c r="G570" s="15"/>
+      <c r="H570" s="15"/>
     </row>
     <row r="571" spans="1:8">
       <c r="A571" t="n">
@@ -9219,87 +9388,87 @@
       <c r="B571" s="14" t="n">
         <v>300</v>
       </c>
-      <c r="D571" s="15" t="s">
-        <v>380</v>
-      </c>
-      <c r="E571" s="22" t="n">
+      <c r="E571" s="15" t="s">
+        <v>381</v>
+      </c>
+      <c r="F571" s="22" t="n">
         <v>44052</v>
       </c>
-      <c r="F571" s="15"/>
-      <c r="G571" s="15" t="s">
-        <v>352</v>
+      <c r="G571" s="15"/>
+      <c r="H571" s="15" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="572" spans="1:8">
       <c r="A572" t="n">
         <v>571</v>
       </c>
-      <c r="D572"/>
-      <c r="G572"/>
+      <c r="E572"/>
+      <c r="H572"/>
     </row>
     <row r="573" spans="1:8">
       <c r="A573" t="n">
         <v>572</v>
       </c>
       <c r="B573" t="s">
-        <v>381</v>
-      </c>
-      <c r="D573" t="s">
-        <v>211</v>
-      </c>
-      <c r="E573" s="17" t="n">
+        <v>382</v>
+      </c>
+      <c r="E573" t="s">
+        <v>212</v>
+      </c>
+      <c r="F573" s="17" t="n">
         <v>44054</v>
       </c>
-      <c r="G573" s="15" t="s">
-        <v>76</v>
+      <c r="H573" s="15" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="574" spans="1:8">
       <c r="A574" t="n">
         <v>573</v>
       </c>
-      <c r="D574"/>
-      <c r="G574"/>
+      <c r="E574"/>
+      <c r="H574"/>
     </row>
     <row r="575" spans="1:8">
       <c r="A575" t="n">
         <v>574</v>
       </c>
       <c r="B575" t="s">
-        <v>382</v>
-      </c>
-      <c r="D575" t="s">
-        <v>211</v>
-      </c>
-      <c r="E575" s="17" t="n">
+        <v>383</v>
+      </c>
+      <c r="E575" t="s">
+        <v>212</v>
+      </c>
+      <c r="F575" s="17" t="n">
         <v>44057</v>
       </c>
-      <c r="G575" s="15" t="s">
-        <v>76</v>
+      <c r="H575" s="15" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="576" spans="1:8">
       <c r="A576" t="n">
         <v>575</v>
       </c>
-      <c r="D576"/>
-      <c r="G576"/>
+      <c r="E576"/>
+      <c r="H576"/>
     </row>
     <row r="577" spans="1:8">
       <c r="A577" t="n">
         <v>576</v>
       </c>
       <c r="B577" t="s">
-        <v>383</v>
-      </c>
-      <c r="D577" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="E577" s="17" t="n">
+      <c r="E577" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="F577" s="17" t="n">
         <v>44059</v>
       </c>
-      <c r="G577" s="13" t="s">
-        <v>103</v>
+      <c r="H577" s="13" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -9307,13 +9476,13 @@
         <v>577</v>
       </c>
       <c r="B578" t="s">
-        <v>385</v>
-      </c>
-      <c r="D578" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G578" s="15" t="s">
-        <v>76</v>
+        <v>386</v>
+      </c>
+      <c r="E578" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="H578" s="15" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="579" spans="1:1">
@@ -9328,34 +9497,34 @@
       <c r="B580" t="n">
         <v>85</v>
       </c>
-      <c r="D580" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="E580" s="17" t="n">
+      <c r="E580" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="F580" s="17" t="n">
         <v>44061</v>
       </c>
-      <c r="G580" s="13" t="s">
-        <v>352</v>
+      <c r="H580" s="13" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="581" spans="1:8">
       <c r="A581" t="n">
         <v>580</v>
       </c>
-      <c r="D581"/>
-      <c r="G581"/>
+      <c r="E581"/>
+      <c r="H581"/>
     </row>
     <row r="582" spans="1:6">
       <c r="A582" t="n">
         <v>581</v>
       </c>
       <c r="B582" t="s">
-        <v>387</v>
-      </c>
-      <c r="D582" t="s">
-        <v>211</v>
-      </c>
-      <c r="E582" s="17" t="n">
+        <v>388</v>
+      </c>
+      <c r="E582" t="s">
+        <v>212</v>
+      </c>
+      <c r="F582" s="17" t="n">
         <v>44063</v>
       </c>
     </row>
@@ -9364,10 +9533,10 @@
         <v>582</v>
       </c>
       <c r="B583" t="s">
-        <v>388</v>
-      </c>
-      <c r="D583" t="s">
-        <v>95</v>
+        <v>389</v>
+      </c>
+      <c r="E583" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="584" spans="1:6">
@@ -9375,12 +9544,12 @@
         <v>583</v>
       </c>
       <c r="B584" t="s">
-        <v>389</v>
-      </c>
-      <c r="D584" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="E584" s="17" t="n">
+        <v>390</v>
+      </c>
+      <c r="E584" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F584" s="17" t="n">
         <v>44065</v>
       </c>
     </row>
@@ -9399,12 +9568,12 @@
         <v>586</v>
       </c>
       <c r="B587" t="s">
-        <v>390</v>
-      </c>
-      <c r="D587" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="E587" s="17" t="n">
+        <v>391</v>
+      </c>
+      <c r="E587" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="F587" s="17" t="n">
         <v>44068</v>
       </c>
     </row>
@@ -9415,8 +9584,8 @@
       <c r="B588" t="n">
         <v>7</v>
       </c>
-      <c r="D588" s="7" t="s">
-        <v>391</v>
+      <c r="E588" s="7" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="589" spans="1:6">
@@ -9424,12 +9593,12 @@
         <v>588</v>
       </c>
       <c r="B589" t="s">
-        <v>392</v>
-      </c>
-      <c r="D589" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="E589" s="17" t="n">
+        <v>393</v>
+      </c>
+      <c r="E589" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="F589" s="17" t="n">
         <v>44069</v>
       </c>
     </row>
@@ -9437,7 +9606,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1644570071" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1666541772" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -9446,14 +9615,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1644570071" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1644570071" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1666541772" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1666541772" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1644570071" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1666541772" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -9475,7 +9644,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1644570071" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1666541772" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -9484,14 +9653,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1644570071" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1644570071" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1666541772" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1666541772" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1644570071" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1666541772" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -9513,7 +9682,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1644570071" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1666541772" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -9522,14 +9691,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1644570071" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1644570071" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1666541772" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1666541772" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1644570071" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1666541772" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/recount/example/example_expenses_en.xlsx
+++ b/recount/example/example_expenses_en.xlsx
@@ -15,10 +15,10 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1666639697" val="980" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1666639697" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1666639697" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1666639697"/>
+      <pm:revision xmlns:pm="smNativeData" day="1667185289" val="980" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1667185289" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1667185289" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1667185289"/>
     </ext>
   </extLst>
 </workbook>
@@ -1187,7 +1187,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1666639697" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1667185289" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1202,7 +1202,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1666639697" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1667185289" ulstyle="none" kern="1">
             <pm:latin face="Basic Sans" sz="200" lang="default"/>
             <pm:cs face="Basic Roman" sz="200" lang="default"/>
             <pm:ea face="Basic Roman" sz="200" lang="default"/>
@@ -1218,7 +1218,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1666639697" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1667185289" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Basic Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="Basic Roman" sz="220" lang="default" weight="bold"/>
@@ -1233,7 +1233,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1666639697" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1667185289" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="240" lang="default"/>
             <pm:ea face="Basic Roman" sz="240" lang="default"/>
@@ -1242,7 +1242,7 @@
       </extLst>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1270,8 +1270,19 @@
     <fill>
       <patternFill patternType="none"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1667185289" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left style="none">
         <color rgb="FF000000"/>
@@ -1287,7 +1298,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1666639697"/>
+          <pm:border xmlns:pm="smNativeData" id="1667185289"/>
         </ext>
       </extLst>
     </border>
@@ -1306,7 +1317,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1666639697">
+          <pm:border xmlns:pm="smNativeData" id="1667185289">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -1327,7 +1338,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1666639697">
+          <pm:border xmlns:pm="smNativeData" id="1667185289">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -1349,7 +1360,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1666639697">
+          <pm:border xmlns:pm="smNativeData" id="1667185289">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -1370,7 +1381,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1666639697">
+          <pm:border xmlns:pm="smNativeData" id="1667185289">
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -1391,7 +1402,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1666639697">
+          <pm:border xmlns:pm="smNativeData" id="1667185289">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -1413,7 +1424,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1666639697">
+          <pm:border xmlns:pm="smNativeData" id="1667185289">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -1435,9 +1446,28 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1666639697">
+          <pm:border xmlns:pm="smNativeData" id="1667185289">
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1667185289"/>
         </ext>
       </extLst>
     </border>
@@ -1500,10 +1530,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1666639697" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1667185289" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1666639697" count="1">
+      <pm:colors xmlns:pm="smNativeData" id="1667185289" count="1">
         <pm:color name="Gris 20%" rgb="000000"/>
       </pm:colors>
     </ext>
@@ -1767,10 +1797,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L573"/>
+  <dimension ref="A1:K573"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" topLeftCell="A494" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A573"/>
+    <sheetView tabSelected="1" view="normal" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.553571" defaultRowHeight="15.40"/>
@@ -1786,7 +1816,7 @@
     <col min="11" max="11" width="14.000000" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:9">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1815,7 +1845,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:7">
       <c r="A2" t="n">
         <v>1</v>
       </c>
@@ -1835,7 +1865,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:7">
       <c r="A3" t="n">
         <v>2</v>
       </c>
@@ -1849,7 +1879,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:11">
       <c r="A4" t="n">
         <v>3</v>
       </c>
@@ -1867,7 +1897,7 @@
       </c>
       <c r="K4" s="11"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:7">
       <c r="A5" t="n">
         <v>4</v>
       </c>
@@ -1885,16 +1915,17 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:7">
       <c r="A6" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="n">
         <v>16</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="D6" s="7" t="s">
         <v>18</v>
       </c>
+      <c r="E6"/>
       <c r="F6" s="17" t="n">
         <v>43687</v>
       </c>
@@ -1902,30 +1933,32 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:7">
       <c r="A7" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="4" t="n">
         <v>50</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="D7" s="7" t="s">
         <v>20</v>
       </c>
+      <c r="E7"/>
       <c r="G7" s="13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:7">
       <c r="A8" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="D8" s="7" t="s">
         <v>21</v>
       </c>
+      <c r="E8"/>
       <c r="F8" s="17" t="n">
         <v>43692</v>
       </c>
@@ -1933,7 +1966,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:7">
       <c r="A9" t="n">
         <v>8</v>
       </c>
@@ -1941,10 +1974,10 @@
         <v>10</v>
       </c>
       <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="9" t="s">
+      <c r="D9" s="9" t="s">
         <v>22</v>
       </c>
+      <c r="E9"/>
       <c r="F9" s="17" t="n">
         <v>43694</v>
       </c>
@@ -1952,7 +1985,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:7">
       <c r="A10" t="n">
         <v>9</v>
       </c>
@@ -1972,7 +2005,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:7">
       <c r="A11" t="n">
         <v>10</v>
       </c>
@@ -1986,12 +2019,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:7">
       <c r="A12" t="n">
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>10.3400000000000016</v>
+        <v>10.3399999999999999</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>28</v>
@@ -2000,7 +2033,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:7">
       <c r="A13" t="n">
         <v>12</v>
       </c>
@@ -2014,21 +2047,22 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:7">
       <c r="A14" t="n">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="D14" s="9" t="s">
         <v>18</v>
       </c>
+      <c r="E14"/>
       <c r="G14" s="13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:7">
       <c r="A15" t="n">
         <v>14</v>
       </c>
@@ -2045,7 +2079,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:7">
       <c r="A16" t="n">
         <v>15</v>
       </c>
@@ -2059,7 +2093,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:7">
       <c r="A17" t="n">
         <v>16</v>
       </c>
@@ -2073,7 +2107,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:7">
       <c r="A18" t="n">
         <v>17</v>
       </c>
@@ -2087,7 +2121,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:7">
       <c r="A19" t="n">
         <v>18</v>
       </c>
@@ -2101,7 +2135,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:7">
       <c r="A20" t="n">
         <v>19</v>
       </c>
@@ -2115,7 +2149,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:7">
       <c r="A21" t="n">
         <v>20</v>
       </c>
@@ -2129,7 +2163,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:7">
       <c r="A22" t="n">
         <v>21</v>
       </c>
@@ -2143,7 +2177,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:7">
       <c r="A23" t="n">
         <v>22</v>
       </c>
@@ -2157,7 +2191,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:7">
       <c r="A24" t="n">
         <v>23</v>
       </c>
@@ -2171,7 +2205,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:7">
       <c r="A25" t="n">
         <v>24</v>
       </c>
@@ -2188,7 +2222,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:7">
       <c r="A26" t="n">
         <v>25</v>
       </c>
@@ -2202,7 +2236,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:7">
       <c r="A27" t="n">
         <v>26</v>
       </c>
@@ -2216,7 +2250,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:7">
       <c r="A28" t="n">
         <v>27</v>
       </c>
@@ -2230,7 +2264,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:7">
       <c r="A29" t="n">
         <v>28</v>
       </c>
@@ -2244,7 +2278,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:7">
       <c r="A30" t="n">
         <v>29</v>
       </c>
@@ -2258,7 +2292,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:7">
       <c r="A31" t="n">
         <v>30</v>
       </c>
@@ -2272,7 +2306,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:7">
       <c r="A32" t="n">
         <v>31</v>
       </c>
@@ -2289,7 +2323,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:7">
       <c r="A33" t="n">
         <v>32</v>
       </c>
@@ -2303,7 +2337,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:7">
       <c r="A34" t="n">
         <v>33</v>
       </c>
@@ -2320,7 +2354,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:7">
       <c r="A35" t="n">
         <v>34</v>
       </c>
@@ -2334,7 +2368,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:7">
       <c r="A36" t="n">
         <v>35</v>
       </c>
@@ -2348,7 +2382,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:7">
       <c r="A37" t="n">
         <v>36</v>
       </c>
@@ -2362,7 +2396,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:7">
       <c r="A38" t="n">
         <v>37</v>
       </c>
@@ -2376,7 +2410,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:7">
       <c r="A39" t="n">
         <v>38</v>
       </c>
@@ -2393,7 +2427,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:7">
       <c r="A40" t="n">
         <v>39</v>
       </c>
@@ -2407,7 +2441,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:7">
       <c r="A41" t="n">
         <v>40</v>
       </c>
@@ -2421,7 +2455,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:7">
       <c r="A42" t="n">
         <v>41</v>
       </c>
@@ -2435,7 +2469,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:7">
       <c r="A43" t="n">
         <v>42</v>
       </c>
@@ -2452,7 +2486,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:7">
       <c r="A44" t="n">
         <v>43</v>
       </c>
@@ -2466,7 +2500,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:7">
       <c r="A45" t="n">
         <v>44</v>
       </c>
@@ -2480,7 +2514,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:7">
       <c r="A46" t="n">
         <v>45</v>
       </c>
@@ -2494,7 +2528,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:7">
       <c r="A47" t="n">
         <v>46</v>
       </c>
@@ -2656,7 +2690,7 @@
       <c r="B60" s="6"/>
       <c r="E60" s="10"/>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:7">
       <c r="A61" t="n">
         <v>60</v>
       </c>
@@ -2673,7 +2707,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:7">
       <c r="A62" t="n">
         <v>61</v>
       </c>
@@ -2694,7 +2728,7 @@
       <c r="B63" s="1"/>
       <c r="E63" s="9"/>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:7">
       <c r="A64" t="n">
         <v>63</v>
       </c>
@@ -2718,7 +2752,7 @@
       <c r="B65" s="1"/>
       <c r="E65" s="9"/>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:7">
       <c r="A66" t="n">
         <v>65</v>
       </c>
@@ -2735,7 +2769,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:7">
       <c r="A67" t="n">
         <v>66</v>
       </c>
@@ -2749,7 +2783,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:7">
       <c r="A68" t="n">
         <v>67</v>
       </c>
@@ -2781,7 +2815,7 @@
       <c r="B70" s="1"/>
       <c r="E70" s="9"/>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:7">
       <c r="A71" t="n">
         <v>70</v>
       </c>
@@ -2805,7 +2839,7 @@
       <c r="B72" s="1"/>
       <c r="E72" s="9"/>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:7">
       <c r="A73" t="n">
         <v>72</v>
       </c>
@@ -2822,7 +2856,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:7">
       <c r="A74" t="n">
         <v>73</v>
       </c>
@@ -2843,7 +2877,7 @@
       <c r="B75" s="1"/>
       <c r="E75" s="9"/>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:7">
       <c r="A76" t="n">
         <v>75</v>
       </c>
@@ -2867,7 +2901,7 @@
       <c r="B77" s="1"/>
       <c r="E77" s="9"/>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:7">
       <c r="A78" t="n">
         <v>77</v>
       </c>
@@ -2963,7 +2997,7 @@
       <c r="B86" s="1"/>
       <c r="E86" s="9"/>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:7">
       <c r="A87" t="n">
         <v>86</v>
       </c>
@@ -2980,7 +3014,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:7">
       <c r="A88" t="n">
         <v>87</v>
       </c>
@@ -2994,7 +3028,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:7">
       <c r="A89" t="n">
         <v>88</v>
       </c>
@@ -3008,7 +3042,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:7">
       <c r="A90" t="n">
         <v>89</v>
       </c>
@@ -3022,7 +3056,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:7">
       <c r="A91" t="n">
         <v>90</v>
       </c>
@@ -3036,7 +3070,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:7">
       <c r="A92" t="n">
         <v>91</v>
       </c>
@@ -3050,12 +3084,12 @@
         <v>105</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:7">
       <c r="A93" t="n">
         <v>92</v>
       </c>
       <c r="B93" t="n">
-        <v>13.9200000000000017</v>
+        <v>13.9199999999999999</v>
       </c>
       <c r="E93" s="7" t="s">
         <v>106</v>
@@ -3071,7 +3105,7 @@
       <c r="B94" s="1"/>
       <c r="E94" s="9"/>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:7">
       <c r="A95" t="n">
         <v>94</v>
       </c>
@@ -3088,7 +3122,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:7">
       <c r="A96" t="n">
         <v>95</v>
       </c>
@@ -3109,7 +3143,7 @@
       <c r="B97" s="1"/>
       <c r="E97" s="9"/>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:7">
       <c r="A98" t="n">
         <v>97</v>
       </c>
@@ -3126,7 +3160,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:7">
       <c r="A99" t="n">
         <v>98</v>
       </c>
@@ -3147,7 +3181,7 @@
       <c r="B100" s="1"/>
       <c r="E100" s="9"/>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:7">
       <c r="A101" t="n">
         <v>100</v>
       </c>
@@ -3171,7 +3205,7 @@
       <c r="B102" s="1"/>
       <c r="E102" s="9"/>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:7">
       <c r="A103" t="n">
         <v>102</v>
       </c>
@@ -3195,7 +3229,7 @@
       <c r="B104" s="1"/>
       <c r="E104" s="9"/>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:7">
       <c r="A105" t="n">
         <v>104</v>
       </c>
@@ -3212,7 +3246,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:7">
       <c r="A106" t="n">
         <v>105</v>
       </c>
@@ -3226,7 +3260,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:7">
       <c r="A107" t="n">
         <v>106</v>
       </c>
@@ -3240,7 +3274,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:7">
       <c r="A108" t="n">
         <v>107</v>
       </c>
@@ -3254,7 +3288,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:7">
       <c r="A109" t="n">
         <v>108</v>
       </c>
@@ -3275,7 +3309,7 @@
       <c r="B110" s="1"/>
       <c r="E110" s="9"/>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:7">
       <c r="A111" t="n">
         <v>110</v>
       </c>
@@ -3292,7 +3326,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:7">
       <c r="A112" t="n">
         <v>111</v>
       </c>
@@ -3313,12 +3347,12 @@
       <c r="B113" s="1"/>
       <c r="E113" s="9"/>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:7">
       <c r="A114" t="n">
         <v>113</v>
       </c>
       <c r="B114" s="3" t="n">
-        <v>10.3400000000000016</v>
+        <v>10.3399999999999999</v>
       </c>
       <c r="E114" s="8" t="s">
         <v>123</v>
@@ -3330,7 +3364,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:7">
       <c r="A115" t="n">
         <v>114</v>
       </c>
@@ -3344,7 +3378,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:7">
       <c r="A116" t="n">
         <v>115</v>
       </c>
@@ -3358,7 +3392,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:7">
       <c r="A117" t="n">
         <v>116</v>
       </c>
@@ -3372,7 +3406,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:7">
       <c r="A118" t="n">
         <v>117</v>
       </c>
@@ -3392,7 +3426,7 @@
       </c>
       <c r="B119" s="4"/>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:7">
       <c r="A120" t="n">
         <v>119</v>
       </c>
@@ -3412,7 +3446,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:7">
       <c r="A121" t="n">
         <v>120</v>
       </c>
@@ -3434,7 +3468,7 @@
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
     </row>
-    <row r="123" spans="1:8">
+    <row r="123" spans="1:7">
       <c r="A123" t="n">
         <v>122</v>
       </c>
@@ -3454,7 +3488,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="124" spans="1:8">
+    <row r="124" spans="1:7">
       <c r="A124" t="n">
         <v>123</v>
       </c>
@@ -3468,7 +3502,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:7">
       <c r="A125" t="n">
         <v>124</v>
       </c>
@@ -3482,7 +3516,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="126" spans="1:8">
+    <row r="126" spans="1:7">
       <c r="A126" t="n">
         <v>125</v>
       </c>
@@ -3496,7 +3530,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:7">
       <c r="A127" t="n">
         <v>126</v>
       </c>
@@ -3517,7 +3551,7 @@
       <c r="B128" s="1"/>
       <c r="E128" s="9"/>
     </row>
-    <row r="129" spans="1:8">
+    <row r="129" spans="1:7">
       <c r="A129" t="n">
         <v>128</v>
       </c>
@@ -3541,7 +3575,7 @@
       <c r="B130" s="1"/>
       <c r="E130" s="9"/>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:7">
       <c r="A131" t="n">
         <v>130</v>
       </c>
@@ -3565,7 +3599,7 @@
       <c r="B132" s="1"/>
       <c r="E132" s="9"/>
     </row>
-    <row r="133" spans="1:8">
+    <row r="133" spans="1:7">
       <c r="A133" t="n">
         <v>132</v>
       </c>
@@ -3582,7 +3616,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="134" spans="1:9">
+    <row r="134" spans="1:8">
       <c r="A134" t="n">
         <v>133</v>
       </c>
@@ -3611,7 +3645,7 @@
       <c r="B136" s="6"/>
       <c r="E136" s="10"/>
     </row>
-    <row r="137" spans="1:8">
+    <row r="137" spans="1:7">
       <c r="A137" t="n">
         <v>136</v>
       </c>
@@ -3628,7 +3662,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="138" spans="1:8">
+    <row r="138" spans="1:7">
       <c r="A138" t="n">
         <v>137</v>
       </c>
@@ -3649,7 +3683,7 @@
       <c r="B139" s="1"/>
       <c r="E139" s="9"/>
     </row>
-    <row r="140" spans="1:8">
+    <row r="140" spans="1:7">
       <c r="A140" t="n">
         <v>139</v>
       </c>
@@ -3666,7 +3700,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="141" spans="1:8">
+    <row r="141" spans="1:7">
       <c r="A141" t="n">
         <v>140</v>
       </c>
@@ -3687,7 +3721,7 @@
       <c r="B142" s="1"/>
       <c r="E142" s="9"/>
     </row>
-    <row r="143" spans="1:8">
+    <row r="143" spans="1:7">
       <c r="A143" t="n">
         <v>142</v>
       </c>
@@ -3704,7 +3738,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="144" spans="1:8">
+    <row r="144" spans="1:7">
       <c r="A144" t="n">
         <v>143</v>
       </c>
@@ -3725,7 +3759,7 @@
       <c r="B145" s="1"/>
       <c r="E145" s="9"/>
     </row>
-    <row r="146" spans="1:8">
+    <row r="146" spans="1:7">
       <c r="A146" t="n">
         <v>145</v>
       </c>
@@ -3751,7 +3785,7 @@
       <c r="D147" s="1"/>
       <c r="E147" s="9"/>
     </row>
-    <row r="148" spans="1:8">
+    <row r="148" spans="1:7">
       <c r="A148" t="n">
         <v>147</v>
       </c>
@@ -3768,7 +3802,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="149" spans="1:9">
+    <row r="149" spans="1:8">
       <c r="A149" t="n">
         <v>148</v>
       </c>
@@ -3788,7 +3822,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="150" spans="1:9">
+    <row r="150" spans="1:8">
       <c r="A150" t="n">
         <v>149</v>
       </c>
@@ -3805,7 +3839,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="151" spans="1:8">
+    <row r="151" spans="1:7">
       <c r="A151" t="n">
         <v>150</v>
       </c>
@@ -3825,7 +3859,7 @@
       </c>
       <c r="B152" s="4"/>
     </row>
-    <row r="153" spans="1:8">
+    <row r="153" spans="1:7">
       <c r="A153" t="n">
         <v>152</v>
       </c>
@@ -3845,7 +3879,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="154" spans="1:8">
+    <row r="154" spans="1:7">
       <c r="A154" t="n">
         <v>153</v>
       </c>
@@ -3859,7 +3893,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="155" spans="1:8">
+    <row r="155" spans="1:7">
       <c r="A155" t="n">
         <v>154</v>
       </c>
@@ -3876,7 +3910,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="156" spans="1:8">
+    <row r="156" spans="1:7">
       <c r="A156" t="n">
         <v>155</v>
       </c>
@@ -3899,7 +3933,7 @@
       <c r="D157" s="1"/>
       <c r="E157" s="9"/>
     </row>
-    <row r="158" spans="1:8">
+    <row r="158" spans="1:7">
       <c r="A158" t="n">
         <v>157</v>
       </c>
@@ -3928,7 +3962,7 @@
       <c r="D159" s="1"/>
       <c r="E159" s="9"/>
     </row>
-    <row r="160" spans="1:8">
+    <row r="160" spans="1:7">
       <c r="A160" t="n">
         <v>159</v>
       </c>
@@ -3956,7 +3990,7 @@
       <c r="D161" s="1"/>
       <c r="E161" s="9"/>
     </row>
-    <row r="162" spans="1:8">
+    <row r="162" spans="1:7">
       <c r="A162" t="n">
         <v>161</v>
       </c>
@@ -3973,7 +4007,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="163" spans="1:9">
+    <row r="163" spans="1:8">
       <c r="A163" t="n">
         <v>162</v>
       </c>
@@ -3999,7 +4033,7 @@
       </c>
       <c r="B164" s="4"/>
     </row>
-    <row r="165" spans="1:8">
+    <row r="165" spans="1:7">
       <c r="A165" t="n">
         <v>164</v>
       </c>
@@ -4016,7 +4050,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="166" spans="1:8">
+    <row r="166" spans="1:7">
       <c r="A166" t="n">
         <v>165</v>
       </c>
@@ -4036,7 +4070,7 @@
       </c>
       <c r="B167" s="4"/>
     </row>
-    <row r="168" spans="1:9">
+    <row r="168" spans="1:8">
       <c r="A168" t="n">
         <v>167</v>
       </c>
@@ -4059,7 +4093,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="169" spans="1:9">
+    <row r="169" spans="1:8">
       <c r="A169" t="n">
         <v>168</v>
       </c>
@@ -4076,7 +4110,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="170" spans="1:9">
+    <row r="170" spans="1:8">
       <c r="A170" t="n">
         <v>169</v>
       </c>
@@ -4093,7 +4127,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="171" spans="1:9">
+    <row r="171" spans="1:8">
       <c r="A171" t="n">
         <v>170</v>
       </c>
@@ -4119,7 +4153,7 @@
       <c r="D172" s="1"/>
       <c r="E172" s="9"/>
     </row>
-    <row r="173" spans="1:9">
+    <row r="173" spans="1:8">
       <c r="A173" t="n">
         <v>172</v>
       </c>
@@ -4139,7 +4173,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="174" spans="1:9">
+    <row r="174" spans="1:8">
       <c r="A174" t="n">
         <v>173</v>
       </c>
@@ -4156,7 +4190,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="175" spans="1:9">
+    <row r="175" spans="1:8">
       <c r="A175" t="n">
         <v>174</v>
       </c>
@@ -4173,7 +4207,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="176" spans="1:9">
+    <row r="176" spans="1:8">
       <c r="A176" t="n">
         <v>175</v>
       </c>
@@ -4190,7 +4224,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="177" spans="1:9">
+    <row r="177" spans="1:8">
       <c r="A177" t="n">
         <v>176</v>
       </c>
@@ -4216,7 +4250,7 @@
       <c r="D178" s="1"/>
       <c r="E178" s="9"/>
     </row>
-    <row r="179" spans="1:9">
+    <row r="179" spans="1:8">
       <c r="A179" t="n">
         <v>178</v>
       </c>
@@ -4238,7 +4272,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="180" spans="1:9">
+    <row r="180" spans="1:8">
       <c r="A180" t="n">
         <v>179</v>
       </c>
@@ -4255,7 +4289,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="181" spans="1:9">
+    <row r="181" spans="1:8">
       <c r="A181" t="n">
         <v>180</v>
       </c>
@@ -4281,7 +4315,7 @@
       <c r="D182" s="1"/>
       <c r="E182" s="9"/>
     </row>
-    <row r="183" spans="1:9">
+    <row r="183" spans="1:8">
       <c r="A183" t="n">
         <v>182</v>
       </c>
@@ -4303,7 +4337,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="184" spans="1:9">
+    <row r="184" spans="1:8">
       <c r="A184" t="n">
         <v>183</v>
       </c>
@@ -4337,7 +4371,7 @@
         <v>43760</v>
       </c>
     </row>
-    <row r="187" spans="1:8">
+    <row r="187" spans="1:7">
       <c r="A187" t="n">
         <v>186</v>
       </c>
@@ -4361,7 +4395,7 @@
       <c r="B188" s="1"/>
       <c r="E188" s="9"/>
     </row>
-    <row r="189" spans="1:8">
+    <row r="189" spans="1:7">
       <c r="A189" t="n">
         <v>188</v>
       </c>
@@ -4378,7 +4412,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="190" spans="1:8">
+    <row r="190" spans="1:7">
       <c r="A190" t="n">
         <v>189</v>
       </c>
@@ -4399,7 +4433,7 @@
       <c r="B191" s="1"/>
       <c r="E191" s="9"/>
     </row>
-    <row r="192" spans="1:8">
+    <row r="192" spans="1:7">
       <c r="A192" t="n">
         <v>191</v>
       </c>
@@ -4416,7 +4450,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="193" spans="1:8">
+    <row r="193" spans="1:7">
       <c r="A193" t="n">
         <v>192</v>
       </c>
@@ -4444,7 +4478,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="196" spans="1:8">
+    <row r="196" spans="1:7">
       <c r="A196" t="n">
         <v>195</v>
       </c>
@@ -4469,7 +4503,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="198" spans="1:9">
+    <row r="198" spans="1:8">
       <c r="A198" t="n">
         <v>197</v>
       </c>
@@ -4512,7 +4546,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="203" spans="1:9">
+    <row r="203" spans="1:8">
       <c r="A203" t="n">
         <v>202</v>
       </c>
@@ -4543,7 +4577,7 @@
       <c r="D204" s="1"/>
       <c r="E204" s="9"/>
     </row>
-    <row r="205" spans="1:9">
+    <row r="205" spans="1:8">
       <c r="A205" t="n">
         <v>204</v>
       </c>
@@ -4574,7 +4608,7 @@
       <c r="D206" s="1"/>
       <c r="E206" s="9"/>
     </row>
-    <row r="207" spans="1:9">
+    <row r="207" spans="1:8">
       <c r="A207" t="n">
         <v>206</v>
       </c>
@@ -4605,7 +4639,7 @@
       <c r="D208" s="1"/>
       <c r="E208" s="9"/>
     </row>
-    <row r="209" spans="1:9">
+    <row r="209" spans="1:8">
       <c r="A209" t="n">
         <v>208</v>
       </c>
@@ -4636,7 +4670,7 @@
       <c r="D210" s="1"/>
       <c r="E210" s="9"/>
     </row>
-    <row r="211" spans="1:8">
+    <row r="211" spans="1:7">
       <c r="A211" t="n">
         <v>210</v>
       </c>
@@ -4656,7 +4690,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="212" spans="1:8">
+    <row r="212" spans="1:7">
       <c r="A212" t="n">
         <v>211</v>
       </c>
@@ -4682,7 +4716,7 @@
       <c r="D213" s="1"/>
       <c r="E213" s="9"/>
     </row>
-    <row r="214" spans="1:8">
+    <row r="214" spans="1:7">
       <c r="A214" t="n">
         <v>213</v>
       </c>
@@ -4702,7 +4736,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="215" spans="1:8">
+    <row r="215" spans="1:7">
       <c r="A215" t="n">
         <v>214</v>
       </c>
@@ -4723,7 +4757,7 @@
       <c r="B216" s="1"/>
       <c r="E216" s="9"/>
     </row>
-    <row r="217" spans="1:8">
+    <row r="217" spans="1:7">
       <c r="A217" t="n">
         <v>216</v>
       </c>
@@ -4747,7 +4781,7 @@
       <c r="B218" s="1"/>
       <c r="E218" s="9"/>
     </row>
-    <row r="219" spans="1:8">
+    <row r="219" spans="1:7">
       <c r="A219" t="n">
         <v>218</v>
       </c>
@@ -4771,7 +4805,7 @@
       <c r="B220" s="1"/>
       <c r="E220" s="9"/>
     </row>
-    <row r="221" spans="1:8">
+    <row r="221" spans="1:7">
       <c r="A221" t="n">
         <v>220</v>
       </c>
@@ -4788,7 +4822,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="222" spans="1:8">
+    <row r="222" spans="1:7">
       <c r="A222" t="n">
         <v>221</v>
       </c>
@@ -4802,7 +4836,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="223" spans="1:8">
+    <row r="223" spans="1:7">
       <c r="A223" t="n">
         <v>222</v>
       </c>
@@ -4816,7 +4850,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="224" spans="1:8">
+    <row r="224" spans="1:7">
       <c r="A224" t="n">
         <v>223</v>
       </c>
@@ -4837,7 +4871,7 @@
       <c r="B225" s="1"/>
       <c r="E225" s="9"/>
     </row>
-    <row r="226" spans="1:8">
+    <row r="226" spans="1:7">
       <c r="A226" t="n">
         <v>225</v>
       </c>
@@ -4854,7 +4888,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="227" spans="1:8">
+    <row r="227" spans="1:7">
       <c r="A227" t="n">
         <v>226</v>
       </c>
@@ -4875,7 +4909,7 @@
       <c r="B228" s="1"/>
       <c r="E228" s="9"/>
     </row>
-    <row r="229" spans="1:8">
+    <row r="229" spans="1:7">
       <c r="A229" t="n">
         <v>228</v>
       </c>
@@ -4892,7 +4926,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="230" spans="1:8">
+    <row r="230" spans="1:7">
       <c r="A230" t="n">
         <v>229</v>
       </c>
@@ -4906,7 +4940,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="231" spans="1:8">
+    <row r="231" spans="1:7">
       <c r="A231" t="n">
         <v>230</v>
       </c>
@@ -4927,7 +4961,7 @@
       <c r="B232" s="1"/>
       <c r="E232" s="9"/>
     </row>
-    <row r="233" spans="1:9">
+    <row r="233" spans="1:8">
       <c r="A233" t="n">
         <v>232</v>
       </c>
@@ -4947,7 +4981,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="234" spans="1:9">
+    <row r="234" spans="1:8">
       <c r="A234" t="n">
         <v>233</v>
       </c>
@@ -4964,7 +4998,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="235" spans="1:9">
+    <row r="235" spans="1:8">
       <c r="A235" t="n">
         <v>234</v>
       </c>
@@ -4988,7 +5022,7 @@
       <c r="B236" s="1"/>
       <c r="E236" s="9"/>
     </row>
-    <row r="237" spans="1:8">
+    <row r="237" spans="1:7">
       <c r="A237" t="n">
         <v>236</v>
       </c>
@@ -5005,7 +5039,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="238" spans="1:8">
+    <row r="238" spans="1:7">
       <c r="A238" t="n">
         <v>237</v>
       </c>
@@ -5019,7 +5053,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="239" spans="1:8">
+    <row r="239" spans="1:7">
       <c r="A239" t="n">
         <v>238</v>
       </c>
@@ -5036,7 +5070,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="240" spans="1:8">
+    <row r="240" spans="1:7">
       <c r="A240" t="n">
         <v>239</v>
       </c>
@@ -5053,7 +5087,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="241" spans="1:8">
+    <row r="241" spans="1:7">
       <c r="A241" t="n">
         <v>240</v>
       </c>
@@ -5076,7 +5110,7 @@
       <c r="D242" s="1"/>
       <c r="E242" s="9"/>
     </row>
-    <row r="243" spans="1:8">
+    <row r="243" spans="1:7">
       <c r="A243" t="n">
         <v>242</v>
       </c>
@@ -5096,7 +5130,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="244" spans="1:8">
+    <row r="244" spans="1:7">
       <c r="A244" t="n">
         <v>243</v>
       </c>
@@ -5122,7 +5156,7 @@
       <c r="B246" s="6"/>
       <c r="E246" s="10"/>
     </row>
-    <row r="247" spans="1:8">
+    <row r="247" spans="1:7">
       <c r="A247" t="n">
         <v>246</v>
       </c>
@@ -5146,7 +5180,7 @@
       <c r="B248" s="1"/>
       <c r="E248" s="9"/>
     </row>
-    <row r="249" spans="1:8">
+    <row r="249" spans="1:7">
       <c r="A249" t="n">
         <v>248</v>
       </c>
@@ -5163,7 +5197,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="250" spans="1:8">
+    <row r="250" spans="1:7">
       <c r="A250" t="n">
         <v>249</v>
       </c>
@@ -5184,7 +5218,7 @@
       <c r="B251" s="1"/>
       <c r="E251" s="9"/>
     </row>
-    <row r="252" spans="1:8">
+    <row r="252" spans="1:7">
       <c r="A252" t="n">
         <v>251</v>
       </c>
@@ -5201,7 +5235,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="253" spans="1:8">
+    <row r="253" spans="1:7">
       <c r="A253" t="n">
         <v>252</v>
       </c>
@@ -5222,7 +5256,7 @@
       <c r="B254" s="1"/>
       <c r="E254" s="9"/>
     </row>
-    <row r="255" spans="1:8">
+    <row r="255" spans="1:7">
       <c r="A255" t="n">
         <v>254</v>
       </c>
@@ -5246,7 +5280,7 @@
       <c r="B256" s="1"/>
       <c r="E256" s="9"/>
     </row>
-    <row r="257" spans="1:8">
+    <row r="257" spans="1:7">
       <c r="A257" t="n">
         <v>256</v>
       </c>
@@ -5269,7 +5303,7 @@
       </c>
       <c r="B258" s="4"/>
     </row>
-    <row r="259" spans="1:8">
+    <row r="259" spans="1:7">
       <c r="A259" t="n">
         <v>258</v>
       </c>
@@ -5289,7 +5323,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="260" spans="1:8">
+    <row r="260" spans="1:7">
       <c r="A260" t="n">
         <v>259</v>
       </c>
@@ -5306,7 +5340,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="261" spans="1:8">
+    <row r="261" spans="1:7">
       <c r="A261" t="n">
         <v>260</v>
       </c>
@@ -5325,12 +5359,12 @@
         <v>261</v>
       </c>
     </row>
-    <row r="263" spans="1:8">
+    <row r="263" spans="1:7">
       <c r="A263" t="n">
         <v>262</v>
       </c>
       <c r="B263" s="3" t="n">
-        <v>11.4200000000000017</v>
+        <v>11.4199999999999999</v>
       </c>
       <c r="E263" s="8" t="s">
         <v>228</v>
@@ -5342,7 +5376,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="264" spans="1:8">
+    <row r="264" spans="1:7">
       <c r="A264" t="n">
         <v>263</v>
       </c>
@@ -5361,7 +5395,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="266" spans="1:8">
+    <row r="266" spans="1:7">
       <c r="A266" t="n">
         <v>265</v>
       </c>
@@ -5378,7 +5412,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="267" spans="1:8">
+    <row r="267" spans="1:7">
       <c r="A267" t="n">
         <v>266</v>
       </c>
@@ -5392,7 +5426,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="268" spans="1:8">
+    <row r="268" spans="1:7">
       <c r="A268" t="n">
         <v>267</v>
       </c>
@@ -5411,7 +5445,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="270" spans="1:8">
+    <row r="270" spans="1:7">
       <c r="A270" t="n">
         <v>269</v>
       </c>
@@ -5433,7 +5467,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="272" spans="1:8">
+    <row r="272" spans="1:7">
       <c r="A272" t="n">
         <v>271</v>
       </c>
@@ -5455,7 +5489,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="274" spans="1:8">
+    <row r="274" spans="1:7">
       <c r="A274" t="n">
         <v>273</v>
       </c>
@@ -5472,7 +5506,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="275" spans="1:8">
+    <row r="275" spans="1:7">
       <c r="A275" t="n">
         <v>274</v>
       </c>
@@ -5491,7 +5525,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="277" spans="1:8">
+    <row r="277" spans="1:7">
       <c r="A277" t="n">
         <v>276</v>
       </c>
@@ -5508,7 +5542,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="278" spans="1:8">
+    <row r="278" spans="1:7">
       <c r="A278" t="n">
         <v>277</v>
       </c>
@@ -5522,7 +5556,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="279" spans="1:8">
+    <row r="279" spans="1:7">
       <c r="A279" t="n">
         <v>278</v>
       </c>
@@ -5541,7 +5575,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="281" spans="1:8">
+    <row r="281" spans="1:7">
       <c r="A281" t="n">
         <v>280</v>
       </c>
@@ -5558,7 +5592,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="282" spans="1:8">
+    <row r="282" spans="1:7">
       <c r="A282" t="n">
         <v>281</v>
       </c>
@@ -5579,7 +5613,7 @@
       <c r="B283" s="1"/>
       <c r="E283" s="9"/>
     </row>
-    <row r="284" spans="1:8">
+    <row r="284" spans="1:7">
       <c r="A284" t="n">
         <v>283</v>
       </c>
@@ -5596,7 +5630,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="285" spans="1:8">
+    <row r="285" spans="1:7">
       <c r="A285" t="n">
         <v>284</v>
       </c>
@@ -5610,7 +5644,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="286" spans="1:8">
+    <row r="286" spans="1:7">
       <c r="A286" t="n">
         <v>285</v>
       </c>
@@ -5624,7 +5658,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="287" spans="1:8">
+    <row r="287" spans="1:7">
       <c r="A287" t="n">
         <v>286</v>
       </c>
@@ -5643,7 +5677,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="289" spans="1:8">
+    <row r="289" spans="1:7">
       <c r="A289" t="n">
         <v>288</v>
       </c>
@@ -5669,7 +5703,7 @@
       <c r="D290" s="1"/>
       <c r="E290" s="9"/>
     </row>
-    <row r="291" spans="1:8">
+    <row r="291" spans="1:7">
       <c r="A291" t="n">
         <v>290</v>
       </c>
@@ -5689,7 +5723,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="292" spans="1:8">
+    <row r="292" spans="1:7">
       <c r="A292" t="n">
         <v>291</v>
       </c>
@@ -5697,7 +5731,7 @@
       <c r="E292" s="9"/>
       <c r="G292" s="7"/>
     </row>
-    <row r="293" spans="1:8">
+    <row r="293" spans="1:7">
       <c r="A293" t="n">
         <v>292</v>
       </c>
@@ -5719,7 +5753,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="295" spans="1:8">
+    <row r="295" spans="1:7">
       <c r="A295" t="n">
         <v>294</v>
       </c>
@@ -5736,13 +5770,13 @@
         <v>89</v>
       </c>
     </row>
-    <row r="296" spans="1:8">
+    <row r="296" spans="1:7">
       <c r="A296" t="n">
         <v>295</v>
       </c>
       <c r="G296" s="7"/>
     </row>
-    <row r="297" spans="1:8">
+    <row r="297" spans="1:7">
       <c r="A297" t="n">
         <v>296</v>
       </c>
@@ -5759,7 +5793,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="298" spans="1:8">
+    <row r="298" spans="1:7">
       <c r="A298" t="n">
         <v>297</v>
       </c>
@@ -5780,7 +5814,7 @@
       </c>
       <c r="E299"/>
     </row>
-    <row r="300" spans="1:8">
+    <row r="300" spans="1:7">
       <c r="A300" t="n">
         <v>299</v>
       </c>
@@ -5802,7 +5836,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="302" spans="1:10">
+    <row r="302" spans="1:9">
       <c r="A302" t="n">
         <v>301</v>
       </c>
@@ -5827,7 +5861,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="304" spans="1:8">
+    <row r="304" spans="1:7">
       <c r="A304" t="n">
         <v>303</v>
       </c>
@@ -5849,7 +5883,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="306" spans="1:10">
+    <row r="306" spans="1:9">
       <c r="A306" t="n">
         <v>305</v>
       </c>
@@ -5869,7 +5903,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="307" spans="1:8">
+    <row r="307" spans="1:7">
       <c r="A307" t="n">
         <v>306</v>
       </c>
@@ -5888,7 +5922,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="309" spans="1:9">
+    <row r="309" spans="1:8">
       <c r="A309" t="n">
         <v>308</v>
       </c>
@@ -5908,7 +5942,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="310" spans="1:8">
+    <row r="310" spans="1:7">
       <c r="A310" t="n">
         <v>309</v>
       </c>
@@ -5927,7 +5961,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="312" spans="1:8">
+    <row r="312" spans="1:7">
       <c r="A312" t="n">
         <v>311</v>
       </c>
@@ -5950,7 +5984,7 @@
       </c>
       <c r="B313" s="4"/>
     </row>
-    <row r="314" spans="1:8">
+    <row r="314" spans="1:7">
       <c r="A314" t="n">
         <v>313</v>
       </c>
@@ -5970,7 +6004,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="315" spans="1:8">
+    <row r="315" spans="1:7">
       <c r="A315" t="n">
         <v>314</v>
       </c>
@@ -5992,7 +6026,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="317" spans="1:8">
+    <row r="317" spans="1:7">
       <c r="A317" t="n">
         <v>316</v>
       </c>
@@ -6009,7 +6043,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="318" spans="1:8">
+    <row r="318" spans="1:7">
       <c r="A318" t="n">
         <v>317</v>
       </c>
@@ -6029,7 +6063,7 @@
       </c>
       <c r="B319" s="4"/>
     </row>
-    <row r="320" spans="1:8">
+    <row r="320" spans="1:7">
       <c r="A320" t="n">
         <v>319</v>
       </c>
@@ -6049,7 +6083,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="321" spans="1:8">
+    <row r="321" spans="1:7">
       <c r="A321" t="n">
         <v>320</v>
       </c>
@@ -6066,7 +6100,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="322" spans="1:8">
+    <row r="322" spans="1:7">
       <c r="A322" t="n">
         <v>321</v>
       </c>
@@ -6085,7 +6119,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="324" spans="1:8">
+    <row r="324" spans="1:7">
       <c r="A324" t="n">
         <v>323</v>
       </c>
@@ -6107,7 +6141,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="326" spans="1:8">
+    <row r="326" spans="1:7">
       <c r="A326" t="n">
         <v>325</v>
       </c>
@@ -6124,7 +6158,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="327" spans="1:8">
+    <row r="327" spans="1:7">
       <c r="A327" t="n">
         <v>326</v>
       </c>
@@ -6212,7 +6246,7 @@
       </c>
       <c r="B335" s="4"/>
     </row>
-    <row r="336" spans="1:8">
+    <row r="336" spans="1:7">
       <c r="A336" t="n">
         <v>335</v>
       </c>
@@ -6238,7 +6272,7 @@
       </c>
       <c r="B337" s="4"/>
     </row>
-    <row r="338" spans="1:9">
+    <row r="338" spans="1:8">
       <c r="A338" t="n">
         <v>337</v>
       </c>
@@ -6261,7 +6295,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="339" spans="1:9">
+    <row r="339" spans="1:8">
       <c r="A339" t="n">
         <v>338</v>
       </c>
@@ -6281,7 +6315,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="340" spans="1:9">
+    <row r="340" spans="1:8">
       <c r="A340" t="n">
         <v>339</v>
       </c>
@@ -6304,7 +6338,7 @@
       </c>
       <c r="B341" s="4"/>
     </row>
-    <row r="342" spans="1:9">
+    <row r="342" spans="1:8">
       <c r="A342" t="n">
         <v>341</v>
       </c>
@@ -6326,7 +6360,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="343" spans="1:9">
+    <row r="343" spans="1:8">
       <c r="A343" t="n">
         <v>342</v>
       </c>
@@ -6349,7 +6383,7 @@
       </c>
       <c r="B344" s="4"/>
     </row>
-    <row r="345" spans="1:9">
+    <row r="345" spans="1:8">
       <c r="A345" t="n">
         <v>344</v>
       </c>
@@ -6377,7 +6411,7 @@
       </c>
       <c r="B346" s="4"/>
     </row>
-    <row r="347" spans="1:9">
+    <row r="347" spans="1:8">
       <c r="A347" t="n">
         <v>346</v>
       </c>
@@ -6399,7 +6433,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="348" spans="1:9">
+    <row r="348" spans="1:8">
       <c r="A348" t="n">
         <v>347</v>
       </c>
@@ -6422,7 +6456,7 @@
       </c>
       <c r="B349" s="4"/>
     </row>
-    <row r="350" spans="1:9">
+    <row r="350" spans="1:8">
       <c r="A350" t="n">
         <v>349</v>
       </c>
@@ -6450,7 +6484,7 @@
       </c>
       <c r="B351" s="4"/>
     </row>
-    <row r="352" spans="1:8">
+    <row r="352" spans="1:7">
       <c r="A352" t="n">
         <v>351</v>
       </c>
@@ -6475,7 +6509,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="354" spans="1:8">
+    <row r="354" spans="1:7">
       <c r="A354" t="n">
         <v>353</v>
       </c>
@@ -6497,7 +6531,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="356" spans="1:8">
+    <row r="356" spans="1:7">
       <c r="A356" t="n">
         <v>355</v>
       </c>
@@ -6520,7 +6554,7 @@
       </c>
       <c r="B357" s="4"/>
     </row>
-    <row r="358" spans="1:8">
+    <row r="358" spans="1:7">
       <c r="A358" t="n">
         <v>357</v>
       </c>
@@ -6540,7 +6574,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="359" spans="1:8">
+    <row r="359" spans="1:7">
       <c r="A359" t="n">
         <v>358</v>
       </c>
@@ -6562,7 +6596,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="361" spans="1:8">
+    <row r="361" spans="1:7">
       <c r="A361" t="n">
         <v>360</v>
       </c>
@@ -6584,7 +6618,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="363" spans="1:8">
+    <row r="363" spans="1:7">
       <c r="A363" t="n">
         <v>362</v>
       </c>
@@ -6606,7 +6640,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="365" spans="1:8">
+    <row r="365" spans="1:7">
       <c r="A365" t="n">
         <v>364</v>
       </c>
@@ -6623,7 +6657,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="366" spans="1:8">
+    <row r="366" spans="1:7">
       <c r="A366" t="n">
         <v>365</v>
       </c>
@@ -6642,7 +6676,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="368" spans="1:8">
+    <row r="368" spans="1:7">
       <c r="A368" t="n">
         <v>367</v>
       </c>
@@ -6664,7 +6698,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="370" spans="1:8">
+    <row r="370" spans="1:7">
       <c r="A370" t="n">
         <v>369</v>
       </c>
@@ -6686,7 +6720,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="372" spans="1:8">
+    <row r="372" spans="1:7">
       <c r="A372" t="n">
         <v>371</v>
       </c>
@@ -6708,7 +6742,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="374" spans="1:8">
+    <row r="374" spans="1:7">
       <c r="A374" t="n">
         <v>373</v>
       </c>
@@ -6725,7 +6759,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="375" spans="1:8">
+    <row r="375" spans="1:7">
       <c r="A375" t="n">
         <v>374</v>
       </c>
@@ -6739,7 +6773,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="376" spans="1:8">
+    <row r="376" spans="1:7">
       <c r="A376" t="n">
         <v>375</v>
       </c>
@@ -6753,7 +6787,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="377" spans="1:8">
+    <row r="377" spans="1:7">
       <c r="A377" t="n">
         <v>376</v>
       </c>
@@ -6772,7 +6806,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="379" spans="1:9">
+    <row r="379" spans="1:8">
       <c r="A379" t="n">
         <v>378</v>
       </c>
@@ -6792,7 +6826,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="380" spans="1:9">
+    <row r="380" spans="1:8">
       <c r="A380" t="n">
         <v>379</v>
       </c>
@@ -6814,7 +6848,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="382" spans="1:9">
+    <row r="382" spans="1:8">
       <c r="A382" t="n">
         <v>381</v>
       </c>
@@ -6834,7 +6868,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="383" spans="1:9">
+    <row r="383" spans="1:8">
       <c r="A383" t="n">
         <v>382</v>
       </c>
@@ -6848,7 +6882,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="384" spans="1:9">
+    <row r="384" spans="1:8">
       <c r="A384" t="n">
         <v>383</v>
       </c>
@@ -6868,7 +6902,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="385" spans="1:9">
+    <row r="385" spans="1:8">
       <c r="A385" t="n">
         <v>384</v>
       </c>
@@ -6890,7 +6924,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="387" spans="1:9">
+    <row r="387" spans="1:8">
       <c r="A387" t="n">
         <v>386</v>
       </c>
@@ -6915,7 +6949,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="389" spans="1:9">
+    <row r="389" spans="1:8">
       <c r="A389" t="n">
         <v>388</v>
       </c>
@@ -6940,7 +6974,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="391" spans="1:8">
+    <row r="391" spans="1:7">
       <c r="A391" t="n">
         <v>390</v>
       </c>
@@ -6957,7 +6991,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="392" spans="1:8">
+    <row r="392" spans="1:7">
       <c r="A392" t="n">
         <v>391</v>
       </c>
@@ -6976,7 +7010,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="394" spans="1:8">
+    <row r="394" spans="1:7">
       <c r="A394" t="n">
         <v>393</v>
       </c>
@@ -6993,7 +7027,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="395" spans="1:8">
+    <row r="395" spans="1:7">
       <c r="A395" t="n">
         <v>394</v>
       </c>
@@ -7007,7 +7041,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="396" spans="1:8">
+    <row r="396" spans="1:7">
       <c r="A396" t="n">
         <v>395</v>
       </c>
@@ -7027,7 +7061,7 @@
       </c>
       <c r="B397" s="4"/>
     </row>
-    <row r="398" spans="1:9">
+    <row r="398" spans="1:8">
       <c r="A398" t="n">
         <v>397</v>
       </c>
@@ -7056,7 +7090,7 @@
       </c>
       <c r="B399" s="4"/>
     </row>
-    <row r="400" spans="1:9">
+    <row r="400" spans="1:8">
       <c r="A400" t="n">
         <v>399</v>
       </c>
@@ -7078,7 +7112,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="401" spans="1:9">
+    <row r="401" spans="1:8">
       <c r="A401" t="n">
         <v>400</v>
       </c>
@@ -7095,7 +7129,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="402" spans="1:9">
+    <row r="402" spans="1:8">
       <c r="A402" t="n">
         <v>401</v>
       </c>
@@ -7118,7 +7152,7 @@
       </c>
       <c r="B403" s="4"/>
     </row>
-    <row r="404" spans="1:9">
+    <row r="404" spans="1:8">
       <c r="A404" t="n">
         <v>403</v>
       </c>
@@ -7140,7 +7174,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="405" spans="1:9">
+    <row r="405" spans="1:8">
       <c r="A405" t="n">
         <v>404</v>
       </c>
@@ -7163,7 +7197,7 @@
       </c>
       <c r="B406" s="4"/>
     </row>
-    <row r="407" spans="1:9">
+    <row r="407" spans="1:8">
       <c r="A407" t="n">
         <v>406</v>
       </c>
@@ -7199,7 +7233,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="410" spans="1:9">
+    <row r="410" spans="1:8">
       <c r="A410" t="n">
         <v>409</v>
       </c>
@@ -7235,7 +7269,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="413" spans="1:9">
+    <row r="413" spans="1:8">
       <c r="A413" t="n">
         <v>412</v>
       </c>
@@ -7263,7 +7297,7 @@
       </c>
       <c r="B414" s="4"/>
     </row>
-    <row r="415" spans="1:8">
+    <row r="415" spans="1:7">
       <c r="A415" t="n">
         <v>414</v>
       </c>
@@ -7288,12 +7322,12 @@
       </c>
       <c r="B416" s="4"/>
     </row>
-    <row r="417" spans="1:8">
+    <row r="417" spans="1:7">
       <c r="A417" t="n">
         <v>416</v>
       </c>
       <c r="B417" s="3" t="n">
-        <v>114.110000000000014</v>
+        <v>114.109999999999999</v>
       </c>
       <c r="C417" t="s">
         <v>23</v>
@@ -7317,7 +7351,7 @@
       <c r="D418" s="1"/>
       <c r="E418" s="9"/>
     </row>
-    <row r="419" spans="1:8">
+    <row r="419" spans="1:7">
       <c r="A419" t="n">
         <v>418</v>
       </c>
@@ -7337,7 +7371,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="420" spans="1:8">
+    <row r="420" spans="1:7">
       <c r="A420" t="n">
         <v>419</v>
       </c>
@@ -7357,7 +7391,7 @@
       </c>
       <c r="B421" s="4"/>
     </row>
-    <row r="422" spans="1:8">
+    <row r="422" spans="1:7">
       <c r="A422" t="n">
         <v>421</v>
       </c>
@@ -7382,7 +7416,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="424" spans="1:8">
+    <row r="424" spans="1:7">
       <c r="A424" t="n">
         <v>423</v>
       </c>
@@ -7404,7 +7438,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="426" spans="1:8">
+    <row r="426" spans="1:7">
       <c r="A426" t="n">
         <v>425</v>
       </c>
@@ -7427,7 +7461,7 @@
       </c>
       <c r="B427" s="4"/>
     </row>
-    <row r="428" spans="1:8">
+    <row r="428" spans="1:7">
       <c r="A428" t="n">
         <v>427</v>
       </c>
@@ -7453,7 +7487,7 @@
       </c>
       <c r="B429" s="4"/>
     </row>
-    <row r="430" spans="1:8">
+    <row r="430" spans="1:7">
       <c r="A430" t="n">
         <v>429</v>
       </c>
@@ -7478,7 +7512,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="432" spans="1:8">
+    <row r="432" spans="1:7">
       <c r="A432" t="n">
         <v>431</v>
       </c>
@@ -7495,7 +7529,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="433" spans="1:8">
+    <row r="433" spans="1:7">
       <c r="A433" t="n">
         <v>432</v>
       </c>
@@ -7516,7 +7550,7 @@
       <c r="B434" s="1"/>
       <c r="E434" s="9"/>
     </row>
-    <row r="435" spans="1:8">
+    <row r="435" spans="1:7">
       <c r="A435" t="n">
         <v>434</v>
       </c>
@@ -7538,7 +7572,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="437" spans="1:8">
+    <row r="437" spans="1:7">
       <c r="A437" t="n">
         <v>436</v>
       </c>
@@ -7560,7 +7594,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="439" spans="1:8">
+    <row r="439" spans="1:7">
       <c r="A439" t="n">
         <v>438</v>
       </c>
@@ -7582,7 +7616,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="441" spans="1:8">
+    <row r="441" spans="1:7">
       <c r="A441" t="n">
         <v>440</v>
       </c>
@@ -7599,7 +7633,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="442" spans="1:8">
+    <row r="442" spans="1:7">
       <c r="A442" t="n">
         <v>441</v>
       </c>
@@ -7618,7 +7652,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="444" spans="1:8">
+    <row r="444" spans="1:7">
       <c r="A444" t="n">
         <v>443</v>
       </c>
@@ -7643,7 +7677,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="446" spans="1:8">
+    <row r="446" spans="1:7">
       <c r="A446" t="n">
         <v>445</v>
       </c>
@@ -7668,7 +7702,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="448" spans="1:8">
+    <row r="448" spans="1:7">
       <c r="A448" t="n">
         <v>447</v>
       </c>
@@ -7690,7 +7724,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="450" spans="1:8">
+    <row r="450" spans="1:7">
       <c r="A450" t="n">
         <v>449</v>
       </c>
@@ -7707,7 +7741,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="451" spans="1:8">
+    <row r="451" spans="1:7">
       <c r="A451" t="n">
         <v>450</v>
       </c>
@@ -7721,7 +7755,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="452" spans="1:8">
+    <row r="452" spans="1:7">
       <c r="A452" t="n">
         <v>451</v>
       </c>
@@ -7740,7 +7774,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="454" spans="1:8">
+    <row r="454" spans="1:7">
       <c r="A454" t="n">
         <v>453</v>
       </c>
@@ -7762,7 +7796,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="456" spans="1:8">
+    <row r="456" spans="1:7">
       <c r="A456" t="n">
         <v>455</v>
       </c>
@@ -7779,7 +7813,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="457" spans="1:8">
+    <row r="457" spans="1:7">
       <c r="A457" t="n">
         <v>456</v>
       </c>
@@ -7793,7 +7827,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="458" spans="1:8">
+    <row r="458" spans="1:7">
       <c r="A458" t="n">
         <v>457</v>
       </c>
@@ -7812,7 +7846,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="460" spans="1:8">
+    <row r="460" spans="1:7">
       <c r="A460" t="n">
         <v>459</v>
       </c>
@@ -7834,7 +7868,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="462" spans="1:8">
+    <row r="462" spans="1:7">
       <c r="A462" t="n">
         <v>461</v>
       </c>
@@ -7875,7 +7909,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="466" spans="1:8">
+    <row r="466" spans="1:7">
       <c r="A466" t="n">
         <v>465</v>
       </c>
@@ -7911,7 +7945,7 @@
         <v>43994</v>
       </c>
     </row>
-    <row r="469" spans="1:8">
+    <row r="469" spans="1:7">
       <c r="A469" t="n">
         <v>468</v>
       </c>
@@ -7968,7 +8002,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="475" spans="1:8">
+    <row r="475" spans="1:7">
       <c r="A475" t="n">
         <v>474</v>
       </c>
@@ -7990,7 +8024,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="477" spans="1:8">
+    <row r="477" spans="1:7">
       <c r="A477" t="n">
         <v>476</v>
       </c>
@@ -8007,7 +8041,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="478" spans="1:8">
+    <row r="478" spans="1:7">
       <c r="A478" t="n">
         <v>477</v>
       </c>
@@ -8026,7 +8060,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="480" spans="1:8">
+    <row r="480" spans="1:7">
       <c r="A480" t="n">
         <v>479</v>
       </c>
@@ -8067,7 +8101,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="484" spans="1:8">
+    <row r="484" spans="1:7">
       <c r="A484" t="n">
         <v>483</v>
       </c>
@@ -8084,7 +8118,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="485" spans="1:8">
+    <row r="485" spans="1:7">
       <c r="A485" t="n">
         <v>484</v>
       </c>
@@ -8117,7 +8151,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="488" spans="1:8">
+    <row r="488" spans="1:7">
       <c r="A488" t="n">
         <v>487</v>
       </c>
@@ -8136,7 +8170,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="490" spans="1:8">
+    <row r="490" spans="1:7">
       <c r="A490" t="n">
         <v>489</v>
       </c>
@@ -8158,7 +8192,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="492" spans="1:8">
+    <row r="492" spans="1:7">
       <c r="A492" t="n">
         <v>491</v>
       </c>
@@ -8180,7 +8214,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="494" spans="1:8">
+    <row r="494" spans="1:7">
       <c r="A494" t="n">
         <v>493</v>
       </c>
@@ -8213,7 +8247,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="497" spans="1:8">
+    <row r="497" spans="1:7">
       <c r="A497" t="n">
         <v>496</v>
       </c>
@@ -8230,7 +8264,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="498" spans="1:8">
+    <row r="498" spans="1:7">
       <c r="A498" t="n">
         <v>497</v>
       </c>
@@ -8249,7 +8283,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="500" spans="1:8">
+    <row r="500" spans="1:7">
       <c r="A500" t="n">
         <v>499</v>
       </c>
@@ -8266,7 +8300,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="501" spans="1:8">
+    <row r="501" spans="1:7">
       <c r="A501" t="n">
         <v>500</v>
       </c>
@@ -8280,7 +8314,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="502" spans="1:8">
+    <row r="502" spans="1:7">
       <c r="A502" t="n">
         <v>501</v>
       </c>
@@ -8313,7 +8347,7 @@
         <v>44022</v>
       </c>
     </row>
-    <row r="505" spans="1:8">
+    <row r="505" spans="1:7">
       <c r="A505" t="n">
         <v>504</v>
       </c>
@@ -8327,7 +8361,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="506" spans="1:8">
+    <row r="506" spans="1:7">
       <c r="A506" t="n">
         <v>505</v>
       </c>
@@ -8341,7 +8375,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="507" spans="1:8">
+    <row r="507" spans="1:7">
       <c r="A507" t="n">
         <v>506</v>
       </c>
@@ -8355,7 +8389,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="508" spans="1:8">
+    <row r="508" spans="1:7">
       <c r="A508" t="n">
         <v>507</v>
       </c>
@@ -8374,7 +8408,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="510" spans="1:8">
+    <row r="510" spans="1:7">
       <c r="A510" t="n">
         <v>509</v>
       </c>
@@ -8396,7 +8430,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="512" spans="1:8">
+    <row r="512" spans="1:7">
       <c r="A512" t="n">
         <v>511</v>
       </c>
@@ -8418,7 +8452,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="514" spans="1:8">
+    <row r="514" spans="1:7">
       <c r="A514" t="n">
         <v>513</v>
       </c>
@@ -8435,7 +8469,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="515" spans="1:8">
+    <row r="515" spans="1:7">
       <c r="A515" t="n">
         <v>514</v>
       </c>
@@ -8449,7 +8483,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="516" spans="1:8">
+    <row r="516" spans="1:7">
       <c r="A516" t="n">
         <v>515</v>
       </c>
@@ -8468,7 +8502,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="518" spans="1:8">
+    <row r="518" spans="1:7">
       <c r="A518" t="n">
         <v>517</v>
       </c>
@@ -8482,7 +8516,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="519" spans="1:8">
+    <row r="519" spans="1:7">
       <c r="A519" t="n">
         <v>518</v>
       </c>
@@ -8501,7 +8535,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="521" spans="1:8">
+    <row r="521" spans="1:7">
       <c r="A521" t="n">
         <v>520</v>
       </c>
@@ -8529,7 +8563,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="523" spans="1:8">
+    <row r="523" spans="1:7">
       <c r="A523" t="n">
         <v>522</v>
       </c>
@@ -8548,7 +8582,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="525" spans="1:8">
+    <row r="525" spans="1:7">
       <c r="A525" t="n">
         <v>524</v>
       </c>
@@ -8581,7 +8615,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="528" spans="1:8">
+    <row r="528" spans="1:7">
       <c r="A528" t="n">
         <v>527</v>
       </c>
@@ -8622,7 +8656,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="532" spans="1:8">
+    <row r="532" spans="1:7">
       <c r="A532" t="n">
         <v>531</v>
       </c>
@@ -8644,7 +8678,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="534" spans="1:8">
+    <row r="534" spans="1:7">
       <c r="A534" t="n">
         <v>533</v>
       </c>
@@ -8666,7 +8700,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="536" spans="1:8">
+    <row r="536" spans="1:7">
       <c r="A536" t="n">
         <v>535</v>
       </c>
@@ -8683,7 +8717,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="537" spans="1:8">
+    <row r="537" spans="1:7">
       <c r="A537" t="n">
         <v>536</v>
       </c>
@@ -8697,7 +8731,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="538" spans="1:8">
+    <row r="538" spans="1:7">
       <c r="A538" t="n">
         <v>537</v>
       </c>
@@ -8711,7 +8745,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="539" spans="1:8">
+    <row r="539" spans="1:7">
       <c r="A539" t="n">
         <v>538</v>
       </c>
@@ -8725,7 +8759,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="540" spans="1:8">
+    <row r="540" spans="1:7">
       <c r="A540" t="n">
         <v>539</v>
       </c>
@@ -8739,7 +8773,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="541" spans="1:10">
+    <row r="541" spans="1:9">
       <c r="A541" t="n">
         <v>540</v>
       </c>
@@ -8761,7 +8795,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="543" spans="1:8">
+    <row r="543" spans="1:7">
       <c r="A543" t="n">
         <v>542</v>
       </c>
@@ -8778,7 +8812,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="544" spans="1:8">
+    <row r="544" spans="1:7">
       <c r="A544" t="n">
         <v>543</v>
       </c>
@@ -8792,7 +8826,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="545" spans="1:8">
+    <row r="545" spans="1:7">
       <c r="A545" t="n">
         <v>544</v>
       </c>
@@ -8811,7 +8845,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="547" spans="1:8">
+    <row r="547" spans="1:7">
       <c r="A547" t="n">
         <v>546</v>
       </c>
@@ -8828,7 +8862,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="548" spans="1:8">
+    <row r="548" spans="1:7">
       <c r="A548" t="n">
         <v>547</v>
       </c>
@@ -8843,7 +8877,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="549" spans="1:8">
+    <row r="549" spans="1:7">
       <c r="A549" t="n">
         <v>548</v>
       </c>
@@ -8856,7 +8890,7 @@
       <c r="F549" s="21"/>
       <c r="G549" s="15"/>
     </row>
-    <row r="550" spans="1:8">
+    <row r="550" spans="1:7">
       <c r="A550" t="n">
         <v>549</v>
       </c>
@@ -8865,7 +8899,7 @@
       <c r="F550" s="21"/>
       <c r="G550" s="15"/>
     </row>
-    <row r="551" spans="1:8">
+    <row r="551" spans="1:7">
       <c r="A551" t="n">
         <v>550</v>
       </c>
@@ -8882,7 +8916,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="552" spans="1:8">
+    <row r="552" spans="1:7">
       <c r="A552" t="n">
         <v>551</v>
       </c>
@@ -8891,7 +8925,7 @@
       <c r="F552" s="21"/>
       <c r="G552" s="15"/>
     </row>
-    <row r="553" spans="1:8">
+    <row r="553" spans="1:7">
       <c r="A553" t="n">
         <v>552</v>
       </c>
@@ -8908,7 +8942,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="554" spans="1:8">
+    <row r="554" spans="1:7">
       <c r="A554" t="n">
         <v>553</v>
       </c>
@@ -8917,7 +8951,7 @@
       <c r="F554" s="21"/>
       <c r="G554" s="15"/>
     </row>
-    <row r="555" spans="1:8">
+    <row r="555" spans="1:7">
       <c r="A555" t="n">
         <v>554</v>
       </c>
@@ -8934,14 +8968,14 @@
         <v>339</v>
       </c>
     </row>
-    <row r="556" spans="1:8">
+    <row r="556" spans="1:7">
       <c r="A556" t="n">
         <v>555</v>
       </c>
       <c r="E556"/>
       <c r="G556"/>
     </row>
-    <row r="557" spans="1:8">
+    <row r="557" spans="1:7">
       <c r="A557" t="n">
         <v>556</v>
       </c>
@@ -8958,14 +8992,14 @@
         <v>76</v>
       </c>
     </row>
-    <row r="558" spans="1:8">
+    <row r="558" spans="1:7">
       <c r="A558" t="n">
         <v>557</v>
       </c>
       <c r="E558"/>
       <c r="G558"/>
     </row>
-    <row r="559" spans="1:8">
+    <row r="559" spans="1:7">
       <c r="A559" t="n">
         <v>558</v>
       </c>
@@ -8982,14 +9016,14 @@
         <v>76</v>
       </c>
     </row>
-    <row r="560" spans="1:8">
+    <row r="560" spans="1:7">
       <c r="A560" t="n">
         <v>559</v>
       </c>
       <c r="E560"/>
       <c r="G560"/>
     </row>
-    <row r="561" spans="1:8">
+    <row r="561" spans="1:7">
       <c r="A561" t="n">
         <v>560</v>
       </c>
@@ -9006,7 +9040,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="562" spans="1:8">
+    <row r="562" spans="1:7">
       <c r="A562" t="n">
         <v>561</v>
       </c>
@@ -9025,7 +9059,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="564" spans="1:8">
+    <row r="564" spans="1:7">
       <c r="A564" t="n">
         <v>563</v>
       </c>
@@ -9042,7 +9076,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="565" spans="1:8">
+    <row r="565" spans="1:7">
       <c r="A565" t="n">
         <v>564</v>
       </c>
@@ -9141,7 +9175,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1666639697" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1667185289" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -9150,14 +9184,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1666639697" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1666639697" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1667185289" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1667185289" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1666639697" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1667185289" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -9179,7 +9213,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1666639697" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1667185289" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -9188,14 +9222,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1666639697" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1666639697" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1667185289" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1667185289" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1666639697" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1667185289" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -9217,7 +9251,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1666639697" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1667185289" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -9226,14 +9260,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1666639697" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1666639697" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1667185289" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1667185289" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1666639697" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1667185289" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/recount/example/example_expenses_en.xlsx
+++ b/recount/example/example_expenses_en.xlsx
@@ -1242,7 +1242,7 @@
       </extLst>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1270,19 +1270,8 @@
     <fill>
       <patternFill patternType="none"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1667185289" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
-          </ext>
-        </extLst>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left style="none">
         <color rgb="FF000000"/>
@@ -1449,25 +1438,6 @@
           <pm:border xmlns:pm="smNativeData" id="1667185289">
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1667185289"/>
         </ext>
       </extLst>
     </border>
@@ -2024,7 +1994,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>10.3399999999999999</v>
+        <v>10.3400000000000016</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>28</v>
@@ -3089,7 +3059,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="n">
-        <v>13.9199999999999999</v>
+        <v>13.9200000000000017</v>
       </c>
       <c r="E93" s="7" t="s">
         <v>106</v>
@@ -3352,7 +3322,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="3" t="n">
-        <v>10.3399999999999999</v>
+        <v>10.3400000000000016</v>
       </c>
       <c r="E114" s="8" t="s">
         <v>123</v>
@@ -5364,7 +5334,7 @@
         <v>262</v>
       </c>
       <c r="B263" s="3" t="n">
-        <v>11.4199999999999999</v>
+        <v>11.4200000000000017</v>
       </c>
       <c r="E263" s="8" t="s">
         <v>228</v>
@@ -7327,7 +7297,7 @@
         <v>416</v>
       </c>
       <c r="B417" s="3" t="n">
-        <v>114.109999999999999</v>
+        <v>114.110000000000014</v>
       </c>
       <c r="C417" t="s">
         <v>23</v>
